--- a/games.xlsx
+++ b/games.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="1248">
   <si>
     <t>Facebook</t>
   </si>
@@ -4484,6 +4484,197 @@
   </si>
   <si>
     <t>180鑽石</t>
+  </si>
+  <si>
+    <t>屍戰王朝</t>
+  </si>
+  <si>
+    <t>機甲變變變</t>
+  </si>
+  <si>
+    <t>星曲Ultra</t>
+  </si>
+  <si>
+    <t>《屍戰王朝》是以朝鮮王朝為背景的屍戰驚悚 MMO 手遊，遊戲內設有王朝特色職業供玩家自由選擇。朝鮮王庭武士為朝鮮第一劍，天生的武藝奇才精通劍法，擅長揮舞長劍捍衛國家的榮譽和百姓的安寧。遊牧遊獵則是居住在朝鮮王朝北方邊境的民族，擅長使用短刀攻擊和召喚蒼鷹發射羽箭。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《機甲變變變》是一款科幻機甲題材遊戲，主打「輕鬆射擊、瘋狂割草」的爽快戰鬥體驗，玩家將化身末日世界中的王牌機甲駕駛員，自由改裝各種帥氣、可愛機甲，搭配隕星炮、超級飛彈等毀滅級武器，無腦爽刷成群喪屍！ 單手就能輕鬆操作，見一個射一個，輕鬆上演千人斬，體驗無限割草快感，即使連戰數回也毫無壓力，真正做到「療癒又解壓」！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼少女蘭吉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《狼少女蘭吉！》 7月1日 正式上線 Go Go Wolf Idle RPG 狼人變身放置型無限成長 RPG | 少女吃了西紅柿 月光下變身狼人 施展猛烈砍殺動作 召喚強大的技能 設定終極技能組合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>仙境傳說</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>曙光</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由 Gravity Game Vision 打造的 MMORPG 手遊新作《RO 仙境傳說：曙光》今（3）日於港澳台地區雙平台（iOS / Android）正式上市。官方表示，本作延續《仙境傳說》經典 IP，結合創新的「英雄變身」與「雙人小隊」社交玩法，帶來全新 RO 體驗。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西方魔幻風格網頁遊戲《星曲》的全新手機遊戲《星曲 Ultra》於今日正式上線。官方表示，本作由原班團隊第七大道打造，既保留了原作版本的核心元素，又結合行動裝置特性進行全面最佳化，經典與創新的完美融合，讓這個十三年前的經典 IP 煥發新生命力。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000金條</t>
+  </si>
+  <si>
+    <t>5400金條</t>
+  </si>
+  <si>
+    <t>4500金條</t>
+  </si>
+  <si>
+    <t>3000金條</t>
+  </si>
+  <si>
+    <t>2400金條</t>
+  </si>
+  <si>
+    <t>1800金條</t>
+  </si>
+  <si>
+    <t>1200金條</t>
+  </si>
+  <si>
+    <t>900金條</t>
+  </si>
+  <si>
+    <t>600金條</t>
+  </si>
+  <si>
+    <t>300金條</t>
+  </si>
+  <si>
+    <t>60金條</t>
+  </si>
+  <si>
+    <t>三種卡</t>
+  </si>
+  <si>
+    <t>4500鑽石</t>
+  </si>
+  <si>
+    <t>1700鑽石</t>
+  </si>
+  <si>
+    <t>800鑽石</t>
+  </si>
+  <si>
+    <t>350鑽石</t>
+  </si>
+  <si>
+    <t>高級月卡</t>
+  </si>
+  <si>
+    <t>至尊月卡</t>
+  </si>
+  <si>
+    <t>高級戰令</t>
+  </si>
+  <si>
+    <t>豪華戰令</t>
+  </si>
+  <si>
+    <t>99900鑽石</t>
+  </si>
+  <si>
+    <t>49900鑽石</t>
+  </si>
+  <si>
+    <t>29900鑽石</t>
+  </si>
+  <si>
+    <t>9900鑽石</t>
+  </si>
+  <si>
+    <t>5900鑽石</t>
+  </si>
+  <si>
+    <t>1990禮包</t>
+  </si>
+  <si>
+    <t>990禮包</t>
+  </si>
+  <si>
+    <t>690禮包</t>
+  </si>
+  <si>
+    <t>490禮包</t>
+  </si>
+  <si>
+    <t>190禮包</t>
+  </si>
+  <si>
+    <t>3290台幣商品</t>
+  </si>
+  <si>
+    <t>1690台幣商品</t>
+  </si>
+  <si>
+    <t>990台幣商品</t>
+  </si>
+  <si>
+    <t>670台幣商品</t>
+  </si>
+  <si>
+    <t>490台幣商品</t>
+  </si>
+  <si>
+    <t>330台幣商品</t>
+  </si>
+  <si>
+    <t>170台幣商品</t>
+  </si>
+  <si>
+    <t>33台幣商品</t>
+  </si>
+  <si>
+    <t>1000鑽石</t>
+  </si>
+  <si>
+    <t>100鑽石</t>
+  </si>
+  <si>
+    <t>特惠禮包</t>
   </si>
 </sst>
 </file>
@@ -4989,10 +5180,10 @@
   <dimension ref="A1:AN233"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B127" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B132" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V130" sqref="V130"/>
+      <selection pane="bottomRight" activeCell="W140" sqref="W140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -12067,7 +12258,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="129" spans="1:30" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:34" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="22" t="s">
         <v>1125</v>
       </c>
@@ -12139,7 +12330,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:30" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:34" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="22" t="s">
         <v>1126</v>
       </c>
@@ -12217,12 +12408,12 @@
         <v>397</v>
       </c>
     </row>
-    <row r="131" spans="1:30" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:34" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="22" t="s">
         <v>1127</v>
       </c>
       <c r="F131" s="8" t="str">
-        <f t="shared" ref="F131:F134" si="2">"gift-codes.html?game=" &amp; A131</f>
+        <f t="shared" ref="F131:F139" si="2">"gift-codes.html?game=" &amp; A131</f>
         <v>gift-codes.html?game=緋石之心</v>
       </c>
       <c r="H131" s="12" t="s">
@@ -12283,7 +12474,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="132" spans="1:30" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:34" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="23" t="s">
         <v>1173</v>
       </c>
@@ -12355,7 +12546,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="1:30" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:34" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="22" t="s">
         <v>1170</v>
       </c>
@@ -12409,7 +12600,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:30" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:34" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="22" t="s">
         <v>1171</v>
       </c>
@@ -12481,16 +12672,371 @@
         <v>236</v>
       </c>
     </row>
-    <row r="135" spans="1:30" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:30" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:30" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:30" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:30" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:30" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:30" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:30" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:30" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:30" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:34" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="22" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F135" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>gift-codes.html?game=屍戰王朝</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="J135" s="2">
+        <v>2626</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="L135" s="2">
+        <v>2386</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="N135" s="2">
+        <v>1987</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="P135" s="2">
+        <v>1362</v>
+      </c>
+      <c r="Q135" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="R135" s="2">
+        <v>1078</v>
+      </c>
+      <c r="S135" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="T135" s="2">
+        <v>809</v>
+      </c>
+      <c r="U135" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="V135" s="2">
+        <v>555</v>
+      </c>
+      <c r="W135" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="X135" s="2">
+        <v>406</v>
+      </c>
+      <c r="Y135" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="Z135" s="2">
+        <v>275</v>
+      </c>
+      <c r="AA135" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="AB135" s="2">
+        <v>141</v>
+      </c>
+      <c r="AC135" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="AD135" s="2">
+        <v>27</v>
+      </c>
+      <c r="AE135" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="AF135" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="136" spans="1:34" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="22" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F136" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>gift-codes.html?game=機甲變變變</v>
+      </c>
+      <c r="H136" s="12" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J136" s="2">
+        <v>2626</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="L136" s="2">
+        <v>1362</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="N136" s="2">
+        <v>555</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="P136" s="2">
+        <v>275</v>
+      </c>
+      <c r="Q136" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="R136" s="2">
+        <v>141</v>
+      </c>
+      <c r="S136" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T136" s="2">
+        <v>30</v>
+      </c>
+      <c r="U136" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="V136" s="2">
+        <v>141</v>
+      </c>
+      <c r="W136" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="X136" s="2">
+        <v>555</v>
+      </c>
+      <c r="Y136" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="Z136" s="2">
+        <v>275</v>
+      </c>
+      <c r="AA136" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="AB136" s="2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="137" spans="1:34" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="23" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F137" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>gift-codes.html?game=狼少女蘭吉</v>
+      </c>
+      <c r="H137" s="12" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="J137" s="2">
+        <v>1845</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="L137" s="2">
+        <v>809</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="N137" s="2">
+        <v>572</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="P137" s="2">
+        <v>183</v>
+      </c>
+      <c r="Q137" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="R137" s="2">
+        <v>109</v>
+      </c>
+      <c r="S137" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="T137" s="2">
+        <v>30</v>
+      </c>
+      <c r="U137" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="V137" s="2">
+        <v>1603</v>
+      </c>
+      <c r="W137" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="X137" s="2">
+        <v>1054</v>
+      </c>
+      <c r="Y137" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="Z137" s="2">
+        <v>809</v>
+      </c>
+      <c r="AA137" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="AB137" s="2">
+        <v>572</v>
+      </c>
+      <c r="AC137" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="AD137" s="2">
+        <v>406</v>
+      </c>
+      <c r="AE137" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="AF137" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG137" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH137" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="138" spans="1:34" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="22" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F138" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>gift-codes.html?game=RO仙境傳說:曙光</v>
+      </c>
+      <c r="H138" s="12" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="J138" s="2">
+        <v>2626</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="L138" s="2">
+        <v>1362</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="N138" s="2">
+        <v>809</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="P138" s="2">
+        <v>555</v>
+      </c>
+      <c r="Q138" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="R138" s="2">
+        <v>406</v>
+      </c>
+      <c r="S138" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="T138" s="2">
+        <v>275</v>
+      </c>
+      <c r="U138" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="V138" s="2">
+        <v>141</v>
+      </c>
+      <c r="W138" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="X138" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:34" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="22" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F139" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>gift-codes.html?game=星曲Ultra</v>
+      </c>
+      <c r="H139" s="12" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J139" s="2">
+        <v>2626</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L139" s="2">
+        <v>1362</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="N139" s="2">
+        <v>555</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="P139" s="2">
+        <v>275</v>
+      </c>
+      <c r="Q139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R139" s="2">
+        <v>141</v>
+      </c>
+      <c r="S139" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="T139" s="2">
+        <v>30</v>
+      </c>
+      <c r="U139" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="V139" s="2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="140" spans="1:34" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:34" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:34" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:34" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:34" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="145" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="146" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="147" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/games.xlsx
+++ b/games.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="1251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1262">
   <si>
     <t>Facebook</t>
   </si>
@@ -23004,13 +23004,108 @@
       <t>你能否順利應對這危機四伏的環境，並帶領其他倖存者一起重建文明？</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美男惡徒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>《美男惡徒－暗夜中綻放的邪惡之戀》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CROWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>」是由維多利亞女王欽命成立的秘密組織。所有的成員都是擁有「童話詛咒」的男子，而這些詛咒賦予他們特殊的力量。他們以「以惡制惡」的方式，執行暗殺等任務，維護國家的穩定。
+　　原為郵差的妳，因意外得知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CROWN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的秘密而被迫成為「童話師」，負責記錄成員們的詛咒故事。在一個月內除了要與所有成員一起同住外，還需要記錄所有成員的故事，期間不得與任何人墜入愛河，否則將面臨死亡的命運。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12100鑽石</t>
+  </si>
+  <si>
+    <t>8000鑽石</t>
+  </si>
+  <si>
+    <t>5500鑽石</t>
+  </si>
+  <si>
+    <t>3200鑽石</t>
+  </si>
+  <si>
+    <t>1180鑽石</t>
+  </si>
+  <si>
+    <t>700鑽石</t>
+  </si>
+  <si>
+    <t>240鑽石</t>
+  </si>
+  <si>
+    <t>110鑽石</t>
+  </si>
+  <si>
+    <t>鑽石月卡</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -23062,13 +23157,25 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -23117,7 +23224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -23166,6 +23273,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -23478,7 +23594,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I139" sqref="I139"/>
+      <selection pane="bottomRight" activeCell="AA146" sqref="AA146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -30708,7 +30824,7 @@
         <v>61</v>
       </c>
       <c r="F131" s="8" t="str">
-        <f t="shared" ref="F131:F142" si="2">"gift-codes.html?game=" &amp; A131</f>
+        <f t="shared" ref="F131:F143" si="2">"gift-codes.html?game=" &amp; A131</f>
         <v>gift-codes.html?game=緋石之心</v>
       </c>
       <c r="H131" s="12" t="s">
@@ -31525,7 +31641,78 @@
         <v>83</v>
       </c>
     </row>
-    <row r="143" spans="1:34" ht="23.25" customHeight="1"/>
+    <row r="143" spans="1:34" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A143" s="19" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F143" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>gift-codes.html?game=美男惡徒</v>
+      </c>
+      <c r="H143" s="11" t="s">
+        <v>1252</v>
+      </c>
+      <c r="I143" s="20" t="s">
+        <v>1253</v>
+      </c>
+      <c r="J143" s="21">
+        <v>2626</v>
+      </c>
+      <c r="K143" s="20" t="s">
+        <v>1254</v>
+      </c>
+      <c r="L143" s="21">
+        <v>1764</v>
+      </c>
+      <c r="M143" s="20" t="s">
+        <v>1255</v>
+      </c>
+      <c r="N143" s="21">
+        <v>1217</v>
+      </c>
+      <c r="O143" s="20" t="s">
+        <v>1256</v>
+      </c>
+      <c r="P143" s="21">
+        <v>727</v>
+      </c>
+      <c r="Q143" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="R143" s="21">
+        <v>406</v>
+      </c>
+      <c r="S143" s="20" t="s">
+        <v>1257</v>
+      </c>
+      <c r="T143" s="21">
+        <v>287</v>
+      </c>
+      <c r="U143" s="20" t="s">
+        <v>1258</v>
+      </c>
+      <c r="V143" s="21">
+        <v>165</v>
+      </c>
+      <c r="W143" s="20" t="s">
+        <v>1259</v>
+      </c>
+      <c r="X143" s="21">
+        <v>61</v>
+      </c>
+      <c r="Y143" s="20" t="s">
+        <v>1260</v>
+      </c>
+      <c r="Z143" s="21">
+        <v>29</v>
+      </c>
+      <c r="AA143" s="20" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AB143" s="21">
+        <v>157</v>
+      </c>
+    </row>
     <row r="144" spans="1:34" ht="23.25" customHeight="1"/>
     <row r="145" ht="23.25" customHeight="1"/>
     <row r="146" ht="23.25" customHeight="1"/>

--- a/games.xlsx
+++ b/games.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="1289">
   <si>
     <t>Facebook</t>
   </si>
@@ -23099,6 +23099,87 @@
   </si>
   <si>
     <t>鑽石月卡</t>
+  </si>
+  <si>
+    <t>三國冰河時代</t>
+  </si>
+  <si>
+    <t>暗黑崛起</t>
+  </si>
+  <si>
+    <t>轉生魔劍士養成：策略放置RPG</t>
+  </si>
+  <si>
+    <t>64800元寶</t>
+  </si>
+  <si>
+    <t>32800元寶</t>
+  </si>
+  <si>
+    <t>12800元寶</t>
+  </si>
+  <si>
+    <t>6800元寶</t>
+  </si>
+  <si>
+    <t>3000元寶</t>
+  </si>
+  <si>
+    <t>600元寶</t>
+  </si>
+  <si>
+    <t>建造列隊</t>
+  </si>
+  <si>
+    <t>980珍珠</t>
+  </si>
+  <si>
+    <t>60珍珠</t>
+  </si>
+  <si>
+    <t>雙倍離線卡</t>
+  </si>
+  <si>
+    <t>91510寶石</t>
+  </si>
+  <si>
+    <t>43910寶石</t>
+  </si>
+  <si>
+    <t>23740寶石</t>
+  </si>
+  <si>
+    <t>7540寶石</t>
+  </si>
+  <si>
+    <t>3720寶石</t>
+  </si>
+  <si>
+    <t>1480寶石</t>
+  </si>
+  <si>
+    <t>150元造型禮包</t>
+  </si>
+  <si>
+    <t>320元禮包</t>
+  </si>
+  <si>
+    <t>690元禮包</t>
+  </si>
+  <si>
+    <t>990元禮包</t>
+  </si>
+  <si>
+    <t>極速漂移：3V3</t>
+  </si>
+  <si>
+    <t>挑戰手冊</t>
+  </si>
+  <si>
+    <t>菁英挑戰手冊</t>
+  </si>
+  <si>
+    <t>每日特惠</t>
   </si>
 </sst>
 </file>
@@ -23224,7 +23305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -23282,6 +23363,10 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -23594,7 +23679,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA146" sqref="AA146"/>
+      <selection pane="bottomRight" activeCell="AC147" sqref="AC147:AD147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -30824,7 +30909,7 @@
         <v>61</v>
       </c>
       <c r="F131" s="8" t="str">
-        <f t="shared" ref="F131:F143" si="2">"gift-codes.html?game=" &amp; A131</f>
+        <f t="shared" ref="F131:F147" si="2">"gift-codes.html?game=" &amp; A131</f>
         <v>gift-codes.html?game=緋石之心</v>
       </c>
       <c r="H131" s="12" t="s">
@@ -31713,23 +31798,265 @@
         <v>157</v>
       </c>
     </row>
-    <row r="144" spans="1:34" ht="23.25" customHeight="1"/>
-    <row r="145" ht="23.25" customHeight="1"/>
-    <row r="146" ht="23.25" customHeight="1"/>
-    <row r="147" ht="23.25" customHeight="1"/>
-    <row r="148" ht="23.25" customHeight="1"/>
-    <row r="149" ht="23.25" customHeight="1"/>
-    <row r="150" ht="23.25" customHeight="1"/>
-    <row r="151" ht="23.25" customHeight="1"/>
-    <row r="152" ht="23.25" customHeight="1"/>
-    <row r="153" ht="23.25" customHeight="1"/>
-    <row r="154" ht="23.25" customHeight="1"/>
-    <row r="155" ht="23.25" customHeight="1"/>
-    <row r="156" ht="23.25" customHeight="1"/>
-    <row r="157" ht="23.25" customHeight="1"/>
-    <row r="158" ht="23.25" customHeight="1"/>
-    <row r="159" ht="23.25" customHeight="1"/>
-    <row r="160" ht="23.25" customHeight="1"/>
+    <row r="144" spans="1:34" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A144" s="22" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F144" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>gift-codes.html?game=三國冰河時代</v>
+      </c>
+      <c r="I144" s="20" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J144" s="21">
+        <v>2626</v>
+      </c>
+      <c r="K144" s="20" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L144" s="21">
+        <v>1362</v>
+      </c>
+      <c r="M144" s="20" t="s">
+        <v>1267</v>
+      </c>
+      <c r="N144" s="21">
+        <v>555</v>
+      </c>
+      <c r="O144" s="20" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P144" s="21">
+        <v>287</v>
+      </c>
+      <c r="Q144" s="20" t="s">
+        <v>1269</v>
+      </c>
+      <c r="R144" s="21">
+        <v>148</v>
+      </c>
+      <c r="S144" s="20" t="s">
+        <v>1270</v>
+      </c>
+      <c r="T144" s="21">
+        <v>29</v>
+      </c>
+      <c r="U144" s="20" t="s">
+        <v>1271</v>
+      </c>
+      <c r="V144" s="21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="145" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A145" s="23" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F145" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>gift-codes.html?game=暗黑崛起</v>
+      </c>
+      <c r="I145" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J145" s="21">
+        <v>2386</v>
+      </c>
+      <c r="K145" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L145" s="21">
+        <v>1442</v>
+      </c>
+      <c r="M145" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N145" s="21">
+        <v>809</v>
+      </c>
+      <c r="O145" s="20" t="s">
+        <v>1272</v>
+      </c>
+      <c r="P145" s="21">
+        <v>406</v>
+      </c>
+      <c r="Q145" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="R145" s="21">
+        <v>130</v>
+      </c>
+      <c r="S145" s="20" t="s">
+        <v>1273</v>
+      </c>
+      <c r="T145" s="21">
+        <v>29</v>
+      </c>
+      <c r="U145" s="20" t="s">
+        <v>1274</v>
+      </c>
+      <c r="V145" s="21">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="146" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A146" s="23" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F146" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>gift-codes.html?game=轉生魔劍士養成：策略放置RPG</v>
+      </c>
+      <c r="I146" s="20" t="s">
+        <v>1275</v>
+      </c>
+      <c r="J146" s="21">
+        <v>2386</v>
+      </c>
+      <c r="K146" s="20" t="s">
+        <v>1276</v>
+      </c>
+      <c r="L146" s="21">
+        <v>1603</v>
+      </c>
+      <c r="M146" s="20" t="s">
+        <v>1277</v>
+      </c>
+      <c r="N146" s="21">
+        <v>809</v>
+      </c>
+      <c r="O146" s="20" t="s">
+        <v>1278</v>
+      </c>
+      <c r="P146" s="21">
+        <v>278</v>
+      </c>
+      <c r="Q146" s="20" t="s">
+        <v>1279</v>
+      </c>
+      <c r="R146" s="21">
+        <v>130</v>
+      </c>
+      <c r="S146" s="20" t="s">
+        <v>1280</v>
+      </c>
+      <c r="T146" s="21">
+        <v>52</v>
+      </c>
+      <c r="U146" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="V146" s="21">
+        <v>130</v>
+      </c>
+      <c r="W146" s="20" t="s">
+        <v>1282</v>
+      </c>
+      <c r="X146" s="21">
+        <v>278</v>
+      </c>
+      <c r="Y146" s="20" t="s">
+        <v>1283</v>
+      </c>
+      <c r="Z146" s="21">
+        <v>572</v>
+      </c>
+      <c r="AA146" s="20" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AB146" s="21">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="147" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A147" s="22" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F147" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>gift-codes.html?game=極速漂移：3V3</v>
+      </c>
+      <c r="I147" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J147" s="21">
+        <v>2386</v>
+      </c>
+      <c r="K147" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L147" s="21">
+        <v>1217</v>
+      </c>
+      <c r="M147" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N147" s="21">
+        <v>572</v>
+      </c>
+      <c r="O147" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="P147" s="21">
+        <v>278</v>
+      </c>
+      <c r="Q147" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="R147" s="21">
+        <v>130</v>
+      </c>
+      <c r="S147" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="T147" s="21">
+        <v>29</v>
+      </c>
+      <c r="U147" s="20" t="s">
+        <v>1286</v>
+      </c>
+      <c r="V147" s="21">
+        <v>278</v>
+      </c>
+      <c r="W147" s="20" t="s">
+        <v>1287</v>
+      </c>
+      <c r="X147" s="21">
+        <v>572</v>
+      </c>
+      <c r="Y147" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z147" s="21">
+        <v>130</v>
+      </c>
+      <c r="AA147" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB147" s="21">
+        <v>323</v>
+      </c>
+      <c r="AC147" s="20" t="s">
+        <v>1288</v>
+      </c>
+      <c r="AD147" s="21">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="148" spans="1:30" ht="23.25" customHeight="1"/>
+    <row r="149" spans="1:30" ht="23.25" customHeight="1"/>
+    <row r="150" spans="1:30" ht="23.25" customHeight="1"/>
+    <row r="151" spans="1:30" ht="23.25" customHeight="1"/>
+    <row r="152" spans="1:30" ht="23.25" customHeight="1"/>
+    <row r="153" spans="1:30" ht="23.25" customHeight="1"/>
+    <row r="154" spans="1:30" ht="23.25" customHeight="1"/>
+    <row r="155" spans="1:30" ht="23.25" customHeight="1"/>
+    <row r="156" spans="1:30" ht="23.25" customHeight="1"/>
+    <row r="157" spans="1:30" ht="23.25" customHeight="1"/>
+    <row r="158" spans="1:30" ht="23.25" customHeight="1"/>
+    <row r="159" spans="1:30" ht="23.25" customHeight="1"/>
+    <row r="160" spans="1:30" ht="23.25" customHeight="1"/>
     <row r="161" ht="23.25" customHeight="1"/>
     <row r="162" ht="23.25" customHeight="1"/>
     <row r="163" ht="23.25" customHeight="1"/>

--- a/games.xlsx
+++ b/games.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="1289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="1293">
   <si>
     <t>Facebook</t>
   </si>
@@ -23180,13 +23180,33 @@
   </si>
   <si>
     <t>每日特惠</t>
+  </si>
+  <si>
+    <t>輕鬆系三國冰雪模擬經營遊戲《三國冰河時代》今日再度公開全新重點與核心玩法特色，進一步展現「不肝也能玩」的輕鬆體驗，準備這個夏季來一場” 冰的” 三國演習。兩位人氣武將「孫尚香」與「張飛」也同步現身，將以全新造型與技能設計加入各位主公的隊伍。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【純正暗黑體驗，探索祕境之戰】戰法職業流派與豐富的職業內容同步釋出！與來自深海的邪惡勢力對抗，守護結界殘存的能量，成為統禦賽季最強的英雄！
+【暢快連擊無限割草，享受廝殺的快感】雙搖桿操作，無體力限制想戰就戰，面對不斷襲擊的敵人，使用各式各樣的技能爽快連擊、無限割草，Hack and Slash，簡單操作隨時暢玩，Speedrun考驗操作技術，回歸遊戲最純粹的樂趣。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「死亡不是終點復仇才正要開始。」
+魔劍士亞莉亞在與魔王決戰前夕遭到摯友們的背叛而喪命。
+然而她在死亡邊緣重獲新生回到了過去還是新手劍士的時代。
+帶著未來的記憶亞莉亞展開了第二次復仇與成長的旅程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《極速漂移:3v3》與全球玩家組隊競速、漂移，暢享速度激情。 《極速漂移:3v3》與許多世界頂尖車商合作，讓你能夠駕駛知名品牌的正版豪華車。 炫技般地做出令人驚嘆的漂移，在多樣且逼真的賽道上展開激烈的3v3 對戰，還能與全球玩家組隊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -23243,6 +23263,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -23305,7 +23332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -23366,6 +23393,10 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -23679,7 +23710,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC147" sqref="AC147:AD147"/>
+      <selection pane="bottomRight" activeCell="H144" sqref="H144:H147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -31806,6 +31837,9 @@
         <f t="shared" si="2"/>
         <v>gift-codes.html?game=三國冰河時代</v>
       </c>
+      <c r="H144" s="24" t="s">
+        <v>1289</v>
+      </c>
       <c r="I144" s="20" t="s">
         <v>1265</v>
       </c>
@@ -31857,6 +31891,9 @@
         <f t="shared" si="2"/>
         <v>gift-codes.html?game=暗黑崛起</v>
       </c>
+      <c r="H145" s="25" t="s">
+        <v>1290</v>
+      </c>
       <c r="I145" s="20" t="s">
         <v>19</v>
       </c>
@@ -31908,6 +31945,9 @@
         <f t="shared" si="2"/>
         <v>gift-codes.html?game=轉生魔劍士養成：策略放置RPG</v>
       </c>
+      <c r="H146" s="25" t="s">
+        <v>1291</v>
+      </c>
       <c r="I146" s="20" t="s">
         <v>1275</v>
       </c>
@@ -31976,6 +32016,9 @@
       <c r="F147" s="8" t="str">
         <f t="shared" si="2"/>
         <v>gift-codes.html?game=極速漂移：3V3</v>
+      </c>
+      <c r="H147" s="24" t="s">
+        <v>1292</v>
       </c>
       <c r="I147" s="20" t="s">
         <v>5</v>

--- a/games.xlsx
+++ b/games.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="1293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="1306">
   <si>
     <t>Facebook</t>
   </si>
@@ -23200,6 +23200,52 @@
   <si>
     <t>《極速漂移:3v3》與全球玩家組隊競速、漂移，暢享速度激情。 《極速漂移:3v3》與許多世界頂尖車商合作，讓你能夠駕駛知名品牌的正版豪華車。 炫技般地做出令人驚嘆的漂移，在多樣且逼真的賽道上展開激烈的3v3 對戰，還能與全球玩家組隊</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗羅大陸：獵魂世界</t>
+  </si>
+  <si>
+    <t>指點兵兵</t>
+  </si>
+  <si>
+    <t>《斗羅大陸：獵魂世界》作為首款基於頂尖國漫 IP《斗羅大陸》打造的開放世界 RPG，細膩還原魂獸、魂環、魂骨等核心設定，無論是施展酷炫魂技的燃魂激鬥，還是與夥伴組隊獵殺強大魂獸，都將為玩家帶來最真實的斗羅冒險。
+　　官方今日重磅釋出「斗羅時空」終極代言影片，影片中，終極一班原班人馬傾情演繹，從現實校園跨入斗羅大世界的時空，完美詮釋了遊戲「突破界限、勇敢冒險」的核心精神，點燃所有粉絲玩家的戰鬥熱血！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">《指點兵兵》這是一款以三國歷史為背景的塔防類策略遊戲。生於亂世，為了維護世間太平，玩家需要不斷招兵買馬，透過合理的資源配置和戰術安排，建造城池，排兵布陣，抵禦敵人的進攻，最後成為名震一方的主公。
+每局戰鬥共20波敵軍攻勢，透過隨機卡牌強化部隊，打造獨特戰術流派！
+主公將不斷解鎖新型兵種，合適的兵種互相搭配，可獲得獨一無二的聯合技！
+透過招兵買馬，軍師運籌帷幄，武將決勝千里，協助玩家過關斬將！
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>780鑽石</t>
+  </si>
+  <si>
+    <t>450鑽石</t>
+  </si>
+  <si>
+    <t>經典月卡</t>
+  </si>
+  <si>
+    <t>6480元寶</t>
+  </si>
+  <si>
+    <t>3280元寶</t>
+  </si>
+  <si>
+    <t>1280元寶</t>
+  </si>
+  <si>
+    <t>680元寶</t>
+  </si>
+  <si>
+    <t>300元寶</t>
+  </si>
+  <si>
+    <t>60元寶</t>
   </si>
 </sst>
 </file>
@@ -23710,7 +23756,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H144" sqref="H144:H147"/>
+      <selection pane="bottomRight" activeCell="S149" sqref="S149:T149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -30940,7 +30986,7 @@
         <v>61</v>
       </c>
       <c r="F131" s="8" t="str">
-        <f t="shared" ref="F131:F147" si="2">"gift-codes.html?game=" &amp; A131</f>
+        <f t="shared" ref="F131:F149" si="2">"gift-codes.html?game=" &amp; A131</f>
         <v>gift-codes.html?game=緋石之心</v>
       </c>
       <c r="H131" s="12" t="s">
@@ -32087,8 +32133,126 @@
         <v>87</v>
       </c>
     </row>
-    <row r="148" spans="1:30" ht="23.25" customHeight="1"/>
-    <row r="149" spans="1:30" ht="23.25" customHeight="1"/>
+    <row r="148" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A148" s="23" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F148" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>gift-codes.html?game=斗羅大陸：獵魂世界</v>
+      </c>
+      <c r="H148" s="25" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I148" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J148" s="21">
+        <v>2595</v>
+      </c>
+      <c r="K148" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L148" s="21">
+        <v>1346</v>
+      </c>
+      <c r="M148" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N148" s="21">
+        <v>799</v>
+      </c>
+      <c r="O148" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="P148" s="21">
+        <v>548</v>
+      </c>
+      <c r="Q148" s="20" t="s">
+        <v>1297</v>
+      </c>
+      <c r="R148" s="21">
+        <v>319</v>
+      </c>
+      <c r="S148" s="20" t="s">
+        <v>1298</v>
+      </c>
+      <c r="T148" s="21">
+        <v>198</v>
+      </c>
+      <c r="U148" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="V148" s="21">
+        <v>86</v>
+      </c>
+      <c r="W148" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="X148" s="21">
+        <v>28</v>
+      </c>
+      <c r="Y148" s="20" t="s">
+        <v>1299</v>
+      </c>
+      <c r="Z148" s="21">
+        <v>146</v>
+      </c>
+      <c r="AA148" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB148" s="21">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="149" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A149" s="23" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F149" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>gift-codes.html?game=指點兵兵</v>
+      </c>
+      <c r="H149" s="25" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I149" s="20" t="s">
+        <v>1300</v>
+      </c>
+      <c r="J149" s="21">
+        <v>2583</v>
+      </c>
+      <c r="K149" s="20" t="s">
+        <v>1301</v>
+      </c>
+      <c r="L149" s="21">
+        <v>1346</v>
+      </c>
+      <c r="M149" s="20" t="s">
+        <v>1302</v>
+      </c>
+      <c r="N149" s="21">
+        <v>541</v>
+      </c>
+      <c r="O149" s="20" t="s">
+        <v>1303</v>
+      </c>
+      <c r="P149" s="21">
+        <v>266</v>
+      </c>
+      <c r="Q149" s="20" t="s">
+        <v>1304</v>
+      </c>
+      <c r="R149" s="21">
+        <v>146</v>
+      </c>
+      <c r="S149" s="20" t="s">
+        <v>1305</v>
+      </c>
+      <c r="T149" s="21">
+        <v>28</v>
+      </c>
+    </row>
     <row r="150" spans="1:30" ht="23.25" customHeight="1"/>
     <row r="151" spans="1:30" ht="23.25" customHeight="1"/>
     <row r="152" spans="1:30" ht="23.25" customHeight="1"/>

--- a/games.xlsx
+++ b/games.xlsx
@@ -23753,10 +23753,10 @@
   <dimension ref="A1:AN232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S149" sqref="S149:T149"/>
+      <selection pane="bottomRight" activeCell="L148" sqref="L148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -23914,7 +23914,7 @@
         <v>242</v>
       </c>
       <c r="L2" s="9">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>243</v>
@@ -23950,13 +23950,13 @@
         <v>248</v>
       </c>
       <c r="X2" s="8">
-        <v>2430</v>
+        <v>2395</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>249</v>
       </c>
       <c r="Z2" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>250</v>
@@ -23974,7 +23974,7 @@
         <v>252</v>
       </c>
       <c r="AF2" s="8">
-        <v>1320</v>
+        <v>1260</v>
       </c>
       <c r="AG2" s="8" t="s">
         <v>253</v>
@@ -24008,7 +24008,7 @@
         <v>257</v>
       </c>
       <c r="L3" s="9">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>258</v>
@@ -24032,13 +24032,13 @@
         <v>261</v>
       </c>
       <c r="T3" s="8">
-        <v>2420</v>
+        <v>2350</v>
       </c>
       <c r="U3" s="8" t="s">
         <v>262</v>
       </c>
       <c r="V3" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="W3" s="8" t="s">
         <v>263</v>
@@ -24072,31 +24072,31 @@
         <v>267</v>
       </c>
       <c r="J4" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>268</v>
       </c>
       <c r="L4" s="9">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>269</v>
       </c>
       <c r="N4" s="9">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>270</v>
       </c>
       <c r="P4" s="9">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="Q4" s="9" t="s">
         <v>271</v>
       </c>
       <c r="R4" s="9">
-        <v>810</v>
+        <v>786</v>
       </c>
       <c r="S4" s="8" t="s">
         <v>272</v>
@@ -24108,19 +24108,19 @@
         <v>273</v>
       </c>
       <c r="V4" s="8">
-        <v>1380</v>
+        <v>1323</v>
       </c>
       <c r="W4" s="8" t="s">
         <v>274</v>
       </c>
       <c r="X4" s="8">
-        <v>2690</v>
+        <v>2551</v>
       </c>
       <c r="Y4" s="8" t="s">
         <v>275</v>
       </c>
       <c r="Z4" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>276</v>
@@ -24138,7 +24138,7 @@
         <v>278</v>
       </c>
       <c r="AF4" s="8">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="23.25" customHeight="1">
@@ -24166,31 +24166,31 @@
         <v>281</v>
       </c>
       <c r="L5" s="8">
-        <v>2700</v>
+        <v>2551</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>282</v>
       </c>
       <c r="N5" s="8">
-        <v>1420</v>
+        <v>1323</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>283</v>
       </c>
       <c r="P5" s="8">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="Q5" s="8" t="s">
         <v>284</v>
       </c>
       <c r="R5" s="8">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="S5" s="8" t="s">
         <v>285</v>
       </c>
       <c r="T5" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="U5" s="8" t="s">
         <v>286</v>
@@ -24224,7 +24224,7 @@
         <v>289</v>
       </c>
       <c r="L6" s="8">
-        <v>1350</v>
+        <v>1323</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>290</v>
@@ -24242,7 +24242,7 @@
         <v>292</v>
       </c>
       <c r="R6" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S6" s="8" t="s">
         <v>293</v>
@@ -24267,7 +24267,7 @@
         <v>296</v>
       </c>
       <c r="J7" s="8">
-        <v>2520</v>
+        <v>2551</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>297</v>
@@ -24279,25 +24279,25 @@
         <v>298</v>
       </c>
       <c r="N7" s="8">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>299</v>
       </c>
       <c r="P7" s="8">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="Q7" s="8" t="s">
         <v>300</v>
       </c>
       <c r="R7" s="8">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="S7" s="8" t="s">
         <v>301</v>
       </c>
       <c r="T7" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="U7" s="8" t="s">
         <v>302</v>
@@ -24322,43 +24322,43 @@
         <v>304</v>
       </c>
       <c r="J8" s="8">
-        <v>2690</v>
+        <v>2551</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>305</v>
       </c>
       <c r="L8" s="8">
-        <v>1380</v>
+        <v>1323</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>306</v>
       </c>
       <c r="N8" s="8">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>307</v>
       </c>
       <c r="P8" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="Q8" s="8" t="s">
         <v>308</v>
       </c>
       <c r="R8" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="S8" s="8" t="s">
         <v>309</v>
       </c>
       <c r="T8" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="U8" s="8" t="s">
         <v>310</v>
       </c>
       <c r="V8" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="23.25" customHeight="1">
@@ -24377,7 +24377,7 @@
         <v>312</v>
       </c>
       <c r="J9" s="8">
-        <v>2690</v>
+        <v>2551</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>313</v>
@@ -24395,25 +24395,25 @@
         <v>315</v>
       </c>
       <c r="P9" s="8">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="Q9" s="8" t="s">
         <v>316</v>
       </c>
       <c r="R9" s="8">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="S9" s="8" t="s">
         <v>317</v>
       </c>
       <c r="T9" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="U9" s="8" t="s">
         <v>318</v>
       </c>
       <c r="V9" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="W9" s="8" t="s">
         <v>319</v>
@@ -24438,31 +24438,31 @@
         <v>321</v>
       </c>
       <c r="J10" s="8">
-        <v>2690</v>
+        <v>2551</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>322</v>
       </c>
       <c r="L10" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>323</v>
       </c>
       <c r="N10" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>324</v>
       </c>
       <c r="P10" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="8" t="s">
         <v>325</v>
       </c>
       <c r="R10" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="S10" s="8" t="s">
         <v>326</v>
@@ -24487,43 +24487,43 @@
         <v>304</v>
       </c>
       <c r="J11" s="8">
-        <v>2690</v>
+        <v>2551</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>328</v>
       </c>
       <c r="L11" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>329</v>
       </c>
       <c r="N11" s="8">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>307</v>
       </c>
       <c r="P11" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="Q11" s="8" t="s">
         <v>308</v>
       </c>
       <c r="R11" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="S11" s="8" t="s">
         <v>330</v>
       </c>
       <c r="T11" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="U11" s="8" t="s">
         <v>331</v>
       </c>
       <c r="V11" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="23.25" customHeight="1">
@@ -24585,43 +24585,43 @@
         <v>339</v>
       </c>
       <c r="J13" s="8">
-        <v>2690</v>
+        <v>2551</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>328</v>
       </c>
       <c r="L13" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>306</v>
       </c>
       <c r="N13" s="8">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>340</v>
       </c>
       <c r="P13" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="Q13" s="8" t="s">
         <v>341</v>
       </c>
       <c r="R13" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="S13" s="8" t="s">
         <v>342</v>
       </c>
       <c r="T13" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="U13" s="8" t="s">
         <v>331</v>
       </c>
       <c r="V13" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="23.25" customHeight="1">
@@ -24640,43 +24640,43 @@
         <v>345</v>
       </c>
       <c r="J14" s="8">
-        <v>2690</v>
+        <v>2551</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>346</v>
       </c>
       <c r="L14" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>347</v>
       </c>
       <c r="N14" s="8">
-        <v>880</v>
+        <v>786</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>348</v>
       </c>
       <c r="P14" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="Q14" s="8" t="s">
         <v>349</v>
       </c>
       <c r="R14" s="8">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="S14" s="8" t="s">
         <v>350</v>
       </c>
       <c r="T14" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="U14" s="8" t="s">
         <v>351</v>
       </c>
       <c r="V14" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="W14" s="8" t="s">
         <v>352</v>
@@ -24701,43 +24701,43 @@
         <v>354</v>
       </c>
       <c r="J15" s="8">
-        <v>2690</v>
+        <v>2551</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>355</v>
       </c>
       <c r="L15" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>306</v>
       </c>
       <c r="N15" s="8">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>340</v>
       </c>
       <c r="P15" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="Q15" s="8" t="s">
         <v>308</v>
       </c>
       <c r="R15" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="S15" s="8" t="s">
         <v>309</v>
       </c>
       <c r="T15" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="U15" s="8" t="s">
         <v>356</v>
       </c>
       <c r="V15" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="23.25" customHeight="1">
@@ -24756,43 +24756,43 @@
         <v>339</v>
       </c>
       <c r="J16" s="8">
-        <v>2690</v>
+        <v>2551</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>358</v>
       </c>
       <c r="L16" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>359</v>
       </c>
       <c r="N16" s="8">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>307</v>
       </c>
       <c r="P16" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="Q16" s="8" t="s">
         <v>308</v>
       </c>
       <c r="R16" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="S16" s="8" t="s">
         <v>309</v>
       </c>
       <c r="T16" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="U16" s="8" t="s">
         <v>360</v>
       </c>
       <c r="V16" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="23.25" customHeight="1">
@@ -24811,43 +24811,43 @@
         <v>363</v>
       </c>
       <c r="J17" s="8">
-        <v>2690</v>
+        <v>2551</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>364</v>
       </c>
       <c r="L17" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>365</v>
       </c>
       <c r="N17" s="8">
-        <v>870</v>
+        <v>786</v>
       </c>
       <c r="O17" s="8" t="s">
         <v>366</v>
       </c>
       <c r="P17" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="Q17" s="8" t="s">
         <v>367</v>
       </c>
       <c r="R17" s="8">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="S17" s="8" t="s">
         <v>368</v>
       </c>
       <c r="T17" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="U17" s="8" t="s">
         <v>369</v>
       </c>
       <c r="V17" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="W17" s="8" t="s">
         <v>370</v>
@@ -24872,43 +24872,43 @@
         <v>373</v>
       </c>
       <c r="J18" s="8">
-        <v>2690</v>
+        <v>2551</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>374</v>
       </c>
       <c r="L18" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>375</v>
       </c>
       <c r="N18" s="8">
-        <v>870</v>
+        <v>786</v>
       </c>
       <c r="O18" s="8" t="s">
         <v>376</v>
       </c>
       <c r="P18" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="Q18" s="8" t="s">
         <v>377</v>
       </c>
       <c r="R18" s="8">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="S18" s="8" t="s">
         <v>378</v>
       </c>
       <c r="T18" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="U18" s="8" t="s">
         <v>379</v>
       </c>
       <c r="V18" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="W18" s="8" t="s">
         <v>380</v>
@@ -24951,7 +24951,7 @@
         <v>385</v>
       </c>
       <c r="P19" s="8">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="Q19" s="8" t="s">
         <v>386</v>
@@ -24982,31 +24982,31 @@
         <v>390</v>
       </c>
       <c r="J20" s="8">
-        <v>2690</v>
+        <v>2551</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>391</v>
       </c>
       <c r="L20" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>392</v>
       </c>
       <c r="N20" s="8">
-        <v>880</v>
+        <v>786</v>
       </c>
       <c r="O20" s="8" t="s">
         <v>393</v>
       </c>
       <c r="P20" s="8">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="Q20" s="8" t="s">
         <v>394</v>
       </c>
       <c r="R20" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="S20" s="8" t="s">
         <v>395</v>
@@ -25043,19 +25043,19 @@
         <v>400</v>
       </c>
       <c r="N21" s="8">
-        <v>600</v>
+        <v>539</v>
       </c>
       <c r="O21" s="8" t="s">
         <v>401</v>
       </c>
       <c r="P21" s="8">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="Q21" s="8" t="s">
         <v>402</v>
       </c>
       <c r="R21" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="23.25" customHeight="1">
@@ -25074,43 +25074,43 @@
         <v>405</v>
       </c>
       <c r="J22" s="8">
-        <v>2690</v>
+        <v>2551</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>305</v>
       </c>
       <c r="L22" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>329</v>
       </c>
       <c r="N22" s="8">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="O22" s="8" t="s">
         <v>406</v>
       </c>
       <c r="P22" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="Q22" s="8" t="s">
         <v>341</v>
       </c>
       <c r="R22" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="S22" s="8" t="s">
         <v>407</v>
       </c>
       <c r="T22" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="U22" s="8" t="s">
         <v>310</v>
       </c>
       <c r="V22" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="23.25" customHeight="1">
@@ -25129,31 +25129,31 @@
         <v>410</v>
       </c>
       <c r="J23" s="8">
-        <v>2690</v>
+        <v>2551</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>411</v>
       </c>
       <c r="L23" s="8">
-        <v>1440</v>
+        <v>1323</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>412</v>
       </c>
       <c r="N23" s="8">
-        <v>880</v>
+        <v>786</v>
       </c>
       <c r="O23" s="8" t="s">
         <v>413</v>
       </c>
       <c r="P23" s="8">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="Q23" s="8" t="s">
         <v>414</v>
       </c>
       <c r="R23" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="S23" s="8" t="s">
         <v>415</v>
@@ -25227,43 +25227,43 @@
         <v>405</v>
       </c>
       <c r="J25" s="8">
-        <v>2690</v>
+        <v>2551</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>426</v>
       </c>
       <c r="L25" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>306</v>
       </c>
       <c r="N25" s="8">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="O25" s="8" t="s">
         <v>307</v>
       </c>
       <c r="P25" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="Q25" s="8" t="s">
         <v>427</v>
       </c>
       <c r="R25" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="S25" s="8" t="s">
         <v>428</v>
       </c>
       <c r="T25" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="U25" s="8" t="s">
         <v>429</v>
       </c>
       <c r="V25" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="23.25" customHeight="1">
@@ -25286,7 +25286,7 @@
         <v>432</v>
       </c>
       <c r="L26" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>433</v>
@@ -25298,13 +25298,13 @@
         <v>434</v>
       </c>
       <c r="P26" s="8">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="Q26" s="8" t="s">
         <v>435</v>
       </c>
       <c r="R26" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="23.25" customHeight="1">
@@ -25323,7 +25323,7 @@
         <v>438</v>
       </c>
       <c r="J27" s="8">
-        <v>1290</v>
+        <v>1323</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>439</v>
@@ -25335,7 +25335,7 @@
         <v>440</v>
       </c>
       <c r="N27" s="8">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="O27" s="8" t="s">
         <v>441</v>
@@ -25347,19 +25347,19 @@
         <v>442</v>
       </c>
       <c r="R27" s="8">
-        <v>600</v>
+        <v>539</v>
       </c>
       <c r="S27" s="8" t="s">
         <v>443</v>
       </c>
       <c r="T27" s="8">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="U27" s="8" t="s">
         <v>444</v>
       </c>
       <c r="V27" s="8">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="W27" s="8" t="s">
         <v>445</v>
@@ -25384,43 +25384,43 @@
         <v>448</v>
       </c>
       <c r="J28" s="8">
-        <v>2690</v>
+        <v>2551</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>305</v>
       </c>
       <c r="L28" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>329</v>
       </c>
       <c r="N28" s="8">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="O28" s="8" t="s">
         <v>449</v>
       </c>
       <c r="P28" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="Q28" s="8" t="s">
         <v>450</v>
       </c>
       <c r="R28" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="S28" s="8" t="s">
         <v>451</v>
       </c>
       <c r="T28" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="U28" s="8" t="s">
         <v>452</v>
       </c>
       <c r="V28" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="23.25" customHeight="1">
@@ -25439,7 +25439,7 @@
         <v>455</v>
       </c>
       <c r="J29" s="8">
-        <v>2490</v>
+        <v>2320</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>456</v>
@@ -25457,13 +25457,13 @@
         <v>458</v>
       </c>
       <c r="P29" s="8">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="Q29" s="8" t="s">
         <v>459</v>
       </c>
       <c r="R29" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S29" s="8" t="s">
         <v>460</v>
@@ -25475,7 +25475,7 @@
         <v>461</v>
       </c>
       <c r="V29" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="W29" s="8" t="s">
         <v>462</v>
@@ -25506,43 +25506,43 @@
         <v>339</v>
       </c>
       <c r="J30" s="8">
-        <v>2670</v>
+        <v>2551</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>328</v>
       </c>
       <c r="L30" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>306</v>
       </c>
       <c r="N30" s="8">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="O30" s="8" t="s">
         <v>466</v>
       </c>
       <c r="P30" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="Q30" s="8" t="s">
         <v>467</v>
       </c>
       <c r="R30" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="S30" s="8" t="s">
         <v>342</v>
       </c>
       <c r="T30" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="U30" s="8" t="s">
         <v>360</v>
       </c>
       <c r="V30" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="23.25" customHeight="1">
@@ -25561,7 +25561,7 @@
         <v>470</v>
       </c>
       <c r="J31" s="8">
-        <v>2720</v>
+        <v>2551</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>305</v>
@@ -25573,31 +25573,31 @@
         <v>306</v>
       </c>
       <c r="N31" s="8">
-        <v>840</v>
+        <v>786</v>
       </c>
       <c r="O31" s="8" t="s">
         <v>340</v>
       </c>
       <c r="P31" s="8">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="Q31" s="8" t="s">
         <v>308</v>
       </c>
       <c r="R31" s="8">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="S31" s="8" t="s">
         <v>471</v>
       </c>
       <c r="T31" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="U31" s="8" t="s">
         <v>331</v>
       </c>
       <c r="V31" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="23.25" customHeight="1">
@@ -25616,7 +25616,7 @@
         <v>448</v>
       </c>
       <c r="J32" s="8">
-        <v>2720</v>
+        <v>2551</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>305</v>
@@ -25628,31 +25628,31 @@
         <v>306</v>
       </c>
       <c r="N32" s="8">
-        <v>840</v>
+        <v>786</v>
       </c>
       <c r="O32" s="8" t="s">
         <v>307</v>
       </c>
       <c r="P32" s="8">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="Q32" s="8" t="s">
         <v>474</v>
       </c>
       <c r="R32" s="8">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="S32" s="8" t="s">
         <v>471</v>
       </c>
       <c r="T32" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="U32" s="8" t="s">
         <v>356</v>
       </c>
       <c r="V32" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="23.25" customHeight="1">
@@ -25671,7 +25671,7 @@
         <v>477</v>
       </c>
       <c r="J33" s="8">
-        <v>2690</v>
+        <v>2551</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>478</v>
@@ -25683,31 +25683,31 @@
         <v>479</v>
       </c>
       <c r="N33" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="O33" s="8" t="s">
         <v>480</v>
       </c>
       <c r="P33" s="8">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="Q33" s="8" t="s">
         <v>481</v>
       </c>
       <c r="R33" s="8">
-        <v>590</v>
+        <v>539</v>
       </c>
       <c r="S33" s="8" t="s">
         <v>482</v>
       </c>
       <c r="T33" s="8">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="U33" s="8" t="s">
         <v>483</v>
       </c>
       <c r="V33" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="W33" s="8" t="s">
         <v>484</v>
@@ -25732,43 +25732,43 @@
         <v>487</v>
       </c>
       <c r="J34" s="8">
-        <v>2840</v>
+        <v>2551</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>488</v>
       </c>
       <c r="L34" s="8">
-        <v>1430</v>
+        <v>1323</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>489</v>
       </c>
       <c r="N34" s="8">
-        <v>870</v>
+        <v>786</v>
       </c>
       <c r="O34" s="8" t="s">
         <v>490</v>
       </c>
       <c r="P34" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="Q34" s="8" t="s">
         <v>491</v>
       </c>
       <c r="R34" s="8">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="S34" s="8" t="s">
         <v>492</v>
       </c>
       <c r="T34" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="U34" s="8" t="s">
         <v>493</v>
       </c>
       <c r="V34" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="W34" s="8" t="s">
         <v>494</v>
@@ -25823,7 +25823,7 @@
         <v>502</v>
       </c>
       <c r="R35" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S35" s="8" t="s">
         <v>503</v>
@@ -25854,25 +25854,25 @@
         <v>507</v>
       </c>
       <c r="L36" s="8">
-        <v>1350</v>
+        <v>1323</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>508</v>
       </c>
       <c r="N36" s="8">
-        <v>840</v>
+        <v>786</v>
       </c>
       <c r="O36" s="8" t="s">
         <v>509</v>
       </c>
       <c r="P36" s="8">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="Q36" s="8" t="s">
         <v>510</v>
       </c>
       <c r="R36" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S36" s="8" t="s">
         <v>511</v>
@@ -25884,7 +25884,7 @@
         <v>512</v>
       </c>
       <c r="V36" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="W36" s="8" t="s">
         <v>513</v>
@@ -25933,7 +25933,7 @@
         <v>520</v>
       </c>
       <c r="P37" s="8">
-        <v>1430</v>
+        <v>1323</v>
       </c>
       <c r="Q37" s="8" t="s">
         <v>521</v>
@@ -25957,7 +25957,7 @@
         <v>524</v>
       </c>
       <c r="X37" s="8">
-        <v>300</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="23.25" customHeight="1">
@@ -25976,7 +25976,7 @@
         <v>339</v>
       </c>
       <c r="J38" s="8">
-        <v>2720</v>
+        <v>2551</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>527</v>
@@ -25988,31 +25988,31 @@
         <v>528</v>
       </c>
       <c r="N38" s="8">
-        <v>840</v>
+        <v>786</v>
       </c>
       <c r="O38" s="8" t="s">
         <v>529</v>
       </c>
       <c r="P38" s="8">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="Q38" s="8" t="s">
         <v>308</v>
       </c>
       <c r="R38" s="8">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="S38" s="8" t="s">
         <v>530</v>
       </c>
       <c r="T38" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="U38" s="8" t="s">
         <v>452</v>
       </c>
       <c r="V38" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="23.25" customHeight="1">
@@ -26031,31 +26031,31 @@
         <v>533</v>
       </c>
       <c r="J39" s="8">
-        <v>2550</v>
+        <v>2320</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>534</v>
       </c>
       <c r="L39" s="8">
-        <v>1350</v>
+        <v>1323</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>535</v>
       </c>
       <c r="N39" s="8">
-        <v>840</v>
+        <v>786</v>
       </c>
       <c r="O39" s="8" t="s">
         <v>536</v>
       </c>
       <c r="P39" s="8">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="Q39" s="8" t="s">
         <v>537</v>
       </c>
       <c r="R39" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S39" s="8" t="s">
         <v>538</v>
@@ -26067,7 +26067,7 @@
         <v>539</v>
       </c>
       <c r="V39" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="W39" s="8" t="s">
         <v>540</v>
@@ -26098,43 +26098,43 @@
         <v>304</v>
       </c>
       <c r="J40" s="8">
-        <v>2690</v>
+        <v>2420</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>544</v>
       </c>
       <c r="L40" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>545</v>
       </c>
       <c r="N40" s="8">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="O40" s="8" t="s">
         <v>307</v>
       </c>
       <c r="P40" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="Q40" s="8" t="s">
         <v>341</v>
       </c>
       <c r="R40" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="S40" s="8" t="s">
         <v>546</v>
       </c>
       <c r="T40" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="U40" s="8" t="s">
         <v>356</v>
       </c>
       <c r="V40" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="23.25" customHeight="1">
@@ -26153,19 +26153,19 @@
         <v>549</v>
       </c>
       <c r="J41" s="8">
-        <v>2750</v>
+        <v>2551</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>550</v>
       </c>
       <c r="L41" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>551</v>
       </c>
       <c r="N41" s="8">
-        <v>880</v>
+        <v>786</v>
       </c>
       <c r="O41" s="8" t="s">
         <v>552</v>
@@ -26177,7 +26177,7 @@
         <v>553</v>
       </c>
       <c r="R41" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="S41" s="8" t="s">
         <v>554</v>
@@ -26226,7 +26226,7 @@
         <v>561</v>
       </c>
       <c r="R42" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="23.25" customHeight="1">
@@ -26245,43 +26245,43 @@
         <v>563</v>
       </c>
       <c r="J43" s="8">
-        <v>2680</v>
+        <v>2551</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>374</v>
       </c>
       <c r="L43" s="8">
-        <v>1440</v>
+        <v>1323</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>564</v>
       </c>
       <c r="N43" s="8">
-        <v>840</v>
+        <v>786</v>
       </c>
       <c r="O43" s="8" t="s">
         <v>565</v>
       </c>
       <c r="P43" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="Q43" s="8" t="s">
         <v>566</v>
       </c>
       <c r="R43" s="8">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="S43" s="8" t="s">
         <v>567</v>
       </c>
       <c r="T43" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="U43" s="8" t="s">
         <v>568</v>
       </c>
       <c r="V43" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="W43" s="8" t="s">
         <v>484</v>
@@ -26306,7 +26306,7 @@
         <v>571</v>
       </c>
       <c r="J44" s="8">
-        <v>2720</v>
+        <v>2551</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>572</v>
@@ -26318,31 +26318,31 @@
         <v>306</v>
       </c>
       <c r="N44" s="8">
-        <v>840</v>
+        <v>786</v>
       </c>
       <c r="O44" s="8" t="s">
         <v>573</v>
       </c>
       <c r="P44" s="8">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="Q44" s="8" t="s">
         <v>427</v>
       </c>
       <c r="R44" s="8">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="S44" s="8" t="s">
         <v>574</v>
       </c>
       <c r="T44" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="U44" s="8" t="s">
         <v>310</v>
       </c>
       <c r="V44" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="23.25" customHeight="1">
@@ -26361,7 +26361,7 @@
         <v>577</v>
       </c>
       <c r="J45" s="8">
-        <v>2680</v>
+        <v>2551</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>578</v>
@@ -26373,19 +26373,19 @@
         <v>579</v>
       </c>
       <c r="N45" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="O45" s="8" t="s">
         <v>580</v>
       </c>
       <c r="P45" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="Q45" s="8" t="s">
         <v>581</v>
       </c>
       <c r="R45" s="8">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="S45" s="8" t="s">
         <v>380</v>
@@ -26410,43 +26410,43 @@
         <v>339</v>
       </c>
       <c r="J46" s="8">
-        <v>2670</v>
+        <v>2551</v>
       </c>
       <c r="K46" s="8" t="s">
         <v>584</v>
       </c>
       <c r="L46" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>585</v>
       </c>
       <c r="N46" s="8">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="O46" s="8" t="s">
         <v>449</v>
       </c>
       <c r="P46" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="Q46" s="8" t="s">
         <v>586</v>
       </c>
       <c r="R46" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="S46" s="8" t="s">
         <v>587</v>
       </c>
       <c r="T46" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="U46" s="8" t="s">
         <v>588</v>
       </c>
       <c r="V46" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="23.25" customHeight="1">
@@ -26483,13 +26483,13 @@
         <v>594</v>
       </c>
       <c r="P47" s="8">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="Q47" s="8" t="s">
         <v>595</v>
       </c>
       <c r="R47" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S47" s="8" t="s">
         <v>596</v>
@@ -26520,25 +26520,25 @@
         <v>600</v>
       </c>
       <c r="L48" s="8">
-        <v>1290</v>
+        <v>1323</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>601</v>
       </c>
       <c r="N48" s="8">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="O48" s="8" t="s">
         <v>602</v>
       </c>
       <c r="P48" s="8">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="Q48" s="8" t="s">
         <v>603</v>
       </c>
       <c r="R48" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="S48" s="8" t="s">
         <v>604</v>
@@ -26569,7 +26569,7 @@
         <v>607</v>
       </c>
       <c r="J49" s="8">
-        <v>2670</v>
+        <v>2551</v>
       </c>
       <c r="K49" s="8" t="s">
         <v>608</v>
@@ -26581,25 +26581,25 @@
         <v>609</v>
       </c>
       <c r="N49" s="8">
-        <v>840</v>
+        <v>786</v>
       </c>
       <c r="O49" s="8" t="s">
         <v>610</v>
       </c>
       <c r="P49" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="Q49" s="8" t="s">
         <v>611</v>
       </c>
       <c r="R49" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="S49" s="8" t="s">
         <v>612</v>
       </c>
       <c r="T49" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="23.25" customHeight="1">
@@ -26630,25 +26630,25 @@
         <v>617</v>
       </c>
       <c r="N50" s="8">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>618</v>
       </c>
       <c r="P50" s="8">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="Q50" s="8" t="s">
         <v>619</v>
       </c>
       <c r="R50" s="8">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="S50" s="8" t="s">
         <v>620</v>
       </c>
       <c r="T50" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="23.25" customHeight="1">
@@ -26673,7 +26673,7 @@
         <v>624</v>
       </c>
       <c r="L51" s="8">
-        <v>1290</v>
+        <v>1323</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>625</v>
@@ -26685,7 +26685,7 @@
         <v>626</v>
       </c>
       <c r="P51" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="Q51" s="8" t="s">
         <v>627</v>
@@ -26716,31 +26716,31 @@
         <v>608</v>
       </c>
       <c r="L52" s="8">
-        <v>1290</v>
+        <v>1323</v>
       </c>
       <c r="M52" s="8" t="s">
         <v>631</v>
       </c>
       <c r="N52" s="8">
-        <v>840</v>
+        <v>786</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>632</v>
       </c>
       <c r="P52" s="8">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="Q52" s="8" t="s">
         <v>633</v>
       </c>
       <c r="R52" s="8">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="S52" s="8" t="s">
         <v>634</v>
       </c>
       <c r="T52" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="U52" s="8" t="s">
         <v>635</v>
@@ -26765,31 +26765,31 @@
         <v>638</v>
       </c>
       <c r="J53" s="8">
-        <v>2670</v>
+        <v>2551</v>
       </c>
       <c r="K53" s="8" t="s">
         <v>639</v>
       </c>
       <c r="L53" s="8">
-        <v>1440</v>
+        <v>1323</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>640</v>
       </c>
       <c r="N53" s="8">
-        <v>840</v>
+        <v>786</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>641</v>
       </c>
       <c r="P53" s="8">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="Q53" s="8" t="s">
         <v>642</v>
       </c>
       <c r="R53" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="S53" s="8" t="s">
         <v>643</v>
@@ -26826,13 +26826,13 @@
         <v>648</v>
       </c>
       <c r="N54" s="8">
-        <v>750</v>
+        <v>786</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>649</v>
       </c>
       <c r="P54" s="8">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="Q54" s="8" t="s">
         <v>650</v>
@@ -26863,13 +26863,13 @@
         <v>654</v>
       </c>
       <c r="J55" s="8">
-        <v>2850</v>
+        <v>2551</v>
       </c>
       <c r="K55" s="8" t="s">
         <v>655</v>
       </c>
       <c r="L55" s="8">
-        <v>1490</v>
+        <v>1323</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>656</v>
@@ -26881,13 +26881,13 @@
         <v>552</v>
       </c>
       <c r="P55" s="8">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="Q55" s="8" t="s">
         <v>657</v>
       </c>
       <c r="R55" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="S55" s="8" t="s">
         <v>658</v>
@@ -26918,31 +26918,31 @@
         <v>662</v>
       </c>
       <c r="J56" s="8">
-        <v>2850</v>
+        <v>2551</v>
       </c>
       <c r="K56" s="8" t="s">
         <v>663</v>
       </c>
       <c r="L56" s="8">
-        <v>1490</v>
+        <v>1323</v>
       </c>
       <c r="M56" s="8" t="s">
         <v>664</v>
       </c>
       <c r="N56" s="8">
-        <v>590</v>
+        <v>539</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>665</v>
       </c>
       <c r="P56" s="8">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="Q56" s="8" t="s">
         <v>666</v>
       </c>
       <c r="R56" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="S56" s="8" t="s">
         <v>667</v>
@@ -26967,31 +26967,31 @@
         <v>670</v>
       </c>
       <c r="J57" s="8">
-        <v>2850</v>
+        <v>2551</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>671</v>
       </c>
       <c r="L57" s="8">
-        <v>1480</v>
+        <v>1323</v>
       </c>
       <c r="M57" s="8" t="s">
         <v>672</v>
       </c>
       <c r="N57" s="8">
-        <v>590</v>
+        <v>539</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>673</v>
       </c>
       <c r="P57" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="Q57" s="8" t="s">
         <v>674</v>
       </c>
       <c r="R57" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="S57" s="8" t="s">
         <v>675</v>
@@ -27016,19 +27016,19 @@
         <v>678</v>
       </c>
       <c r="J58" s="8">
-        <v>2850</v>
+        <v>2551</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>679</v>
       </c>
       <c r="L58" s="8">
-        <v>1490</v>
+        <v>1323</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>680</v>
       </c>
       <c r="N58" s="8">
-        <v>880</v>
+        <v>786</v>
       </c>
       <c r="O58" s="8" t="s">
         <v>681</v>
@@ -27040,13 +27040,13 @@
         <v>682</v>
       </c>
       <c r="R58" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="S58" s="8" t="s">
         <v>683</v>
       </c>
       <c r="T58" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="U58" s="8" t="s">
         <v>684</v>
@@ -27083,37 +27083,37 @@
         <v>689</v>
       </c>
       <c r="J59" s="8">
-        <v>2850</v>
+        <v>2551</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>690</v>
       </c>
       <c r="L59" s="8">
-        <v>1490</v>
+        <v>1323</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>691</v>
       </c>
       <c r="N59" s="8">
-        <v>880</v>
+        <v>786</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>692</v>
       </c>
       <c r="P59" s="8">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="Q59" s="8" t="s">
         <v>693</v>
       </c>
       <c r="R59" s="8">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="S59" s="8" t="s">
         <v>694</v>
       </c>
       <c r="T59" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="U59" s="8" t="s">
         <v>695</v>
@@ -27138,43 +27138,43 @@
         <v>698</v>
       </c>
       <c r="J60" s="8">
-        <v>2850</v>
+        <v>2551</v>
       </c>
       <c r="K60" s="8" t="s">
         <v>699</v>
       </c>
       <c r="L60" s="8">
-        <v>1490</v>
+        <v>1323</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>700</v>
       </c>
       <c r="N60" s="8">
-        <v>990</v>
+        <v>786</v>
       </c>
       <c r="O60" s="8" t="s">
         <v>701</v>
       </c>
       <c r="P60" s="8">
-        <v>590</v>
+        <v>539</v>
       </c>
       <c r="Q60" s="8" t="s">
         <v>702</v>
       </c>
       <c r="R60" s="8">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="S60" s="8" t="s">
         <v>703</v>
       </c>
       <c r="T60" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="U60" s="8" t="s">
         <v>704</v>
       </c>
       <c r="V60" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="W60" s="8" t="s">
         <v>705</v>
@@ -27198,7 +27198,7 @@
         <v>707</v>
       </c>
       <c r="J61" s="8">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>708</v>
@@ -27222,7 +27222,7 @@
         <v>711</v>
       </c>
       <c r="R61" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S61" s="8" t="s">
         <v>712</v>
@@ -27246,31 +27246,31 @@
         <v>715</v>
       </c>
       <c r="J62" s="8">
-        <v>2670</v>
+        <v>2551</v>
       </c>
       <c r="K62" s="8" t="s">
         <v>716</v>
       </c>
       <c r="L62" s="8">
-        <v>1470</v>
+        <v>1323</v>
       </c>
       <c r="M62" s="8" t="s">
         <v>717</v>
       </c>
       <c r="N62" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="O62" s="8" t="s">
         <v>718</v>
       </c>
       <c r="P62" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="Q62" s="8" t="s">
         <v>719</v>
       </c>
       <c r="R62" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S62" s="8" t="s">
         <v>720</v>
@@ -27294,19 +27294,19 @@
         <v>723</v>
       </c>
       <c r="J63" s="8">
-        <v>2670</v>
+        <v>2551</v>
       </c>
       <c r="K63" s="8" t="s">
         <v>724</v>
       </c>
       <c r="L63" s="8">
-        <v>1470</v>
+        <v>1323</v>
       </c>
       <c r="M63" s="8" t="s">
         <v>725</v>
       </c>
       <c r="N63" s="8">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="O63" s="8" t="s">
         <v>726</v>
@@ -27318,13 +27318,13 @@
         <v>727</v>
       </c>
       <c r="R63" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="S63" s="8" t="s">
         <v>728</v>
       </c>
       <c r="T63" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="U63" s="8" t="s">
         <v>729</v>
@@ -27384,25 +27384,25 @@
         <v>738</v>
       </c>
       <c r="L65" s="8">
-        <v>1470</v>
+        <v>1323</v>
       </c>
       <c r="M65" s="8" t="s">
         <v>739</v>
       </c>
       <c r="N65" s="8">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="O65" s="8" t="s">
         <v>393</v>
       </c>
       <c r="P65" s="8">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="Q65" s="8" t="s">
         <v>740</v>
       </c>
       <c r="R65" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S65" s="8" t="s">
         <v>741</v>
@@ -27426,31 +27426,31 @@
         <v>744</v>
       </c>
       <c r="J66" s="8">
-        <v>2670</v>
+        <v>2551</v>
       </c>
       <c r="K66" s="8" t="s">
         <v>745</v>
       </c>
       <c r="L66" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M66" s="8" t="s">
         <v>746</v>
       </c>
       <c r="N66" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="O66" s="8" t="s">
         <v>747</v>
       </c>
       <c r="P66" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="Q66" s="8" t="s">
         <v>748</v>
       </c>
       <c r="R66" s="8">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="S66" s="8" t="s">
         <v>749</v>
@@ -27480,25 +27480,25 @@
         <v>753</v>
       </c>
       <c r="L67" s="8">
-        <v>1480</v>
+        <v>1323</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>754</v>
       </c>
       <c r="N67" s="8">
-        <v>600</v>
+        <v>539</v>
       </c>
       <c r="O67" s="8" t="s">
         <v>755</v>
       </c>
       <c r="P67" s="8">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="Q67" s="8" t="s">
         <v>756</v>
       </c>
       <c r="R67" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S67" s="8" t="s">
         <v>757</v>
@@ -27522,19 +27522,19 @@
         <v>760</v>
       </c>
       <c r="J68" s="8">
-        <v>2670</v>
+        <v>2551</v>
       </c>
       <c r="K68" s="8" t="s">
         <v>761</v>
       </c>
       <c r="L68" s="8">
-        <v>1420</v>
+        <v>2551</v>
       </c>
       <c r="M68" s="8" t="s">
         <v>762</v>
       </c>
       <c r="N68" s="8">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="O68" s="8" t="s">
         <v>763</v>
@@ -27546,7 +27546,7 @@
         <v>764</v>
       </c>
       <c r="R68" s="8">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="S68" s="8" t="s">
         <v>765</v>
@@ -27570,25 +27570,25 @@
         <v>768</v>
       </c>
       <c r="J69" s="8">
-        <v>2670</v>
+        <v>2551</v>
       </c>
       <c r="K69" s="8" t="s">
         <v>769</v>
       </c>
       <c r="L69" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M69" s="8" t="s">
         <v>770</v>
       </c>
       <c r="N69" s="8">
-        <v>910</v>
+        <v>786</v>
       </c>
       <c r="O69" s="8" t="s">
         <v>771</v>
       </c>
       <c r="P69" s="8">
-        <v>600</v>
+        <v>539</v>
       </c>
       <c r="Q69" s="8" t="s">
         <v>772</v>
@@ -27606,7 +27606,7 @@
         <v>774</v>
       </c>
       <c r="V69" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="W69" s="8" t="s">
         <v>775</v>
@@ -27660,7 +27660,7 @@
         <v>783</v>
       </c>
       <c r="R70" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S70" s="8" t="s">
         <v>784</v>
@@ -27684,19 +27684,19 @@
         <v>787</v>
       </c>
       <c r="J71" s="8">
-        <v>2670</v>
+        <v>2551</v>
       </c>
       <c r="K71" s="8" t="s">
         <v>374</v>
       </c>
       <c r="L71" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M71" s="8" t="s">
         <v>564</v>
       </c>
       <c r="N71" s="8">
-        <v>910</v>
+        <v>786</v>
       </c>
       <c r="O71" s="8" t="s">
         <v>788</v>
@@ -27708,7 +27708,7 @@
         <v>379</v>
       </c>
       <c r="R71" s="8">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="S71" s="8" t="s">
         <v>789</v>
@@ -27738,7 +27738,7 @@
         <v>793</v>
       </c>
       <c r="L72" s="8">
-        <v>1290</v>
+        <v>1323</v>
       </c>
       <c r="M72" s="8" t="s">
         <v>794</v>
@@ -27750,13 +27750,13 @@
         <v>795</v>
       </c>
       <c r="P72" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="Q72" s="8" t="s">
         <v>796</v>
       </c>
       <c r="R72" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S72" s="8" t="s">
         <v>797</v>
@@ -27780,19 +27780,19 @@
         <v>800</v>
       </c>
       <c r="J73" s="8">
-        <v>2670</v>
+        <v>2551</v>
       </c>
       <c r="K73" s="8" t="s">
         <v>801</v>
       </c>
       <c r="L73" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M73" s="8" t="s">
         <v>802</v>
       </c>
       <c r="N73" s="8">
-        <v>910</v>
+        <v>786</v>
       </c>
       <c r="O73" s="8" t="s">
         <v>803</v>
@@ -27804,7 +27804,7 @@
         <v>804</v>
       </c>
       <c r="R73" s="8">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="S73" s="8" t="s">
         <v>627</v>
@@ -27828,37 +27828,37 @@
         <v>807</v>
       </c>
       <c r="J74" s="8">
-        <v>2670</v>
+        <v>2551</v>
       </c>
       <c r="K74" s="8" t="s">
         <v>808</v>
       </c>
       <c r="L74" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M74" s="8" t="s">
         <v>809</v>
       </c>
       <c r="N74" s="8">
-        <v>870</v>
+        <v>786</v>
       </c>
       <c r="O74" s="8" t="s">
         <v>810</v>
       </c>
       <c r="P74" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="Q74" s="8" t="s">
         <v>811</v>
       </c>
       <c r="R74" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="S74" s="8" t="s">
         <v>812</v>
       </c>
       <c r="T74" s="8">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="U74" s="8" t="s">
         <v>718</v>
@@ -27882,37 +27882,37 @@
         <v>815</v>
       </c>
       <c r="J75" s="8">
-        <v>2670</v>
+        <v>2551</v>
       </c>
       <c r="K75" s="8" t="s">
         <v>816</v>
       </c>
       <c r="L75" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M75" s="8" t="s">
         <v>817</v>
       </c>
       <c r="N75" s="8">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="O75" s="8" t="s">
         <v>818</v>
       </c>
       <c r="P75" s="8">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="Q75" s="8" t="s">
         <v>819</v>
       </c>
       <c r="R75" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="S75" s="8" t="s">
         <v>820</v>
       </c>
       <c r="T75" s="8">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="U75" s="8" t="s">
         <v>821</v>
@@ -27936,37 +27936,37 @@
         <v>563</v>
       </c>
       <c r="J76" s="8">
-        <v>2670</v>
+        <v>2551</v>
       </c>
       <c r="K76" s="8" t="s">
         <v>824</v>
       </c>
       <c r="L76" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M76" s="8" t="s">
         <v>825</v>
       </c>
       <c r="N76" s="8">
-        <v>870</v>
+        <v>786</v>
       </c>
       <c r="O76" s="8" t="s">
         <v>376</v>
       </c>
       <c r="P76" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="Q76" s="8" t="s">
         <v>826</v>
       </c>
       <c r="R76" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="S76" s="8" t="s">
         <v>827</v>
       </c>
       <c r="T76" s="8">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="U76" s="8" t="s">
         <v>828</v>
@@ -27990,31 +27990,31 @@
         <v>831</v>
       </c>
       <c r="J77" s="8">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="K77" s="8" t="s">
         <v>832</v>
       </c>
       <c r="L77" s="8">
-        <v>1290</v>
+        <v>1323</v>
       </c>
       <c r="M77" s="8" t="s">
         <v>833</v>
       </c>
       <c r="N77" s="8">
-        <v>590</v>
+        <v>539</v>
       </c>
       <c r="O77" s="8" t="s">
         <v>834</v>
       </c>
       <c r="P77" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="Q77" s="8" t="s">
         <v>581</v>
       </c>
       <c r="R77" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S77" s="8" t="s">
         <v>835</v>
@@ -28038,31 +28038,31 @@
         <v>838</v>
       </c>
       <c r="J78" s="8">
-        <v>2670</v>
+        <v>2551</v>
       </c>
       <c r="K78" s="8" t="s">
         <v>839</v>
       </c>
       <c r="L78" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M78" s="8" t="s">
         <v>840</v>
       </c>
       <c r="N78" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="O78" s="8" t="s">
         <v>841</v>
       </c>
       <c r="P78" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="Q78" s="8" t="s">
         <v>842</v>
       </c>
       <c r="R78" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S78" s="8" t="s">
         <v>843</v>
@@ -28092,7 +28092,7 @@
         <v>847</v>
       </c>
       <c r="J79" s="8">
-        <v>2670</v>
+        <v>2551</v>
       </c>
       <c r="K79" s="8" t="s">
         <v>848</v>
@@ -28104,31 +28104,31 @@
         <v>849</v>
       </c>
       <c r="N79" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="O79" s="8" t="s">
         <v>850</v>
       </c>
       <c r="P79" s="8">
-        <v>880</v>
+        <v>786</v>
       </c>
       <c r="Q79" s="8" t="s">
         <v>851</v>
       </c>
       <c r="R79" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="S79" s="8" t="s">
         <v>852</v>
       </c>
       <c r="T79" s="8">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="U79" s="8" t="s">
         <v>853</v>
       </c>
       <c r="V79" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="W79" s="8" t="s">
         <v>854</v>
@@ -28140,7 +28140,7 @@
         <v>855</v>
       </c>
       <c r="Z79" s="8">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="AA79" s="8" t="s">
         <v>856</v>
@@ -28176,37 +28176,37 @@
         <v>861</v>
       </c>
       <c r="J80" s="8">
-        <v>2670</v>
+        <v>2551</v>
       </c>
       <c r="K80" s="8" t="s">
         <v>608</v>
       </c>
       <c r="L80" s="8">
-        <v>1450</v>
+        <v>1323</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>862</v>
       </c>
       <c r="N80" s="8">
-        <v>880</v>
+        <v>786</v>
       </c>
       <c r="O80" s="8" t="s">
         <v>863</v>
       </c>
       <c r="P80" s="8">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="Q80" s="8" t="s">
         <v>864</v>
       </c>
       <c r="R80" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="S80" s="8" t="s">
         <v>865</v>
       </c>
       <c r="T80" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="U80" s="8" t="s">
         <v>866</v>
@@ -28230,7 +28230,7 @@
         <v>869</v>
       </c>
       <c r="J81" s="8">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="K81" s="8" t="s">
         <v>870</v>
@@ -28242,19 +28242,19 @@
         <v>871</v>
       </c>
       <c r="N81" s="8">
-        <v>590</v>
+        <v>539</v>
       </c>
       <c r="O81" s="8" t="s">
         <v>872</v>
       </c>
       <c r="P81" s="8">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="Q81" s="8" t="s">
         <v>873</v>
       </c>
       <c r="R81" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:36" ht="23.25" customHeight="1">
@@ -28272,31 +28272,31 @@
         <v>875</v>
       </c>
       <c r="J82" s="8">
-        <v>2840</v>
+        <v>2551</v>
       </c>
       <c r="K82" s="8" t="s">
         <v>876</v>
       </c>
       <c r="L82" s="8">
-        <v>1430</v>
+        <v>1323</v>
       </c>
       <c r="M82" s="8" t="s">
         <v>376</v>
       </c>
       <c r="N82" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="O82" s="8" t="s">
         <v>877</v>
       </c>
       <c r="P82" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="Q82" s="8" t="s">
         <v>878</v>
       </c>
       <c r="R82" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="S82" s="8" t="s">
         <v>765</v>
@@ -28332,7 +28332,7 @@
         <v>883</v>
       </c>
       <c r="N83" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:36" ht="23.25" customHeight="1">
@@ -28368,7 +28368,7 @@
         <v>888</v>
       </c>
       <c r="P84" s="8">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="Q84" s="8" t="s">
         <v>889</v>
@@ -28380,7 +28380,7 @@
         <v>890</v>
       </c>
       <c r="T84" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:36" ht="23.25" customHeight="1">
@@ -28398,7 +28398,7 @@
         <v>893</v>
       </c>
       <c r="J85" s="8">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="K85" s="8" t="s">
         <v>894</v>
@@ -28410,7 +28410,7 @@
         <v>895</v>
       </c>
       <c r="N85" s="8">
-        <v>750</v>
+        <v>786</v>
       </c>
       <c r="O85" s="8" t="s">
         <v>896</v>
@@ -28422,7 +28422,7 @@
         <v>897</v>
       </c>
       <c r="R85" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="S85" s="8" t="s">
         <v>898</v>
@@ -28446,7 +28446,7 @@
         <v>901</v>
       </c>
       <c r="J86" s="8">
-        <v>2750</v>
+        <v>2551</v>
       </c>
       <c r="K86" s="8" t="s">
         <v>902</v>
@@ -28458,19 +28458,19 @@
         <v>903</v>
       </c>
       <c r="N86" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="O86" s="8" t="s">
         <v>904</v>
       </c>
       <c r="P86" s="8">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="Q86" s="8" t="s">
         <v>905</v>
       </c>
       <c r="R86" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="S86" s="8" t="s">
         <v>906</v>
@@ -28494,13 +28494,13 @@
         <v>909</v>
       </c>
       <c r="J87" s="8">
-        <v>2600</v>
+        <v>2551</v>
       </c>
       <c r="K87" s="8" t="s">
         <v>910</v>
       </c>
       <c r="L87" s="8">
-        <v>1350</v>
+        <v>1323</v>
       </c>
       <c r="M87" s="8" t="s">
         <v>911</v>
@@ -28518,7 +28518,7 @@
         <v>913</v>
       </c>
       <c r="R87" s="8">
-        <v>600</v>
+        <v>539</v>
       </c>
       <c r="S87" s="8" t="s">
         <v>914</v>
@@ -28554,7 +28554,7 @@
         <v>919</v>
       </c>
       <c r="J88" s="8">
-        <v>2600</v>
+        <v>2551</v>
       </c>
       <c r="K88" s="8" t="s">
         <v>920</v>
@@ -28578,7 +28578,7 @@
         <v>923</v>
       </c>
       <c r="R88" s="8">
-        <v>1350</v>
+        <v>1323</v>
       </c>
       <c r="S88" s="8" t="s">
         <v>924</v>
@@ -28590,7 +28590,7 @@
         <v>925</v>
       </c>
       <c r="V88" s="8">
-        <v>880</v>
+        <v>786</v>
       </c>
       <c r="W88" s="8" t="s">
         <v>926</v>
@@ -28620,7 +28620,7 @@
         <v>930</v>
       </c>
       <c r="AF88" s="8">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="AG88" s="8" t="s">
         <v>931</v>
@@ -28632,7 +28632,7 @@
         <v>932</v>
       </c>
       <c r="AJ88" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:36" ht="23.25" customHeight="1">
@@ -28668,7 +28668,7 @@
         <v>938</v>
       </c>
       <c r="P89" s="8">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="Q89" s="8" t="s">
         <v>939</v>
@@ -28710,13 +28710,13 @@
         <v>945</v>
       </c>
       <c r="N90" s="8">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="O90" s="8" t="s">
         <v>946</v>
       </c>
       <c r="P90" s="8">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="Q90" s="8" t="s">
         <v>947</v>
@@ -28794,31 +28794,31 @@
         <v>959</v>
       </c>
       <c r="J92" s="8">
-        <v>2750</v>
+        <v>2551</v>
       </c>
       <c r="K92" s="8" t="s">
         <v>960</v>
       </c>
       <c r="L92" s="8">
-        <v>1400</v>
+        <v>1323</v>
       </c>
       <c r="M92" s="8" t="s">
         <v>961</v>
       </c>
       <c r="N92" s="8">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="O92" s="8" t="s">
         <v>962</v>
       </c>
       <c r="P92" s="8">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="Q92" s="8" t="s">
         <v>963</v>
       </c>
       <c r="R92" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="S92" s="8" t="s">
         <v>964</v>
@@ -28842,19 +28842,19 @@
         <v>967</v>
       </c>
       <c r="J93" s="8">
-        <v>2750</v>
+        <v>2551</v>
       </c>
       <c r="K93" s="8" t="s">
         <v>968</v>
       </c>
       <c r="L93" s="8">
-        <v>1400</v>
+        <v>1323</v>
       </c>
       <c r="M93" s="8" t="s">
         <v>969</v>
       </c>
       <c r="N93" s="8">
-        <v>950</v>
+        <v>786</v>
       </c>
       <c r="O93" s="8" t="s">
         <v>970</v>
@@ -28866,7 +28866,7 @@
         <v>971</v>
       </c>
       <c r="R93" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="S93" s="8" t="s">
         <v>972</v>
@@ -28890,13 +28890,13 @@
         <v>787</v>
       </c>
       <c r="J94" s="8">
-        <v>2700</v>
+        <v>2551</v>
       </c>
       <c r="K94" s="8" t="s">
         <v>975</v>
       </c>
       <c r="L94" s="8">
-        <v>1350</v>
+        <v>1323</v>
       </c>
       <c r="M94" s="8" t="s">
         <v>976</v>
@@ -28908,13 +28908,13 @@
         <v>977</v>
       </c>
       <c r="P94" s="8">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="Q94" s="8" t="s">
         <v>978</v>
       </c>
       <c r="R94" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S94" s="8" t="s">
         <v>979</v>
@@ -28938,13 +28938,13 @@
         <v>982</v>
       </c>
       <c r="J95" s="8">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="K95" s="8" t="s">
         <v>983</v>
       </c>
       <c r="L95" s="8">
-        <v>1350</v>
+        <v>1323</v>
       </c>
       <c r="M95" s="8" t="s">
         <v>984</v>
@@ -28968,7 +28968,7 @@
         <v>987</v>
       </c>
       <c r="T95" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="U95" s="8" t="s">
         <v>988</v>
@@ -29076,13 +29076,13 @@
         <v>1005</v>
       </c>
       <c r="P98" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="Q98" s="8" t="s">
         <v>1006</v>
       </c>
       <c r="R98" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S98" s="8" t="s">
         <v>1007</v>
@@ -29124,7 +29124,7 @@
         <v>1013</v>
       </c>
       <c r="P99" s="8">
-        <v>880</v>
+        <v>786</v>
       </c>
       <c r="Q99" s="8" t="s">
         <v>1014</v>
@@ -29142,7 +29142,7 @@
         <v>1016</v>
       </c>
       <c r="V99" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="W99" s="8" t="s">
         <v>828</v>
@@ -29166,7 +29166,7 @@
         <v>1019</v>
       </c>
       <c r="J100" s="8">
-        <v>2680</v>
+        <v>2551</v>
       </c>
       <c r="K100" s="8" t="s">
         <v>1020</v>
@@ -29184,13 +29184,13 @@
         <v>1022</v>
       </c>
       <c r="P100" s="8">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="Q100" s="8" t="s">
         <v>1023</v>
       </c>
       <c r="R100" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="S100" s="8" t="s">
         <v>1024</v>
@@ -29214,7 +29214,7 @@
         <v>1027</v>
       </c>
       <c r="J101" s="8">
-        <v>2630</v>
+        <v>2420</v>
       </c>
       <c r="K101" s="8" t="s">
         <v>1028</v>
@@ -29226,19 +29226,19 @@
         <v>1029</v>
       </c>
       <c r="N101" s="8">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="O101" s="8" t="s">
         <v>1030</v>
       </c>
       <c r="P101" s="8">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="Q101" s="8" t="s">
         <v>1031</v>
       </c>
       <c r="R101" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="S101" s="8" t="s">
         <v>1032</v>
@@ -29250,7 +29250,7 @@
         <v>1033</v>
       </c>
       <c r="V101" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="23.25" customHeight="1" thickBot="1">
@@ -29292,7 +29292,7 @@
         <v>1040</v>
       </c>
       <c r="R102" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S102" s="8" t="s">
         <v>1041</v>
@@ -29304,7 +29304,7 @@
         <v>1042</v>
       </c>
       <c r="V102" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:28" ht="23.25" customHeight="1" thickBot="1">
@@ -29322,37 +29322,37 @@
         <v>1045</v>
       </c>
       <c r="J103" s="17">
-        <v>2659</v>
+        <v>2551</v>
       </c>
       <c r="K103" s="16" t="s">
         <v>1046</v>
       </c>
       <c r="L103" s="17">
-        <v>1385</v>
+        <v>1323</v>
       </c>
       <c r="M103" s="16" t="s">
         <v>1047</v>
       </c>
       <c r="N103" s="17">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="O103" s="16" t="s">
         <v>1048</v>
       </c>
       <c r="P103" s="17">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="Q103" s="16" t="s">
         <v>1049</v>
       </c>
       <c r="R103" s="17">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S103" s="16" t="s">
         <v>1050</v>
       </c>
       <c r="T103" s="17">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="23.25" customHeight="1" thickBot="1">
@@ -29370,13 +29370,13 @@
         <v>1053</v>
       </c>
       <c r="J104" s="17">
-        <v>2659</v>
+        <v>2551</v>
       </c>
       <c r="K104" s="16" t="s">
         <v>1054</v>
       </c>
       <c r="L104" s="17">
-        <v>1385</v>
+        <v>1323</v>
       </c>
       <c r="M104" s="16" t="s">
         <v>1055</v>
@@ -29388,25 +29388,25 @@
         <v>1056</v>
       </c>
       <c r="P104" s="17">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="Q104" s="16" t="s">
         <v>1057</v>
       </c>
       <c r="R104" s="17">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="S104" s="16" t="s">
         <v>1058</v>
       </c>
       <c r="T104" s="17">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="U104" s="16" t="s">
         <v>1059</v>
       </c>
       <c r="V104" s="17">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="W104" s="16" t="s">
         <v>1060</v>
@@ -29442,37 +29442,37 @@
         <v>1065</v>
       </c>
       <c r="J105" s="17">
-        <v>2659</v>
+        <v>2551</v>
       </c>
       <c r="K105" s="16" t="s">
         <v>1066</v>
       </c>
       <c r="L105" s="17">
-        <v>1385</v>
+        <v>1323</v>
       </c>
       <c r="M105" s="16" t="s">
         <v>1067</v>
       </c>
       <c r="N105" s="17">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="O105" s="16" t="s">
         <v>1068</v>
       </c>
       <c r="P105" s="17">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="Q105" s="16" t="s">
         <v>1069</v>
       </c>
       <c r="R105" s="17">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S105" s="16" t="s">
         <v>1070</v>
       </c>
       <c r="T105" s="17">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:28" ht="23.25" customHeight="1" thickBot="1">
@@ -29490,13 +29490,13 @@
         <v>1073</v>
       </c>
       <c r="J106" s="17">
-        <v>2659</v>
+        <v>2551</v>
       </c>
       <c r="K106" s="16" t="s">
         <v>1074</v>
       </c>
       <c r="L106" s="17">
-        <v>1385</v>
+        <v>1323</v>
       </c>
       <c r="M106" s="16" t="s">
         <v>1075</v>
@@ -29508,31 +29508,31 @@
         <v>1076</v>
       </c>
       <c r="P106" s="17">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="Q106" s="16" t="s">
         <v>1077</v>
       </c>
       <c r="R106" s="17">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="S106" s="16" t="s">
         <v>1078</v>
       </c>
       <c r="T106" s="17">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="U106" s="16" t="s">
         <v>1079</v>
       </c>
       <c r="V106" s="17">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="W106" s="16" t="s">
         <v>1080</v>
       </c>
       <c r="X106" s="17">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:28" ht="23.25" customHeight="1" thickBot="1">
@@ -29550,7 +29550,7 @@
         <v>1083</v>
       </c>
       <c r="J107" s="17">
-        <v>2659</v>
+        <v>2551</v>
       </c>
       <c r="K107" s="16" t="s">
         <v>1084</v>
@@ -29598,31 +29598,31 @@
         <v>1091</v>
       </c>
       <c r="J108" s="17">
-        <v>2659</v>
+        <v>2551</v>
       </c>
       <c r="K108" s="16" t="s">
         <v>1092</v>
       </c>
       <c r="L108" s="17">
-        <v>1385</v>
+        <v>1323</v>
       </c>
       <c r="M108" s="16" t="s">
         <v>1093</v>
       </c>
       <c r="N108" s="17">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="O108" s="16" t="s">
         <v>1094</v>
       </c>
       <c r="P108" s="17">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="Q108" s="16" t="s">
         <v>1069</v>
       </c>
       <c r="R108" s="17">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S108" s="16" t="s">
         <v>1095</v>
@@ -29640,13 +29640,13 @@
         <v>1097</v>
       </c>
       <c r="X108" s="17">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="Y108" s="16" t="s">
         <v>1098</v>
       </c>
       <c r="Z108" s="17">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" spans="1:28" ht="23.25" customHeight="1" thickBot="1">
@@ -29664,31 +29664,31 @@
         <v>1101</v>
       </c>
       <c r="J109" s="17">
-        <v>2659</v>
+        <v>2551</v>
       </c>
       <c r="K109" s="16" t="s">
         <v>1102</v>
       </c>
       <c r="L109" s="17">
-        <v>1385</v>
+        <v>1323</v>
       </c>
       <c r="M109" s="16" t="s">
         <v>1103</v>
       </c>
       <c r="N109" s="17">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="O109" s="16" t="s">
         <v>1104</v>
       </c>
       <c r="P109" s="17">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="Q109" s="16" t="s">
         <v>1105</v>
       </c>
       <c r="R109" s="17">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S109" s="16" t="s">
         <v>1106</v>
@@ -29718,13 +29718,13 @@
         <v>1110</v>
       </c>
       <c r="J110" s="17">
-        <v>2659</v>
+        <v>2551</v>
       </c>
       <c r="K110" s="16" t="s">
         <v>1111</v>
       </c>
       <c r="L110" s="17">
-        <v>1385</v>
+        <v>1323</v>
       </c>
       <c r="M110" s="16" t="s">
         <v>1112</v>
@@ -29736,31 +29736,31 @@
         <v>1113</v>
       </c>
       <c r="P110" s="17">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="Q110" s="16" t="s">
         <v>1114</v>
       </c>
       <c r="R110" s="17">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S110" s="16" t="s">
         <v>1115</v>
       </c>
       <c r="T110" s="17">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="U110" s="16" t="s">
         <v>1116</v>
       </c>
       <c r="V110" s="17">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="W110" s="16" t="s">
         <v>1117</v>
       </c>
       <c r="X110" s="17">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="1:28" ht="23.25" customHeight="1" thickBot="1">
@@ -29778,13 +29778,13 @@
         <v>1119</v>
       </c>
       <c r="J111" s="17">
-        <v>2659</v>
+        <v>2551</v>
       </c>
       <c r="K111" s="16" t="s">
         <v>1120</v>
       </c>
       <c r="L111" s="17">
-        <v>1385</v>
+        <v>1323</v>
       </c>
       <c r="M111" s="16" t="s">
         <v>1121</v>
@@ -29796,25 +29796,25 @@
         <v>1122</v>
       </c>
       <c r="P111" s="17">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="Q111" s="16" t="s">
         <v>1123</v>
       </c>
       <c r="R111" s="17">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="S111" s="16" t="s">
         <v>1124</v>
       </c>
       <c r="T111" s="17">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="U111" s="16" t="s">
         <v>1125</v>
       </c>
       <c r="V111" s="17">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:28" ht="23.25" customHeight="1" thickBot="1">
@@ -29832,55 +29832,55 @@
         <v>1127</v>
       </c>
       <c r="J112" s="8">
-        <v>2674</v>
+        <v>2551</v>
       </c>
       <c r="K112" s="15" t="s">
         <v>1128</v>
       </c>
       <c r="L112" s="8">
-        <v>1393</v>
+        <v>1323</v>
       </c>
       <c r="M112" s="15" t="s">
         <v>1129</v>
       </c>
       <c r="N112" s="8">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="O112" s="15" t="s">
         <v>1102</v>
       </c>
       <c r="P112" s="8">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="Q112" s="15" t="s">
         <v>1130</v>
       </c>
       <c r="R112" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S112" s="15" t="s">
         <v>1131</v>
       </c>
       <c r="T112" s="8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U112" s="15" t="s">
         <v>1132</v>
       </c>
       <c r="V112" s="8">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="W112" s="15" t="s">
         <v>1133</v>
       </c>
       <c r="X112" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="Y112" s="15" t="s">
         <v>1134</v>
       </c>
       <c r="Z112" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
@@ -30036,7 +30036,7 @@
         <v>1159</v>
       </c>
       <c r="T115" s="17">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="U115" s="16" t="s">
         <v>1160</v>
@@ -30132,7 +30132,7 @@
         <v>1175</v>
       </c>
       <c r="R117" s="17">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="S117" s="16" t="s">
         <v>1176</v>
@@ -30204,7 +30204,7 @@
         <v>1186</v>
       </c>
       <c r="Z118" s="17">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AA118" s="16" t="s">
         <v>1187</v>
@@ -30330,7 +30330,7 @@
         <v>1206</v>
       </c>
       <c r="R120" s="17">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="S120" s="16" t="s">
         <v>1207</v>
@@ -30432,31 +30432,31 @@
         <v>19</v>
       </c>
       <c r="J122" s="17">
-        <v>2567</v>
+        <v>2551</v>
       </c>
       <c r="K122" s="16" t="s">
         <v>20</v>
       </c>
       <c r="L122" s="17">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="M122" s="16" t="s">
         <v>21</v>
       </c>
       <c r="N122" s="17">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="O122" s="16" t="s">
         <v>22</v>
       </c>
       <c r="P122" s="17">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="Q122" s="16" t="s">
         <v>23</v>
       </c>
       <c r="R122" s="17">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S122" s="16" t="s">
         <v>24</v>
@@ -30480,25 +30480,25 @@
         <v>13</v>
       </c>
       <c r="J123" s="17">
-        <v>2567</v>
+        <v>2551</v>
       </c>
       <c r="K123" s="16" t="s">
         <v>14</v>
       </c>
       <c r="L123" s="17">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="M123" s="16" t="s">
         <v>25</v>
       </c>
       <c r="N123" s="17">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="O123" s="16" t="s">
         <v>15</v>
       </c>
       <c r="P123" s="17">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="Q123" s="16" t="s">
         <v>17</v>
@@ -30510,7 +30510,7 @@
         <v>26</v>
       </c>
       <c r="T123" s="17">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="U123" s="16" t="s">
         <v>27</v>
@@ -30666,7 +30666,7 @@
         <v>46</v>
       </c>
       <c r="T126" s="17">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="U126" s="16" t="s">
         <v>47</v>
@@ -30720,13 +30720,13 @@
         <v>51</v>
       </c>
       <c r="N127" s="17">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="O127" s="16" t="s">
         <v>52</v>
       </c>
       <c r="P127" s="17">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q127" s="16" t="s">
         <v>53</v>
@@ -30738,7 +30738,7 @@
         <v>54</v>
       </c>
       <c r="T127" s="17">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="U127" s="16" t="s">
         <v>55</v>
@@ -30750,13 +30750,13 @@
         <v>56</v>
       </c>
       <c r="X127" s="17">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Y127" s="16" t="s">
         <v>57</v>
       </c>
       <c r="Z127" s="17">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="128" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
@@ -30774,31 +30774,31 @@
         <v>62</v>
       </c>
       <c r="J128" s="17">
-        <v>2567</v>
+        <v>2551</v>
       </c>
       <c r="K128" s="16" t="s">
         <v>63</v>
       </c>
       <c r="L128" s="17">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="M128" s="16" t="s">
         <v>64</v>
       </c>
       <c r="N128" s="17">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="O128" s="16" t="s">
         <v>65</v>
       </c>
       <c r="P128" s="17">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="Q128" s="16" t="s">
         <v>66</v>
       </c>
       <c r="R128" s="17">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S128" s="16" t="s">
         <v>17</v>
@@ -30810,25 +30810,25 @@
         <v>8</v>
       </c>
       <c r="V128" s="17">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="W128" s="16" t="s">
         <v>67</v>
       </c>
       <c r="X128" s="17">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Y128" s="16" t="s">
         <v>68</v>
       </c>
       <c r="Z128" s="17">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA128" s="16" t="s">
         <v>69</v>
       </c>
       <c r="AB128" s="17">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="129" spans="1:34" ht="23.25" customHeight="1" thickBot="1">
@@ -30846,7 +30846,7 @@
         <v>70</v>
       </c>
       <c r="J129" s="17">
-        <v>2567</v>
+        <v>2551</v>
       </c>
       <c r="K129" s="16" t="s">
         <v>71</v>
@@ -30858,19 +30858,19 @@
         <v>72</v>
       </c>
       <c r="N129" s="17">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="O129" s="16" t="s">
         <v>73</v>
       </c>
       <c r="P129" s="17">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="Q129" s="16" t="s">
         <v>74</v>
       </c>
       <c r="R129" s="17">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="S129" s="16" t="s">
         <v>75</v>
@@ -30900,7 +30900,7 @@
         <v>79</v>
       </c>
       <c r="AB129" s="17">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130" spans="1:34" ht="23.25" customHeight="1" thickBot="1">
@@ -30930,19 +30930,19 @@
         <v>82</v>
       </c>
       <c r="N130" s="17">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="O130" s="16" t="s">
         <v>83</v>
       </c>
       <c r="P130" s="17">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="Q130" s="16" t="s">
         <v>84</v>
       </c>
       <c r="R130" s="17">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S130" s="16" t="s">
         <v>85</v>
@@ -30966,13 +30966,13 @@
         <v>88</v>
       </c>
       <c r="Z130" s="17">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="AA130" s="16" t="s">
         <v>89</v>
       </c>
       <c r="AB130" s="17">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AC130" s="16" t="s">
         <v>90</v>
@@ -31008,7 +31008,7 @@
         <v>93</v>
       </c>
       <c r="N131" s="17">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="O131" s="16" t="s">
         <v>94</v>
@@ -31020,7 +31020,7 @@
         <v>95</v>
       </c>
       <c r="R131" s="17">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S131" s="16" t="s">
         <v>96</v>
@@ -31044,7 +31044,7 @@
         <v>99</v>
       </c>
       <c r="Z131" s="17">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="132" spans="1:34" ht="23.25" customHeight="1" thickBot="1">
@@ -31062,7 +31062,7 @@
         <v>13</v>
       </c>
       <c r="J132" s="17">
-        <v>2567</v>
+        <v>2551</v>
       </c>
       <c r="K132" s="16" t="s">
         <v>119</v>
@@ -31074,19 +31074,19 @@
         <v>120</v>
       </c>
       <c r="N132" s="17">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="O132" s="16" t="s">
         <v>25</v>
       </c>
       <c r="P132" s="17">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="Q132" s="16" t="s">
         <v>15</v>
       </c>
       <c r="R132" s="17">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="S132" s="16" t="s">
         <v>16</v>
@@ -31098,7 +31098,7 @@
         <v>121</v>
       </c>
       <c r="V132" s="17">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W132" s="16" t="s">
         <v>17</v>
@@ -31116,7 +31116,7 @@
         <v>8</v>
       </c>
       <c r="AB132" s="17">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133" spans="1:34" ht="23.25" customHeight="1" thickBot="1">
@@ -31134,13 +31134,13 @@
         <v>102</v>
       </c>
       <c r="J133" s="17">
-        <v>2567</v>
+        <v>2551</v>
       </c>
       <c r="K133" s="16" t="s">
         <v>103</v>
       </c>
       <c r="L133" s="17">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="M133" s="16" t="s">
         <v>104</v>
@@ -31152,7 +31152,7 @@
         <v>105</v>
       </c>
       <c r="P133" s="17">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q133" s="16" t="s">
         <v>106</v>
@@ -31164,7 +31164,7 @@
         <v>107</v>
       </c>
       <c r="T133" s="17">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="U133" s="16" t="s">
         <v>108</v>
@@ -31260,7 +31260,7 @@
         <v>126</v>
       </c>
       <c r="J135" s="17">
-        <v>2626</v>
+        <v>2551</v>
       </c>
       <c r="K135" s="16" t="s">
         <v>127</v>
@@ -31278,7 +31278,7 @@
         <v>129</v>
       </c>
       <c r="P135" s="17">
-        <v>1362</v>
+        <v>1323</v>
       </c>
       <c r="Q135" s="16" t="s">
         <v>130</v>
@@ -31290,25 +31290,25 @@
         <v>131</v>
       </c>
       <c r="T135" s="17">
-        <v>809</v>
+        <v>786</v>
       </c>
       <c r="U135" s="16" t="s">
         <v>132</v>
       </c>
       <c r="V135" s="17">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="W135" s="16" t="s">
         <v>133</v>
       </c>
       <c r="X135" s="17">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="Y135" s="16" t="s">
         <v>134</v>
       </c>
       <c r="Z135" s="17">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AA135" s="16" t="s">
         <v>135</v>
@@ -31344,25 +31344,25 @@
         <v>5</v>
       </c>
       <c r="J136" s="17">
-        <v>2626</v>
+        <v>2551</v>
       </c>
       <c r="K136" s="16" t="s">
         <v>138</v>
       </c>
       <c r="L136" s="17">
-        <v>1362</v>
+        <v>1323</v>
       </c>
       <c r="M136" s="16" t="s">
         <v>139</v>
       </c>
       <c r="N136" s="17">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="O136" s="16" t="s">
         <v>140</v>
       </c>
       <c r="P136" s="17">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="Q136" s="16" t="s">
         <v>141</v>
@@ -31386,19 +31386,19 @@
         <v>143</v>
       </c>
       <c r="X136" s="17">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="Y136" s="16" t="s">
         <v>144</v>
       </c>
       <c r="Z136" s="17">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AA136" s="16" t="s">
         <v>145</v>
       </c>
       <c r="AB136" s="17">
-        <v>809</v>
+        <v>786</v>
       </c>
     </row>
     <row r="137" spans="1:34" ht="23.25" customHeight="1" thickBot="1">
@@ -31422,13 +31422,13 @@
         <v>147</v>
       </c>
       <c r="L137" s="17">
-        <v>809</v>
+        <v>786</v>
       </c>
       <c r="M137" s="16" t="s">
         <v>148</v>
       </c>
       <c r="N137" s="17">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="O137" s="16" t="s">
         <v>149</v>
@@ -31464,19 +31464,19 @@
         <v>152</v>
       </c>
       <c r="Z137" s="17">
-        <v>809</v>
+        <v>786</v>
       </c>
       <c r="AA137" s="16" t="s">
         <v>153</v>
       </c>
       <c r="AB137" s="17">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="AC137" s="16" t="s">
         <v>154</v>
       </c>
       <c r="AD137" s="17">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="AE137" s="16" t="s">
         <v>155</v>
@@ -31506,37 +31506,37 @@
         <v>156</v>
       </c>
       <c r="J138" s="17">
-        <v>2626</v>
+        <v>2551</v>
       </c>
       <c r="K138" s="16" t="s">
         <v>157</v>
       </c>
       <c r="L138" s="17">
-        <v>1362</v>
+        <v>1323</v>
       </c>
       <c r="M138" s="16" t="s">
         <v>158</v>
       </c>
       <c r="N138" s="17">
-        <v>809</v>
+        <v>786</v>
       </c>
       <c r="O138" s="16" t="s">
         <v>159</v>
       </c>
       <c r="P138" s="17">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="Q138" s="16" t="s">
         <v>160</v>
       </c>
       <c r="R138" s="17">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="S138" s="16" t="s">
         <v>161</v>
       </c>
       <c r="T138" s="17">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="U138" s="16" t="s">
         <v>162</v>
@@ -31566,25 +31566,25 @@
         <v>5</v>
       </c>
       <c r="J139" s="17">
-        <v>2626</v>
+        <v>2551</v>
       </c>
       <c r="K139" s="16" t="s">
         <v>6</v>
       </c>
       <c r="L139" s="17">
-        <v>1362</v>
+        <v>1323</v>
       </c>
       <c r="M139" s="16" t="s">
         <v>18</v>
       </c>
       <c r="N139" s="17">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="O139" s="16" t="s">
         <v>164</v>
       </c>
       <c r="P139" s="17">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="Q139" s="16" t="s">
         <v>7</v>
@@ -31620,37 +31620,37 @@
         <v>169</v>
       </c>
       <c r="J140" s="17">
-        <v>2626</v>
+        <v>2551</v>
       </c>
       <c r="K140" s="16" t="s">
         <v>170</v>
       </c>
       <c r="L140" s="17">
-        <v>1362</v>
+        <v>1323</v>
       </c>
       <c r="M140" s="16" t="s">
         <v>171</v>
       </c>
       <c r="N140" s="17">
-        <v>809</v>
+        <v>786</v>
       </c>
       <c r="O140" s="16" t="s">
         <v>172</v>
       </c>
       <c r="P140" s="17">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="Q140" s="16" t="s">
         <v>173</v>
       </c>
       <c r="R140" s="17">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="S140" s="16" t="s">
         <v>174</v>
       </c>
       <c r="T140" s="17">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="U140" s="16" t="s">
         <v>175</v>
@@ -31662,7 +31662,7 @@
         <v>176</v>
       </c>
       <c r="X140" s="17">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="Y140" s="16" t="s">
         <v>177</v>
@@ -31674,7 +31674,7 @@
         <v>178</v>
       </c>
       <c r="AB140" s="17">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="AC140" s="16" t="s">
         <v>179</v>
@@ -31716,7 +31716,7 @@
         <v>183</v>
       </c>
       <c r="P141" s="17">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="Q141" s="16" t="s">
         <v>184</v>
@@ -31770,7 +31770,7 @@
         <v>164</v>
       </c>
       <c r="P142" s="17">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="Q142" s="16" t="s">
         <v>7</v>
@@ -31782,7 +31782,7 @@
         <v>165</v>
       </c>
       <c r="T142" s="17">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="U142" s="16" t="s">
         <v>185</v>
@@ -31818,7 +31818,7 @@
         <v>1253</v>
       </c>
       <c r="J143" s="21">
-        <v>2626</v>
+        <v>2551</v>
       </c>
       <c r="K143" s="20" t="s">
         <v>1254</v>
@@ -31842,13 +31842,13 @@
         <v>64</v>
       </c>
       <c r="R143" s="21">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="S143" s="20" t="s">
         <v>1257</v>
       </c>
       <c r="T143" s="21">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="U143" s="20" t="s">
         <v>1258</v>
@@ -31866,7 +31866,7 @@
         <v>1260</v>
       </c>
       <c r="Z143" s="21">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AA143" s="20" t="s">
         <v>1261</v>
@@ -31890,25 +31890,25 @@
         <v>1265</v>
       </c>
       <c r="J144" s="21">
-        <v>2626</v>
+        <v>2551</v>
       </c>
       <c r="K144" s="20" t="s">
         <v>1266</v>
       </c>
       <c r="L144" s="21">
-        <v>1362</v>
+        <v>1323</v>
       </c>
       <c r="M144" s="20" t="s">
         <v>1267</v>
       </c>
       <c r="N144" s="21">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="O144" s="20" t="s">
         <v>1268</v>
       </c>
       <c r="P144" s="21">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="Q144" s="20" t="s">
         <v>1269</v>
@@ -31920,7 +31920,7 @@
         <v>1270</v>
       </c>
       <c r="T144" s="21">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="U144" s="20" t="s">
         <v>1271</v>
@@ -31956,13 +31956,13 @@
         <v>21</v>
       </c>
       <c r="N145" s="21">
-        <v>809</v>
+        <v>786</v>
       </c>
       <c r="O145" s="20" t="s">
         <v>1272</v>
       </c>
       <c r="P145" s="21">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="Q145" s="20" t="s">
         <v>24</v>
@@ -31974,7 +31974,7 @@
         <v>1273</v>
       </c>
       <c r="T145" s="21">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="U145" s="20" t="s">
         <v>1274</v>
@@ -32010,7 +32010,7 @@
         <v>1277</v>
       </c>
       <c r="N146" s="21">
-        <v>809</v>
+        <v>786</v>
       </c>
       <c r="O146" s="20" t="s">
         <v>1278</v>
@@ -32046,13 +32046,13 @@
         <v>1283</v>
       </c>
       <c r="Z146" s="21">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="AA146" s="20" t="s">
         <v>1284</v>
       </c>
       <c r="AB146" s="21">
-        <v>809</v>
+        <v>786</v>
       </c>
     </row>
     <row r="147" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
@@ -32082,7 +32082,7 @@
         <v>18</v>
       </c>
       <c r="N147" s="21">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="O147" s="20" t="s">
         <v>164</v>
@@ -32100,7 +32100,7 @@
         <v>165</v>
       </c>
       <c r="T147" s="21">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="U147" s="20" t="s">
         <v>1286</v>
@@ -32112,7 +32112,7 @@
         <v>1287</v>
       </c>
       <c r="X147" s="21">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="Y147" s="20" t="s">
         <v>108</v>
@@ -32154,13 +32154,13 @@
         <v>14</v>
       </c>
       <c r="L148" s="21">
-        <v>1346</v>
+        <v>1323</v>
       </c>
       <c r="M148" s="20" t="s">
         <v>25</v>
       </c>
       <c r="N148" s="21">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="O148" s="20" t="s">
         <v>15</v>
@@ -32172,7 +32172,7 @@
         <v>1297</v>
       </c>
       <c r="R148" s="21">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="S148" s="20" t="s">
         <v>1298</v>
@@ -32190,7 +32190,7 @@
         <v>8</v>
       </c>
       <c r="X148" s="21">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="Y148" s="20" t="s">
         <v>1299</v>
@@ -32220,19 +32220,19 @@
         <v>1300</v>
       </c>
       <c r="J149" s="21">
-        <v>2583</v>
+        <v>2551</v>
       </c>
       <c r="K149" s="20" t="s">
         <v>1301</v>
       </c>
       <c r="L149" s="21">
-        <v>1346</v>
+        <v>1323</v>
       </c>
       <c r="M149" s="20" t="s">
         <v>1302</v>
       </c>
       <c r="N149" s="21">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="O149" s="20" t="s">
         <v>1303</v>
@@ -32250,7 +32250,7 @@
         <v>1305</v>
       </c>
       <c r="T149" s="21">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="150" spans="1:30" ht="23.25" customHeight="1"/>

--- a/games.xlsx
+++ b/games.xlsx
@@ -23753,10 +23753,10 @@
   <dimension ref="A1:AN232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L148" sqref="L148"/>
+      <selection pane="bottomRight" activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -25915,49 +25915,49 @@
         <v>517</v>
       </c>
       <c r="J37" s="8">
-        <v>2780</v>
+        <v>2660</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>518</v>
       </c>
       <c r="L37" s="8">
-        <v>2490</v>
+        <v>2350</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>519</v>
       </c>
       <c r="N37" s="8">
-        <v>2020</v>
+        <v>1890</v>
       </c>
       <c r="O37" s="8" t="s">
         <v>520</v>
       </c>
       <c r="P37" s="8">
-        <v>1323</v>
+        <v>1390</v>
       </c>
       <c r="Q37" s="8" t="s">
         <v>521</v>
       </c>
       <c r="R37" s="8">
-        <v>1040</v>
+        <v>970</v>
       </c>
       <c r="S37" s="8" t="s">
         <v>522</v>
       </c>
       <c r="T37" s="8">
-        <v>790</v>
+        <v>750</v>
       </c>
       <c r="U37" s="8" t="s">
         <v>523</v>
       </c>
       <c r="V37" s="8">
-        <v>540</v>
+        <v>490</v>
       </c>
       <c r="W37" s="8" t="s">
         <v>524</v>
       </c>
       <c r="X37" s="8">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="23.25" customHeight="1">

--- a/games.xlsx
+++ b/games.xlsx
@@ -6986,21 +6986,6 @@
   </si>
   <si>
     <r>
-      <t>4128</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>點券</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>3692</t>
     </r>
     <r>
@@ -23246,6 +23231,21 @@
   </si>
   <si>
     <t>60元寶</t>
+  </si>
+  <si>
+    <r>
+      <t>4110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>點券</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -23756,7 +23756,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z37" sqref="Z37"/>
+      <selection pane="bottomRight" activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -25912,49 +25912,49 @@
         <v>516</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>517</v>
+        <v>1305</v>
       </c>
       <c r="J37" s="8">
         <v>2660</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L37" s="8">
         <v>2350</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N37" s="8">
         <v>1890</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P37" s="8">
         <v>1390</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="R37" s="8">
         <v>970</v>
       </c>
       <c r="S37" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T37" s="8">
         <v>750</v>
       </c>
       <c r="U37" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="V37" s="8">
         <v>490</v>
       </c>
       <c r="W37" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="X37" s="8">
         <v>250</v>
@@ -25962,7 +25962,7 @@
     </row>
     <row r="38" spans="1:26" ht="23.25" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B38" s="9"/>
       <c r="F38" s="12" t="str">
@@ -25970,7 +25970,7 @@
         <v>gift-codes.html?game=楓之谷M</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I38" s="14" t="s">
         <v>339</v>
@@ -25979,19 +25979,19 @@
         <v>2551</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L38" s="8">
         <v>1390</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N38" s="8">
         <v>786</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P38" s="8">
         <v>539</v>
@@ -26003,7 +26003,7 @@
         <v>267</v>
       </c>
       <c r="S38" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="T38" s="8">
         <v>137</v>
@@ -26017,7 +26017,7 @@
     </row>
     <row r="39" spans="1:26" ht="23.25" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B39" s="9"/>
       <c r="F39" s="12" t="str">
@@ -26025,58 +26025,58 @@
         <v>gift-codes.html?game=鳴潮</v>
       </c>
       <c r="H39" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="I39" s="14" t="s">
         <v>532</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>533</v>
       </c>
       <c r="J39" s="8">
         <v>2320</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L39" s="8">
         <v>1323</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N39" s="8">
         <v>786</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P39" s="8">
         <v>394</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="R39" s="8">
         <v>137</v>
       </c>
       <c r="S39" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="T39" s="8">
         <v>30</v>
       </c>
       <c r="U39" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V39" s="8">
         <v>137</v>
       </c>
       <c r="W39" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="X39" s="8">
         <v>260</v>
       </c>
       <c r="Y39" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Z39" s="8">
         <v>520</v>
@@ -26084,7 +26084,7 @@
     </row>
     <row r="40" spans="1:26" ht="23.25" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B40" s="9"/>
       <c r="F40" s="12" t="str">
@@ -26092,7 +26092,7 @@
         <v>gift-codes.html?game=劍與遠征：啟程</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I40" s="14" t="s">
         <v>304</v>
@@ -26101,13 +26101,13 @@
         <v>2420</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L40" s="8">
         <v>1323</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N40" s="8">
         <v>786</v>
@@ -26125,7 +26125,7 @@
         <v>267</v>
       </c>
       <c r="S40" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="T40" s="8">
         <v>137</v>
@@ -26139,7 +26139,7 @@
     </row>
     <row r="41" spans="1:26" ht="23.25" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B41" s="9"/>
       <c r="F41" s="12" t="str">
@@ -26147,40 +26147,40 @@
         <v>gift-codes.html?game=熱血大作戰</v>
       </c>
       <c r="H41" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="I41" s="14" t="s">
         <v>548</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>549</v>
       </c>
       <c r="J41" s="8">
         <v>2551</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L41" s="8">
         <v>1323</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N41" s="8">
         <v>786</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="P41" s="8">
         <v>450</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R41" s="8">
         <v>137</v>
       </c>
       <c r="S41" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="T41" s="8">
         <v>40</v>
@@ -26188,7 +26188,7 @@
     </row>
     <row r="42" spans="1:26" ht="23.25" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B42" s="9"/>
       <c r="F42" s="12" t="str">
@@ -26196,34 +26196,34 @@
         <v>gift-codes.html?game=骷髏傳說：戰神崛起</v>
       </c>
       <c r="H42" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I42" s="14" t="s">
         <v>556</v>
-      </c>
-      <c r="I42" s="14" t="s">
-        <v>557</v>
       </c>
       <c r="J42" s="8">
         <v>2200</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L42" s="8">
         <v>1380</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N42" s="8">
         <v>450</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="P42" s="8">
         <v>240</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="R42" s="8">
         <v>137</v>
@@ -26231,7 +26231,7 @@
     </row>
     <row r="43" spans="1:26" ht="23.25" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B43" s="9"/>
       <c r="F43" s="12" t="str">
@@ -26242,7 +26242,7 @@
         <v>199</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J43" s="8">
         <v>2551</v>
@@ -26254,31 +26254,31 @@
         <v>1323</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N43" s="8">
         <v>786</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="P43" s="8">
         <v>539</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R43" s="8">
         <v>394</v>
       </c>
       <c r="S43" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="T43" s="8">
         <v>267</v>
       </c>
       <c r="U43" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V43" s="8">
         <v>137</v>
@@ -26292,7 +26292,7 @@
     </row>
     <row r="44" spans="1:26" ht="23.25" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B44" s="9"/>
       <c r="F44" s="12" t="str">
@@ -26300,16 +26300,16 @@
         <v>gift-codes.html?game=黎明啟示錄</v>
       </c>
       <c r="H44" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="I44" s="14" t="s">
         <v>570</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>571</v>
       </c>
       <c r="J44" s="8">
         <v>2551</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L44" s="8">
         <v>1390</v>
@@ -26321,7 +26321,7 @@
         <v>786</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P44" s="8">
         <v>539</v>
@@ -26333,7 +26333,7 @@
         <v>267</v>
       </c>
       <c r="S44" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="T44" s="8">
         <v>137</v>
@@ -26347,7 +26347,7 @@
     </row>
     <row r="45" spans="1:26" ht="23.25" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B45" s="9"/>
       <c r="F45" s="12" t="str">
@@ -26355,34 +26355,34 @@
         <v>gift-codes.html?game=龍魂旅人</v>
       </c>
       <c r="H45" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="I45" s="14" t="s">
         <v>576</v>
-      </c>
-      <c r="I45" s="14" t="s">
-        <v>577</v>
       </c>
       <c r="J45" s="8">
         <v>2551</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L45" s="8">
         <v>1460</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N45" s="8">
         <v>539</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P45" s="8">
         <v>267</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="R45" s="8">
         <v>137</v>
@@ -26396,7 +26396,7 @@
     </row>
     <row r="46" spans="1:26" ht="23.25" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B46" s="9"/>
       <c r="F46" s="12" t="str">
@@ -26404,7 +26404,7 @@
         <v>gift-codes.html?game=戀與深空</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I46" s="14" t="s">
         <v>339</v>
@@ -26413,13 +26413,13 @@
         <v>2551</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L46" s="8">
         <v>1323</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N46" s="8">
         <v>786</v>
@@ -26431,19 +26431,19 @@
         <v>539</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="R46" s="8">
         <v>267</v>
       </c>
       <c r="S46" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="T46" s="8">
         <v>137</v>
       </c>
       <c r="U46" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="V46" s="8">
         <v>35</v>
@@ -26451,7 +26451,7 @@
     </row>
     <row r="47" spans="1:26" ht="23.25" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B47" s="9"/>
       <c r="F47" s="12" t="str">
@@ -26459,40 +26459,40 @@
         <v>gift-codes.html?game=靈魂衝擊：無限放置</v>
       </c>
       <c r="H47" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I47" s="14" t="s">
         <v>590</v>
-      </c>
-      <c r="I47" s="14" t="s">
-        <v>591</v>
       </c>
       <c r="J47" s="8">
         <v>2290</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L47" s="8">
         <v>1180</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N47" s="8">
         <v>720</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="P47" s="8">
         <v>267</v>
       </c>
       <c r="Q47" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R47" s="8">
         <v>137</v>
       </c>
       <c r="S47" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="T47" s="8">
         <v>40</v>
@@ -26500,7 +26500,7 @@
     </row>
     <row r="48" spans="1:26" ht="23.25" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B48" s="9"/>
       <c r="F48" s="12" t="str">
@@ -26508,46 +26508,46 @@
         <v>gift-codes.html?game=楓葉島</v>
       </c>
       <c r="H48" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="I48" s="14" t="s">
         <v>598</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>599</v>
       </c>
       <c r="J48" s="8">
         <v>2530</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L48" s="8">
         <v>1323</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N48" s="8">
         <v>786</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="P48" s="8">
         <v>394</v>
       </c>
       <c r="Q48" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R48" s="8">
         <v>137</v>
       </c>
       <c r="S48" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="T48" s="8">
         <v>60</v>
       </c>
       <c r="U48" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="V48" s="8">
         <v>30</v>
@@ -26555,7 +26555,7 @@
     </row>
     <row r="49" spans="1:26" ht="23.25" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B49" s="9"/>
       <c r="F49" s="12" t="str">
@@ -26566,37 +26566,37 @@
         <v>200</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J49" s="8">
         <v>2551</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L49" s="8">
         <v>1400</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N49" s="8">
         <v>786</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="P49" s="8">
         <v>539</v>
       </c>
       <c r="Q49" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="R49" s="8">
         <v>267</v>
       </c>
       <c r="S49" s="8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="T49" s="8">
         <v>137</v>
@@ -26604,7 +26604,7 @@
     </row>
     <row r="50" spans="1:26" ht="23.25" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B50" s="9"/>
       <c r="F50" s="12" t="str">
@@ -26612,40 +26612,40 @@
         <v>gift-codes.html?game=萬妖領域</v>
       </c>
       <c r="H50" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="I50" s="14" t="s">
         <v>614</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>615</v>
       </c>
       <c r="J50" s="8">
         <v>2580</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L50" s="8">
         <v>1370</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N50" s="8">
         <v>786</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="P50" s="8">
         <v>539</v>
       </c>
       <c r="Q50" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="R50" s="8">
         <v>267</v>
       </c>
       <c r="S50" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="T50" s="8">
         <v>137</v>
@@ -26653,7 +26653,7 @@
     </row>
     <row r="51" spans="1:26" ht="23.25" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B51" s="9"/>
       <c r="F51" s="12" t="str">
@@ -26661,34 +26661,34 @@
         <v>gift-codes.html?game=一姬當千TD</v>
       </c>
       <c r="H51" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="I51" s="14" t="s">
         <v>622</v>
-      </c>
-      <c r="I51" s="14" t="s">
-        <v>623</v>
       </c>
       <c r="J51" s="8">
         <v>2580</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L51" s="8">
         <v>1323</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N51" s="8">
         <v>540</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="P51" s="8">
         <v>137</v>
       </c>
       <c r="Q51" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="R51" s="8">
         <v>30</v>
@@ -26696,7 +26696,7 @@
     </row>
     <row r="52" spans="1:26" ht="23.25" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B52" s="9"/>
       <c r="F52" s="12" t="str">
@@ -26704,46 +26704,46 @@
         <v>gift-codes.html?game=劍客行</v>
       </c>
       <c r="H52" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="I52" s="14" t="s">
         <v>629</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>630</v>
       </c>
       <c r="J52" s="8">
         <v>2580</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L52" s="8">
         <v>1323</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="N52" s="8">
         <v>786</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P52" s="8">
         <v>394</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="R52" s="8">
         <v>267</v>
       </c>
       <c r="S52" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="T52" s="8">
         <v>137</v>
       </c>
       <c r="U52" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="V52" s="8">
         <v>30</v>
@@ -26751,7 +26751,7 @@
     </row>
     <row r="53" spans="1:26" ht="23.25" customHeight="1">
       <c r="A53" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B53" s="9"/>
       <c r="F53" s="12" t="str">
@@ -26759,40 +26759,40 @@
         <v>gift-codes.html?game=時之樹少女</v>
       </c>
       <c r="H53" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="I53" s="14" t="s">
         <v>637</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>638</v>
       </c>
       <c r="J53" s="8">
         <v>2551</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L53" s="8">
         <v>1323</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="N53" s="8">
         <v>786</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P53" s="8">
         <v>267</v>
       </c>
       <c r="Q53" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="R53" s="8">
         <v>137</v>
       </c>
       <c r="S53" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="T53" s="8">
         <v>30</v>
@@ -26800,7 +26800,7 @@
     </row>
     <row r="54" spans="1:26" ht="23.25" customHeight="1">
       <c r="A54" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B54" s="9"/>
       <c r="F54" s="12" t="str">
@@ -26808,40 +26808,40 @@
         <v>gift-codes.html?game=錨點降臨Re：Code</v>
       </c>
       <c r="H54" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="I54" s="14" t="s">
         <v>645</v>
-      </c>
-      <c r="I54" s="14" t="s">
-        <v>646</v>
       </c>
       <c r="J54" s="8">
         <v>2380</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L54" s="8">
         <v>1230</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="N54" s="8">
         <v>786</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="P54" s="8">
         <v>394</v>
       </c>
       <c r="Q54" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="R54" s="8">
         <v>130</v>
       </c>
       <c r="S54" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="T54" s="8">
         <v>40</v>
@@ -26849,7 +26849,7 @@
     </row>
     <row r="55" spans="1:26" ht="23.25" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B55" s="9"/>
       <c r="F55" s="12" t="str">
@@ -26857,46 +26857,46 @@
         <v>gift-codes.html?game=神契氣靈師</v>
       </c>
       <c r="H55" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="I55" s="14" t="s">
         <v>653</v>
-      </c>
-      <c r="I55" s="14" t="s">
-        <v>654</v>
       </c>
       <c r="J55" s="8">
         <v>2551</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L55" s="8">
         <v>1323</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="N55" s="8">
         <v>990</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="P55" s="8">
         <v>394</v>
       </c>
       <c r="Q55" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="R55" s="8">
         <v>137</v>
       </c>
       <c r="S55" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="T55" s="8">
         <v>100</v>
       </c>
       <c r="U55" s="8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="V55" s="8">
         <v>40</v>
@@ -26904,7 +26904,7 @@
     </row>
     <row r="56" spans="1:26" ht="23.25" customHeight="1">
       <c r="A56" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B56" s="9"/>
       <c r="F56" s="12" t="str">
@@ -26912,40 +26912,40 @@
         <v>gift-codes.html?game=不休旅途：繪卷世界</v>
       </c>
       <c r="H56" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="I56" s="14" t="s">
         <v>661</v>
-      </c>
-      <c r="I56" s="14" t="s">
-        <v>662</v>
       </c>
       <c r="J56" s="8">
         <v>2551</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="L56" s="8">
         <v>1323</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="N56" s="8">
         <v>539</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P56" s="8">
         <v>267</v>
       </c>
       <c r="Q56" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R56" s="8">
         <v>137</v>
       </c>
       <c r="S56" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="T56" s="8">
         <v>40</v>
@@ -26953,7 +26953,7 @@
     </row>
     <row r="57" spans="1:26" ht="23.25" customHeight="1">
       <c r="A57" s="8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B57" s="9"/>
       <c r="F57" s="12" t="str">
@@ -26961,40 +26961,40 @@
         <v>gift-codes.html?game=別破防鴨</v>
       </c>
       <c r="H57" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="I57" s="14" t="s">
         <v>669</v>
-      </c>
-      <c r="I57" s="14" t="s">
-        <v>670</v>
       </c>
       <c r="J57" s="8">
         <v>2551</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="L57" s="8">
         <v>1323</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="N57" s="8">
         <v>539</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="P57" s="8">
         <v>267</v>
       </c>
       <c r="Q57" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="R57" s="8">
         <v>137</v>
       </c>
       <c r="S57" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="T57" s="8">
         <v>40</v>
@@ -27002,7 +27002,7 @@
     </row>
     <row r="58" spans="1:26" ht="23.25" customHeight="1">
       <c r="A58" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B58" s="9"/>
       <c r="F58" s="12" t="str">
@@ -27010,58 +27010,58 @@
         <v>gift-codes.html?game=超派救星幫幫忙</v>
       </c>
       <c r="H58" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="I58" s="14" t="s">
         <v>677</v>
-      </c>
-      <c r="I58" s="14" t="s">
-        <v>678</v>
       </c>
       <c r="J58" s="8">
         <v>2551</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="L58" s="8">
         <v>1323</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N58" s="8">
         <v>786</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P58" s="8">
         <v>610</v>
       </c>
       <c r="Q58" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R58" s="8">
         <v>267</v>
       </c>
       <c r="S58" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="T58" s="8">
         <v>137</v>
       </c>
       <c r="U58" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="V58" s="8">
         <v>90</v>
       </c>
       <c r="W58" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="X58" s="8">
         <v>70</v>
       </c>
       <c r="Y58" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Z58" s="8">
         <v>40</v>
@@ -27069,7 +27069,7 @@
     </row>
     <row r="59" spans="1:26" ht="23.25" customHeight="1">
       <c r="A59" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B59" s="9"/>
       <c r="F59" s="12" t="str">
@@ -27077,46 +27077,46 @@
         <v>gift-codes.html?game=時光大爆炸</v>
       </c>
       <c r="H59" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="I59" s="14" t="s">
         <v>688</v>
-      </c>
-      <c r="I59" s="14" t="s">
-        <v>689</v>
       </c>
       <c r="J59" s="8">
         <v>2551</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L59" s="8">
         <v>1323</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N59" s="8">
         <v>786</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="P59" s="8">
         <v>394</v>
       </c>
       <c r="Q59" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="R59" s="8">
         <v>267</v>
       </c>
       <c r="S59" s="8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="T59" s="8">
         <v>137</v>
       </c>
       <c r="U59" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="V59" s="8">
         <v>35</v>
@@ -27124,7 +27124,7 @@
     </row>
     <row r="60" spans="1:26" ht="23.25" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B60" s="9"/>
       <c r="F60" s="12" t="str">
@@ -27132,52 +27132,52 @@
         <v>gift-codes.html?game=深淵：不滅者</v>
       </c>
       <c r="H60" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="I60" s="14" t="s">
         <v>697</v>
-      </c>
-      <c r="I60" s="14" t="s">
-        <v>698</v>
       </c>
       <c r="J60" s="8">
         <v>2551</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L60" s="8">
         <v>1323</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N60" s="8">
         <v>786</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P60" s="8">
         <v>539</v>
       </c>
       <c r="Q60" s="8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="R60" s="8">
         <v>394</v>
       </c>
       <c r="S60" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="T60" s="8">
         <v>267</v>
       </c>
       <c r="U60" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="V60" s="8">
         <v>137</v>
       </c>
       <c r="W60" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="X60" s="8">
         <v>40</v>
@@ -27192,40 +27192,40 @@
         <v>gift-codes.html?game=Last War</v>
       </c>
       <c r="H61" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="I61" s="14" t="s">
         <v>706</v>
-      </c>
-      <c r="I61" s="14" t="s">
-        <v>707</v>
       </c>
       <c r="J61" s="8">
         <v>2551</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L61" s="8">
         <v>1320</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N61" s="8">
         <v>530</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="P61" s="8">
         <v>265</v>
       </c>
       <c r="Q61" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="R61" s="8">
         <v>137</v>
       </c>
       <c r="S61" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="T61" s="8">
         <v>30</v>
@@ -27233,47 +27233,47 @@
     </row>
     <row r="62" spans="1:26" ht="23.25" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F62" s="12" t="str">
         <f t="shared" si="0"/>
         <v>gift-codes.html?game=勇士不要停</v>
       </c>
       <c r="H62" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="I62" s="14" t="s">
         <v>714</v>
-      </c>
-      <c r="I62" s="14" t="s">
-        <v>715</v>
       </c>
       <c r="J62" s="8">
         <v>2551</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="L62" s="8">
         <v>1323</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="N62" s="8">
         <v>539</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="P62" s="8">
         <v>267</v>
       </c>
       <c r="Q62" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="R62" s="8">
         <v>137</v>
       </c>
       <c r="S62" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="T62" s="8">
         <v>35</v>
@@ -27281,53 +27281,53 @@
     </row>
     <row r="63" spans="1:26" ht="23.25" customHeight="1">
       <c r="A63" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F63" s="12" t="str">
         <f t="shared" si="0"/>
         <v>gift-codes.html?game=元氣火柴人</v>
       </c>
       <c r="H63" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="I63" s="14" t="s">
         <v>722</v>
-      </c>
-      <c r="I63" s="14" t="s">
-        <v>723</v>
       </c>
       <c r="J63" s="8">
         <v>2551</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L63" s="8">
         <v>1323</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="N63" s="8">
         <v>786</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="P63" s="8">
         <v>630</v>
       </c>
       <c r="Q63" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="R63" s="8">
         <v>267</v>
       </c>
       <c r="S63" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="T63" s="8">
         <v>137</v>
       </c>
       <c r="U63" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="V63" s="8">
         <v>30</v>
@@ -27335,29 +27335,29 @@
     </row>
     <row r="64" spans="1:26" ht="23.25" customHeight="1">
       <c r="A64" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F64" s="12" t="str">
         <f t="shared" si="0"/>
         <v>gift-codes.html?game=深淵之影</v>
       </c>
       <c r="H64" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="I64" s="14" t="s">
         <v>731</v>
-      </c>
-      <c r="I64" s="14" t="s">
-        <v>732</v>
       </c>
       <c r="J64" s="8">
         <v>170</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L64" s="8">
         <v>80</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="N64" s="8">
         <v>30</v>
@@ -27365,29 +27365,29 @@
     </row>
     <row r="65" spans="1:32" ht="23.25" customHeight="1">
       <c r="A65" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F65" s="12" t="str">
         <f t="shared" si="0"/>
         <v>gift-codes.html?game=玩星派對</v>
       </c>
       <c r="H65" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="I65" s="14" t="s">
         <v>736</v>
-      </c>
-      <c r="I65" s="14" t="s">
-        <v>737</v>
       </c>
       <c r="J65" s="8">
         <v>12670</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="L65" s="8">
         <v>1323</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="N65" s="8">
         <v>786</v>
@@ -27399,13 +27399,13 @@
         <v>394</v>
       </c>
       <c r="Q65" s="8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="R65" s="8">
         <v>137</v>
       </c>
       <c r="S65" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="T65" s="8">
         <v>35</v>
@@ -27413,47 +27413,47 @@
     </row>
     <row r="66" spans="1:32" ht="23.25" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F66" s="12" t="str">
         <f t="shared" si="0"/>
         <v>gift-codes.html?game=進化吧!我的人生</v>
       </c>
       <c r="H66" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="I66" s="14" t="s">
         <v>743</v>
-      </c>
-      <c r="I66" s="14" t="s">
-        <v>744</v>
       </c>
       <c r="J66" s="8">
         <v>2551</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L66" s="8">
         <v>1323</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="N66" s="8">
         <v>539</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="P66" s="8">
         <v>267</v>
       </c>
       <c r="Q66" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="R66" s="8">
         <v>137</v>
       </c>
       <c r="S66" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="T66" s="8">
         <v>30</v>
@@ -27461,47 +27461,47 @@
     </row>
     <row r="67" spans="1:32" ht="23.25" customHeight="1">
       <c r="A67" s="8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F67" s="12" t="str">
         <f t="shared" ref="F67:F130" si="1">"gift-codes.html?game=" &amp; A67</f>
         <v>gift-codes.html?game=星之夢幻島</v>
       </c>
       <c r="H67" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="I67" s="14" t="s">
         <v>751</v>
-      </c>
-      <c r="I67" s="14" t="s">
-        <v>752</v>
       </c>
       <c r="J67" s="8">
         <v>2950</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L67" s="8">
         <v>1323</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="N67" s="8">
         <v>539</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="P67" s="8">
         <v>267</v>
       </c>
       <c r="Q67" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="R67" s="8">
         <v>137</v>
       </c>
       <c r="S67" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="T67" s="8">
         <v>70</v>
@@ -27509,47 +27509,47 @@
     </row>
     <row r="68" spans="1:32" ht="23.25" customHeight="1">
       <c r="A68" s="8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F68" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=小冰冰傳奇：回到最初</v>
       </c>
       <c r="H68" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="I68" s="14" t="s">
         <v>759</v>
-      </c>
-      <c r="I68" s="14" t="s">
-        <v>760</v>
       </c>
       <c r="J68" s="8">
         <v>2551</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L68" s="8">
         <v>2551</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="N68" s="8">
         <v>786</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="P68" s="8">
         <v>460</v>
       </c>
       <c r="Q68" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="R68" s="8">
         <v>137</v>
       </c>
       <c r="S68" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="T68" s="8">
         <v>35</v>
@@ -27557,65 +27557,65 @@
     </row>
     <row r="69" spans="1:32" ht="23.25" customHeight="1">
       <c r="A69" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F69" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=江湖風雲傳</v>
       </c>
       <c r="H69" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="I69" s="14" t="s">
         <v>767</v>
-      </c>
-      <c r="I69" s="14" t="s">
-        <v>768</v>
       </c>
       <c r="J69" s="8">
         <v>2551</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L69" s="8">
         <v>1323</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="N69" s="8">
         <v>786</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="P69" s="8">
         <v>539</v>
       </c>
       <c r="Q69" s="8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="R69" s="8">
         <v>460</v>
       </c>
       <c r="S69" s="8" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="T69" s="8">
         <v>240</v>
       </c>
       <c r="U69" s="8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="V69" s="8">
         <v>137</v>
       </c>
       <c r="W69" s="8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="X69" s="8">
         <v>60</v>
       </c>
       <c r="Y69" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="Z69" s="8">
         <v>35</v>
@@ -27623,47 +27623,47 @@
     </row>
     <row r="70" spans="1:32" ht="23.25" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F70" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=星願之冠：狼少女物語</v>
       </c>
       <c r="H70" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="I70" s="14" t="s">
         <v>778</v>
-      </c>
-      <c r="I70" s="14" t="s">
-        <v>779</v>
       </c>
       <c r="J70" s="8">
         <v>2450</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L70" s="8">
         <v>1090</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="N70" s="8">
         <v>710</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="P70" s="8">
         <v>270</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="R70" s="8">
         <v>137</v>
       </c>
       <c r="S70" s="8" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="T70" s="8">
         <v>35</v>
@@ -27671,17 +27671,17 @@
     </row>
     <row r="71" spans="1:32" ht="23.25" customHeight="1">
       <c r="A71" s="8" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F71" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=香蕉缺個芭樂</v>
       </c>
       <c r="H71" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="I71" s="14" t="s">
         <v>786</v>
-      </c>
-      <c r="I71" s="14" t="s">
-        <v>787</v>
       </c>
       <c r="J71" s="8">
         <v>2551</v>
@@ -27693,13 +27693,13 @@
         <v>1323</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N71" s="8">
         <v>786</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P71" s="8">
         <v>460</v>
@@ -27711,7 +27711,7 @@
         <v>137</v>
       </c>
       <c r="S71" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="T71" s="8">
         <v>35</v>
@@ -27719,47 +27719,47 @@
     </row>
     <row r="72" spans="1:32" ht="23.25" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F72" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=精靈塔塔開</v>
       </c>
       <c r="H72" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="I72" s="14" t="s">
         <v>791</v>
-      </c>
-      <c r="I72" s="14" t="s">
-        <v>792</v>
       </c>
       <c r="J72" s="8">
         <v>2560</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="L72" s="8">
         <v>1323</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="N72" s="8">
         <v>610</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="P72" s="8">
         <v>267</v>
       </c>
       <c r="Q72" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="R72" s="8">
         <v>137</v>
       </c>
       <c r="S72" s="8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T72" s="8">
         <v>35</v>
@@ -27767,47 +27767,47 @@
     </row>
     <row r="73" spans="1:32" ht="23.25" customHeight="1">
       <c r="A73" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F73" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=終末之歌</v>
       </c>
       <c r="H73" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="I73" s="14" t="s">
         <v>799</v>
-      </c>
-      <c r="I73" s="14" t="s">
-        <v>800</v>
       </c>
       <c r="J73" s="8">
         <v>2551</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="L73" s="8">
         <v>1323</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="N73" s="8">
         <v>786</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P73" s="8">
         <v>460</v>
       </c>
       <c r="Q73" s="8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="R73" s="8">
         <v>137</v>
       </c>
       <c r="S73" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="T73" s="8">
         <v>30</v>
@@ -27815,53 +27815,53 @@
     </row>
     <row r="74" spans="1:32" ht="23.25" customHeight="1">
       <c r="A74" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F74" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=森靈奇境</v>
       </c>
       <c r="H74" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="I74" s="14" t="s">
         <v>806</v>
-      </c>
-      <c r="I74" s="14" t="s">
-        <v>807</v>
       </c>
       <c r="J74" s="8">
         <v>2551</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L74" s="8">
         <v>1323</v>
       </c>
       <c r="M74" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N74" s="8">
         <v>786</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="P74" s="8">
         <v>539</v>
       </c>
       <c r="Q74" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="R74" s="8">
         <v>267</v>
       </c>
       <c r="S74" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="T74" s="8">
         <v>137</v>
       </c>
       <c r="U74" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="V74" s="8">
         <v>35</v>
@@ -27869,53 +27869,53 @@
     </row>
     <row r="75" spans="1:32" ht="23.25" customHeight="1">
       <c r="A75" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F75" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=鬥破蒼穹：蕭門篇</v>
       </c>
       <c r="H75" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="I75" s="14" t="s">
         <v>814</v>
-      </c>
-      <c r="I75" s="14" t="s">
-        <v>815</v>
       </c>
       <c r="J75" s="8">
         <v>2551</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="L75" s="8">
         <v>1323</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="N75" s="8">
         <v>786</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="P75" s="8">
         <v>394</v>
       </c>
       <c r="Q75" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="R75" s="8">
         <v>267</v>
       </c>
       <c r="S75" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="T75" s="8">
         <v>137</v>
       </c>
       <c r="U75" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="V75" s="8">
         <v>35</v>
@@ -27923,29 +27923,29 @@
     </row>
     <row r="76" spans="1:32" ht="23.25" customHeight="1">
       <c r="A76" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F76" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=無畏的狼煙</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J76" s="8">
         <v>2551</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="L76" s="8">
         <v>1323</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="N76" s="8">
         <v>786</v>
@@ -27957,19 +27957,19 @@
         <v>539</v>
       </c>
       <c r="Q76" s="8" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="R76" s="8">
         <v>267</v>
       </c>
       <c r="S76" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="T76" s="8">
         <v>137</v>
       </c>
       <c r="U76" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="V76" s="8">
         <v>35</v>
@@ -27977,47 +27977,47 @@
     </row>
     <row r="77" spans="1:32" ht="23.25" customHeight="1">
       <c r="A77" s="15" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F77" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=代號：無頭</v>
       </c>
       <c r="H77" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="I77" s="14" t="s">
         <v>830</v>
-      </c>
-      <c r="I77" s="14" t="s">
-        <v>831</v>
       </c>
       <c r="J77" s="8">
         <v>2551</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="L77" s="8">
         <v>1323</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="N77" s="8">
         <v>539</v>
       </c>
       <c r="O77" s="8" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="P77" s="8">
         <v>267</v>
       </c>
       <c r="Q77" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="R77" s="8">
         <v>137</v>
       </c>
       <c r="S77" s="8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="T77" s="8">
         <v>30</v>
@@ -28025,53 +28025,53 @@
     </row>
     <row r="78" spans="1:32" ht="23.25" customHeight="1">
       <c r="A78" s="8" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F78" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=牛頭人GO</v>
       </c>
       <c r="H78" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="I78" s="14" t="s">
         <v>837</v>
-      </c>
-      <c r="I78" s="14" t="s">
-        <v>838</v>
       </c>
       <c r="J78" s="8">
         <v>2551</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="L78" s="8">
         <v>1323</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="N78" s="8">
         <v>539</v>
       </c>
       <c r="O78" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="P78" s="8">
         <v>267</v>
       </c>
       <c r="Q78" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R78" s="8">
         <v>137</v>
       </c>
       <c r="S78" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="T78" s="8">
         <v>90</v>
       </c>
       <c r="U78" s="8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="V78" s="8">
         <v>35</v>
@@ -28079,83 +28079,83 @@
     </row>
     <row r="79" spans="1:32" ht="23.25" customHeight="1">
       <c r="A79" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F79" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=派對吧三國</v>
       </c>
       <c r="H79" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="I79" s="14" t="s">
         <v>846</v>
-      </c>
-      <c r="I79" s="14" t="s">
-        <v>847</v>
       </c>
       <c r="J79" s="8">
         <v>2551</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="L79" s="8">
         <v>1960</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="N79" s="8">
         <v>1323</v>
       </c>
       <c r="O79" s="8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="P79" s="8">
         <v>786</v>
       </c>
       <c r="Q79" s="8" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="R79" s="8">
         <v>539</v>
       </c>
       <c r="S79" s="8" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="T79" s="8">
         <v>394</v>
       </c>
       <c r="U79" s="8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="V79" s="8">
         <v>267</v>
       </c>
       <c r="W79" s="8" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X79" s="8">
         <v>260</v>
       </c>
       <c r="Y79" s="8" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="Z79" s="8">
         <v>137</v>
       </c>
       <c r="AA79" s="8" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AB79" s="8">
         <v>90</v>
       </c>
       <c r="AC79" s="8" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AD79" s="8">
         <v>60</v>
       </c>
       <c r="AE79" s="8" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AF79" s="8">
         <v>35</v>
@@ -28163,53 +28163,53 @@
     </row>
     <row r="80" spans="1:32" ht="23.25" customHeight="1">
       <c r="A80" s="8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F80" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=酒酒大俠</v>
       </c>
       <c r="H80" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="I80" s="14" t="s">
         <v>860</v>
-      </c>
-      <c r="I80" s="14" t="s">
-        <v>861</v>
       </c>
       <c r="J80" s="8">
         <v>2551</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L80" s="8">
         <v>1323</v>
       </c>
       <c r="M80" s="8" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="N80" s="8">
         <v>786</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="P80" s="8">
         <v>394</v>
       </c>
       <c r="Q80" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="R80" s="8">
         <v>267</v>
       </c>
       <c r="S80" s="8" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="T80" s="8">
         <v>137</v>
       </c>
       <c r="U80" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="V80" s="8">
         <v>35</v>
@@ -28217,41 +28217,41 @@
     </row>
     <row r="81" spans="1:36" ht="23.25" customHeight="1">
       <c r="A81" s="8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F81" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=鼠衛家園</v>
       </c>
       <c r="H81" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="I81" s="14" t="s">
         <v>868</v>
-      </c>
-      <c r="I81" s="14" t="s">
-        <v>869</v>
       </c>
       <c r="J81" s="8">
         <v>2551</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="L81" s="8">
         <v>1280</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="N81" s="8">
         <v>539</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="P81" s="8">
         <v>267</v>
       </c>
       <c r="Q81" s="8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="R81" s="8">
         <v>137</v>
@@ -28259,7 +28259,7 @@
     </row>
     <row r="82" spans="1:36" ht="23.25" customHeight="1">
       <c r="A82" s="8" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F82" s="12" t="str">
         <f t="shared" si="1"/>
@@ -28269,13 +28269,13 @@
         <v>201</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J82" s="8">
         <v>2551</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="L82" s="8">
         <v>1323</v>
@@ -28287,19 +28287,19 @@
         <v>539</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="P82" s="8">
         <v>267</v>
       </c>
       <c r="Q82" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="R82" s="8">
         <v>137</v>
       </c>
       <c r="S82" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="T82" s="8">
         <v>35</v>
@@ -28307,29 +28307,29 @@
     </row>
     <row r="83" spans="1:36" ht="23.25" customHeight="1">
       <c r="A83" s="8" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F83" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=熱練戰士</v>
       </c>
       <c r="H83" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="I83" s="14" t="s">
         <v>880</v>
-      </c>
-      <c r="I83" s="14" t="s">
-        <v>881</v>
       </c>
       <c r="J83" s="8">
         <v>2590</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="L83" s="8">
         <v>740</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="N83" s="8">
         <v>137</v>
@@ -28337,7 +28337,7 @@
     </row>
     <row r="84" spans="1:36" ht="23.25" customHeight="1">
       <c r="A84" s="8" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F84" s="12" t="str">
         <f t="shared" si="1"/>
@@ -28347,37 +28347,37 @@
         <v>202</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J84" s="8">
         <v>2430</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="L84" s="8">
         <v>1220</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="N84" s="8">
         <v>850</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="P84" s="8">
         <v>539</v>
       </c>
       <c r="Q84" s="8" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="R84" s="8">
         <v>270</v>
       </c>
       <c r="S84" s="8" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="T84" s="8">
         <v>137</v>
@@ -28385,47 +28385,47 @@
     </row>
     <row r="85" spans="1:36" ht="23.25" customHeight="1">
       <c r="A85" s="8" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F85" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=劍客物語</v>
       </c>
       <c r="H85" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="I85" s="14" t="s">
         <v>892</v>
-      </c>
-      <c r="I85" s="14" t="s">
-        <v>893</v>
       </c>
       <c r="J85" s="8">
         <v>2551</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="L85" s="8">
         <v>1300</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="N85" s="8">
         <v>786</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="P85" s="8">
         <v>270</v>
       </c>
       <c r="Q85" s="8" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="R85" s="8">
         <v>137</v>
       </c>
       <c r="S85" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="T85" s="8">
         <v>90</v>
@@ -28433,47 +28433,47 @@
     </row>
     <row r="86" spans="1:36" ht="23.25" customHeight="1">
       <c r="A86" s="8" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F86" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=人在塔在</v>
       </c>
       <c r="H86" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="I86" s="14" t="s">
         <v>900</v>
-      </c>
-      <c r="I86" s="14" t="s">
-        <v>901</v>
       </c>
       <c r="J86" s="8">
         <v>2551</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L86" s="8">
         <v>1390</v>
       </c>
       <c r="M86" s="8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="N86" s="8">
         <v>539</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="P86" s="8">
         <v>267</v>
       </c>
       <c r="Q86" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="R86" s="8">
         <v>137</v>
       </c>
       <c r="S86" s="8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="T86" s="8">
         <v>40</v>
@@ -28481,59 +28481,59 @@
     </row>
     <row r="87" spans="1:36" ht="23.25" customHeight="1">
       <c r="A87" s="8" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F87" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=龍語霜城</v>
       </c>
       <c r="H87" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="I87" s="14" t="s">
         <v>908</v>
-      </c>
-      <c r="I87" s="14" t="s">
-        <v>909</v>
       </c>
       <c r="J87" s="8">
         <v>2551</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="L87" s="8">
         <v>1323</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="N87" s="8">
         <v>1100</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="P87" s="8">
         <v>820</v>
       </c>
       <c r="Q87" s="8" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="R87" s="8">
         <v>539</v>
       </c>
       <c r="S87" s="8" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="T87" s="8">
         <v>420</v>
       </c>
       <c r="U87" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="V87" s="8">
         <v>320</v>
       </c>
       <c r="W87" s="8" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="X87" s="8">
         <v>180</v>
@@ -28541,95 +28541,95 @@
     </row>
     <row r="88" spans="1:36" ht="23.25" customHeight="1">
       <c r="A88" s="8" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F88" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=洛伊的移動要塞</v>
       </c>
       <c r="H88" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="I88" s="14" t="s">
         <v>918</v>
-      </c>
-      <c r="I88" s="14" t="s">
-        <v>919</v>
       </c>
       <c r="J88" s="8">
         <v>2551</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="L88" s="8">
         <v>2150</v>
       </c>
       <c r="M88" s="8" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="N88" s="8">
         <v>2000</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="P88" s="8">
         <v>1700</v>
       </c>
       <c r="Q88" s="8" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="R88" s="8">
         <v>1323</v>
       </c>
       <c r="S88" s="8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="T88" s="8">
         <v>1100</v>
       </c>
       <c r="U88" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="V88" s="8">
         <v>786</v>
       </c>
       <c r="W88" s="8" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="X88" s="8">
         <v>700</v>
       </c>
       <c r="Y88" s="8" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="Z88" s="8">
         <v>620</v>
       </c>
       <c r="AA88" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AB88" s="8">
         <v>490</v>
       </c>
       <c r="AC88" s="8" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AD88" s="8">
         <v>450</v>
       </c>
       <c r="AE88" s="8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AF88" s="8">
         <v>267</v>
       </c>
       <c r="AG88" s="8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AH88" s="8">
         <v>180</v>
       </c>
       <c r="AI88" s="8" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="AJ88" s="8">
         <v>137</v>
@@ -28637,47 +28637,47 @@
     </row>
     <row r="89" spans="1:36" ht="23.25" customHeight="1">
       <c r="A89" s="8" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F89" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=喵喵王國</v>
       </c>
       <c r="H89" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="I89" s="14" t="s">
         <v>934</v>
-      </c>
-      <c r="I89" s="14" t="s">
-        <v>935</v>
       </c>
       <c r="J89" s="8">
         <v>2300</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L89" s="8">
         <v>1150</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="N89" s="8">
         <v>650</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="P89" s="8">
         <v>267</v>
       </c>
       <c r="Q89" s="8" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="R89" s="8">
         <v>120</v>
       </c>
       <c r="S89" s="8" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="T89" s="8">
         <v>30</v>
@@ -28685,47 +28685,47 @@
     </row>
     <row r="90" spans="1:36" ht="23.25" customHeight="1">
       <c r="A90" s="8" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F90" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=東京謎影者</v>
       </c>
       <c r="H90" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="I90" s="14" t="s">
         <v>942</v>
-      </c>
-      <c r="I90" s="14" t="s">
-        <v>943</v>
       </c>
       <c r="J90" s="8">
         <v>2700</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L90" s="8">
         <v>1100</v>
       </c>
       <c r="M90" s="8" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="N90" s="8">
         <v>539</v>
       </c>
       <c r="O90" s="8" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="P90" s="8">
         <v>267</v>
       </c>
       <c r="Q90" s="8" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="R90" s="8">
         <v>200</v>
       </c>
       <c r="S90" s="8" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="T90" s="8">
         <v>60</v>
@@ -28733,47 +28733,47 @@
     </row>
     <row r="91" spans="1:36" ht="23.25" customHeight="1">
       <c r="A91" s="8" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F91" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=戰極死遊</v>
       </c>
       <c r="H91" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="I91" s="14" t="s">
         <v>950</v>
-      </c>
-      <c r="I91" s="14" t="s">
-        <v>951</v>
       </c>
       <c r="J91" s="8">
         <v>1900</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L91" s="8">
         <v>1050</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="N91" s="8">
         <v>540</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="P91" s="8">
         <v>190</v>
       </c>
       <c r="Q91" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="R91" s="8">
         <v>90</v>
       </c>
       <c r="S91" s="8" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T91" s="8">
         <v>35</v>
@@ -28781,47 +28781,47 @@
     </row>
     <row r="92" spans="1:36" ht="23.25" customHeight="1">
       <c r="A92" s="8" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F92" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=進擊的蝸牛</v>
       </c>
       <c r="H92" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="I92" s="14" t="s">
         <v>958</v>
-      </c>
-      <c r="I92" s="14" t="s">
-        <v>959</v>
       </c>
       <c r="J92" s="8">
         <v>2551</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="L92" s="8">
         <v>1323</v>
       </c>
       <c r="M92" s="8" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="N92" s="8">
         <v>539</v>
       </c>
       <c r="O92" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="P92" s="8">
         <v>267</v>
       </c>
       <c r="Q92" s="8" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="R92" s="8">
         <v>137</v>
       </c>
       <c r="S92" s="8" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="T92" s="8">
         <v>40</v>
@@ -28829,47 +28829,47 @@
     </row>
     <row r="93" spans="1:36" ht="23.25" customHeight="1">
       <c r="A93" s="8" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F93" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=純白大作戰</v>
       </c>
       <c r="H93" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="I93" s="14" t="s">
         <v>966</v>
-      </c>
-      <c r="I93" s="14" t="s">
-        <v>967</v>
       </c>
       <c r="J93" s="8">
         <v>2551</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="L93" s="8">
         <v>1323</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="N93" s="8">
         <v>786</v>
       </c>
       <c r="O93" s="8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="P93" s="8">
         <v>450</v>
       </c>
       <c r="Q93" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="R93" s="8">
         <v>137</v>
       </c>
       <c r="S93" s="8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="T93" s="8">
         <v>60</v>
@@ -28877,47 +28877,47 @@
     </row>
     <row r="94" spans="1:36" ht="23.25" customHeight="1">
       <c r="A94" s="8" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F94" s="12" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=黑星勇者</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J94" s="8">
         <v>2551</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="L94" s="8">
         <v>1323</v>
       </c>
       <c r="M94" s="8" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="N94" s="8">
         <v>630</v>
       </c>
       <c r="O94" s="8" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="P94" s="8">
         <v>267</v>
       </c>
       <c r="Q94" s="8" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="R94" s="8">
         <v>137</v>
       </c>
       <c r="S94" s="8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="T94" s="8">
         <v>40</v>
@@ -28925,53 +28925,53 @@
     </row>
     <row r="95" spans="1:36" ht="23.25" customHeight="1">
       <c r="A95" s="8" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F95" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=龍之谷：經典再現</v>
       </c>
       <c r="H95" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="I95" s="14" t="s">
         <v>981</v>
-      </c>
-      <c r="I95" s="14" t="s">
-        <v>982</v>
       </c>
       <c r="J95" s="8">
         <v>2551</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="L95" s="8">
         <v>1323</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="N95" s="8">
         <v>990</v>
       </c>
       <c r="O95" s="8" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="P95" s="8">
         <v>540</v>
       </c>
       <c r="Q95" s="8" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="R95" s="8">
         <v>270</v>
       </c>
       <c r="S95" s="8" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="T95" s="8">
         <v>137</v>
       </c>
       <c r="U95" s="8" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="V95" s="8">
         <v>40</v>
@@ -28979,17 +28979,17 @@
     </row>
     <row r="96" spans="1:36" ht="23.25" customHeight="1">
       <c r="A96" s="8" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F96" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=楓之谷Artale</v>
       </c>
       <c r="H96" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="I96" s="14" t="s">
         <v>990</v>
-      </c>
-      <c r="I96" s="14" t="s">
-        <v>991</v>
       </c>
       <c r="J96" s="8">
         <v>1580</v>
@@ -28997,47 +28997,47 @@
     </row>
     <row r="97" spans="1:28" ht="23.25" customHeight="1">
       <c r="A97" s="8" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F97" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=出發吧麥芬</v>
       </c>
       <c r="H97" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="I97" s="14" t="s">
         <v>993</v>
-      </c>
-      <c r="I97" s="14" t="s">
-        <v>994</v>
       </c>
       <c r="J97" s="8">
         <v>2390</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="L97" s="8">
         <v>1380</v>
       </c>
       <c r="M97" s="8" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="N97" s="8">
         <v>810</v>
       </c>
       <c r="O97" s="8" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="P97" s="8">
         <v>410</v>
       </c>
       <c r="Q97" s="8" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="R97" s="8">
         <v>270</v>
       </c>
       <c r="S97" s="8" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="T97" s="8">
         <v>40</v>
@@ -29045,47 +29045,47 @@
     </row>
     <row r="98" spans="1:28" ht="23.25" customHeight="1">
       <c r="A98" s="8" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F98" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=RO仙境傳說：守護永恆的愛 Classic</v>
       </c>
       <c r="H98" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I98" s="14" t="s">
         <v>1001</v>
-      </c>
-      <c r="I98" s="14" t="s">
-        <v>1002</v>
       </c>
       <c r="J98" s="8">
         <v>2320</v>
       </c>
       <c r="K98" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="L98" s="8">
         <v>1330</v>
       </c>
       <c r="M98" s="8" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="N98" s="8">
         <v>520</v>
       </c>
       <c r="O98" s="8" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="P98" s="8">
         <v>267</v>
       </c>
       <c r="Q98" s="8" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="R98" s="8">
         <v>137</v>
       </c>
       <c r="S98" s="8" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="T98" s="8">
         <v>90</v>
@@ -29093,59 +29093,59 @@
     </row>
     <row r="99" spans="1:28" ht="23.25" customHeight="1">
       <c r="A99" s="8" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F99" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=魔力寶貝：復興</v>
       </c>
       <c r="H99" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I99" s="14" t="s">
         <v>1009</v>
-      </c>
-      <c r="I99" s="14" t="s">
-        <v>1010</v>
       </c>
       <c r="J99" s="8">
         <v>2290</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="L99" s="8">
         <v>2000</v>
       </c>
       <c r="M99" s="8" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="N99" s="8">
         <v>1150</v>
       </c>
       <c r="O99" s="8" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="P99" s="8">
         <v>786</v>
       </c>
       <c r="Q99" s="8" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="R99" s="8">
         <v>450</v>
       </c>
       <c r="S99" s="8" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="T99" s="8">
         <v>260</v>
       </c>
       <c r="U99" s="8" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="V99" s="8">
         <v>137</v>
       </c>
       <c r="W99" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="X99" s="8">
         <v>50</v>
@@ -29153,47 +29153,47 @@
     </row>
     <row r="100" spans="1:28" ht="23.25" customHeight="1">
       <c r="A100" s="8" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F100" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=東京喰種Awakening</v>
       </c>
       <c r="H100" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I100" s="14" t="s">
         <v>1018</v>
-      </c>
-      <c r="I100" s="14" t="s">
-        <v>1019</v>
       </c>
       <c r="J100" s="8">
         <v>2551</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="L100" s="8">
         <v>1370</v>
       </c>
       <c r="M100" s="8" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="N100" s="8">
         <v>740</v>
       </c>
       <c r="O100" s="8" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="P100" s="8">
         <v>394</v>
       </c>
       <c r="Q100" s="8" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="R100" s="8">
         <v>137</v>
       </c>
       <c r="S100" s="8" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="T100" s="8">
         <v>40</v>
@@ -29201,53 +29201,53 @@
     </row>
     <row r="101" spans="1:28" ht="23.25" customHeight="1">
       <c r="A101" s="8" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F101" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=晶核</v>
       </c>
       <c r="H101" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I101" s="14" t="s">
         <v>1026</v>
-      </c>
-      <c r="I101" s="14" t="s">
-        <v>1027</v>
       </c>
       <c r="J101" s="8">
         <v>2420</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="L101" s="8">
         <v>1340</v>
       </c>
       <c r="M101" s="8" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="N101" s="8">
         <v>786</v>
       </c>
       <c r="O101" s="8" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="P101" s="8">
         <v>394</v>
       </c>
       <c r="Q101" s="8" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="R101" s="8">
         <v>137</v>
       </c>
       <c r="S101" s="8" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T101" s="8">
         <v>40</v>
       </c>
       <c r="U101" s="8" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="V101" s="8">
         <v>137</v>
@@ -29255,53 +29255,53 @@
     </row>
     <row r="102" spans="1:28" ht="23.25" customHeight="1" thickBot="1">
       <c r="A102" s="8" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F102" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=無盡夢迴</v>
       </c>
       <c r="H102" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I102" s="14" t="s">
         <v>1035</v>
-      </c>
-      <c r="I102" s="14" t="s">
-        <v>1036</v>
       </c>
       <c r="J102" s="8">
         <v>2520</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="L102" s="8">
         <v>1330</v>
       </c>
       <c r="M102" s="8" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="N102" s="8">
         <v>830</v>
       </c>
       <c r="O102" s="8" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="P102" s="8">
         <v>420</v>
       </c>
       <c r="Q102" s="8" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R102" s="8">
         <v>137</v>
       </c>
       <c r="S102" s="8" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="T102" s="8">
         <v>40</v>
       </c>
       <c r="U102" s="8" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="V102" s="8">
         <v>137</v>
@@ -29309,47 +29309,47 @@
     </row>
     <row r="103" spans="1:28" ht="23.25" customHeight="1" thickBot="1">
       <c r="A103" s="15" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F103" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=RO仙境傳說：放推冒險團</v>
       </c>
       <c r="H103" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I103" s="16" t="s">
         <v>1044</v>
-      </c>
-      <c r="I103" s="16" t="s">
-        <v>1045</v>
       </c>
       <c r="J103" s="17">
         <v>2551</v>
       </c>
       <c r="K103" s="16" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="L103" s="17">
         <v>1323</v>
       </c>
       <c r="M103" s="16" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N103" s="17">
         <v>539</v>
       </c>
       <c r="O103" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="P103" s="17">
         <v>394</v>
       </c>
       <c r="Q103" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="R103" s="17">
         <v>137</v>
       </c>
       <c r="S103" s="16" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="T103" s="17">
         <v>35</v>
@@ -29357,71 +29357,71 @@
     </row>
     <row r="104" spans="1:28" ht="23.25" customHeight="1" thickBot="1">
       <c r="A104" s="15" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F104" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=英雄刷刷刷</v>
       </c>
       <c r="H104" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I104" s="16" t="s">
         <v>1052</v>
-      </c>
-      <c r="I104" s="16" t="s">
-        <v>1053</v>
       </c>
       <c r="J104" s="17">
         <v>2551</v>
       </c>
       <c r="K104" s="16" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="L104" s="17">
         <v>1323</v>
       </c>
       <c r="M104" s="16" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="N104" s="17">
         <v>812</v>
       </c>
       <c r="O104" s="16" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="P104" s="17">
         <v>539</v>
       </c>
       <c r="Q104" s="16" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="R104" s="17">
         <v>394</v>
       </c>
       <c r="S104" s="16" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="T104" s="17">
         <v>267</v>
       </c>
       <c r="U104" s="16" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="V104" s="17">
         <v>137</v>
       </c>
       <c r="W104" s="16" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="X104" s="8">
         <v>89</v>
       </c>
       <c r="Y104" s="16" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="Z104" s="8">
         <v>53</v>
       </c>
       <c r="AA104" s="16" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AB104" s="8">
         <v>30</v>
@@ -29429,47 +29429,47 @@
     </row>
     <row r="105" spans="1:28" ht="23.25" customHeight="1" thickBot="1">
       <c r="A105" s="16" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F105" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=萬靈物語</v>
       </c>
       <c r="H105" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I105" s="16" t="s">
         <v>1064</v>
-      </c>
-      <c r="I105" s="16" t="s">
-        <v>1065</v>
       </c>
       <c r="J105" s="17">
         <v>2551</v>
       </c>
       <c r="K105" s="16" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="L105" s="17">
         <v>1323</v>
       </c>
       <c r="M105" s="16" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="N105" s="17">
         <v>539</v>
       </c>
       <c r="O105" s="16" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="P105" s="17">
         <v>394</v>
       </c>
       <c r="Q105" s="16" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="R105" s="17">
         <v>137</v>
       </c>
       <c r="S105" s="16" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="T105" s="17">
         <v>35</v>
@@ -29477,59 +29477,59 @@
     </row>
     <row r="106" spans="1:28" ht="23.25" customHeight="1" thickBot="1">
       <c r="A106" s="16" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F106" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=斗羅大陸：逆轉時空</v>
       </c>
       <c r="H106" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I106" s="16" t="s">
         <v>1072</v>
-      </c>
-      <c r="I106" s="16" t="s">
-        <v>1073</v>
       </c>
       <c r="J106" s="17">
         <v>2551</v>
       </c>
       <c r="K106" s="16" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="L106" s="17">
         <v>1323</v>
       </c>
       <c r="M106" s="16" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="N106" s="17">
         <v>803</v>
       </c>
       <c r="O106" s="16" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="P106" s="17">
         <v>539</v>
       </c>
       <c r="Q106" s="16" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="R106" s="17">
         <v>394</v>
       </c>
       <c r="S106" s="16" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="T106" s="17">
         <v>267</v>
       </c>
       <c r="U106" s="16" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="V106" s="17">
         <v>137</v>
       </c>
       <c r="W106" s="16" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="X106" s="17">
         <v>35</v>
@@ -29537,47 +29537,47 @@
     </row>
     <row r="107" spans="1:28" ht="23.25" customHeight="1" thickBot="1">
       <c r="A107" s="16" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F107" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=魔靈召喚：保衛戰</v>
       </c>
       <c r="H107" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I107" s="16" t="s">
         <v>1082</v>
-      </c>
-      <c r="I107" s="16" t="s">
-        <v>1083</v>
       </c>
       <c r="J107" s="17">
         <v>2551</v>
       </c>
       <c r="K107" s="16" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="L107" s="17">
         <v>1631</v>
       </c>
       <c r="M107" s="16" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="N107" s="17">
         <v>975</v>
       </c>
       <c r="O107" s="16" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="P107" s="17">
         <v>574</v>
       </c>
       <c r="Q107" s="16" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="R107" s="17">
         <v>241</v>
       </c>
       <c r="S107" s="16" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="T107" s="17">
         <v>89</v>
@@ -29585,65 +29585,65 @@
     </row>
     <row r="108" spans="1:28" ht="23.25" customHeight="1" thickBot="1">
       <c r="A108" s="16" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F108" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=潘多蘭島</v>
       </c>
       <c r="H108" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I108" s="16" t="s">
         <v>1090</v>
-      </c>
-      <c r="I108" s="16" t="s">
-        <v>1091</v>
       </c>
       <c r="J108" s="17">
         <v>2551</v>
       </c>
       <c r="K108" s="16" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="L108" s="17">
         <v>1323</v>
       </c>
       <c r="M108" s="16" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="N108" s="17">
         <v>539</v>
       </c>
       <c r="O108" s="16" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="P108" s="17">
         <v>267</v>
       </c>
       <c r="Q108" s="16" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="R108" s="17">
         <v>137</v>
       </c>
       <c r="S108" s="16" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="T108" s="17">
         <v>283</v>
       </c>
       <c r="U108" s="16" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="V108" s="17">
         <v>812</v>
       </c>
       <c r="W108" s="16" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="X108" s="17">
         <v>137</v>
       </c>
       <c r="Y108" s="16" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="Z108" s="17">
         <v>137</v>
@@ -29651,53 +29651,53 @@
     </row>
     <row r="109" spans="1:28" ht="23.25" customHeight="1" thickBot="1">
       <c r="A109" s="16" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F109" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=電鋸果汁大亂鬥</v>
       </c>
       <c r="H109" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I109" s="16" t="s">
         <v>1100</v>
-      </c>
-      <c r="I109" s="16" t="s">
-        <v>1101</v>
       </c>
       <c r="J109" s="17">
         <v>2551</v>
       </c>
       <c r="K109" s="16" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="L109" s="17">
         <v>1323</v>
       </c>
       <c r="M109" s="16" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="N109" s="17">
         <v>539</v>
       </c>
       <c r="O109" s="16" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="P109" s="17">
         <v>267</v>
       </c>
       <c r="Q109" s="16" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="R109" s="17">
         <v>137</v>
       </c>
       <c r="S109" s="16" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="T109" s="17">
         <v>324</v>
       </c>
       <c r="U109" s="16" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="V109" s="17">
         <v>266</v>
@@ -29705,59 +29705,59 @@
     </row>
     <row r="110" spans="1:28" ht="23.25" customHeight="1" thickBot="1">
       <c r="A110" s="16" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F110" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=風色幻想NeXus</v>
       </c>
       <c r="H110" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I110" s="16" t="s">
         <v>1109</v>
-      </c>
-      <c r="I110" s="16" t="s">
-        <v>1110</v>
       </c>
       <c r="J110" s="17">
         <v>2551</v>
       </c>
       <c r="K110" s="16" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="L110" s="17">
         <v>1323</v>
       </c>
       <c r="M110" s="16" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N110" s="17">
         <v>812</v>
       </c>
       <c r="O110" s="16" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="P110" s="17">
         <v>394</v>
       </c>
       <c r="Q110" s="16" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="R110" s="17">
         <v>137</v>
       </c>
       <c r="S110" s="16" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="T110" s="17">
         <v>539</v>
       </c>
       <c r="U110" s="16" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="V110" s="17">
         <v>267</v>
       </c>
       <c r="W110" s="16" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="X110" s="17">
         <v>137</v>
@@ -29765,7 +29765,7 @@
     </row>
     <row r="111" spans="1:28" ht="23.25" customHeight="1" thickBot="1">
       <c r="A111" s="16" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F111" s="8" t="str">
         <f t="shared" si="1"/>
@@ -29775,43 +29775,43 @@
         <v>203</v>
       </c>
       <c r="I111" s="16" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="J111" s="17">
         <v>2551</v>
       </c>
       <c r="K111" s="16" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="L111" s="17">
         <v>1323</v>
       </c>
       <c r="M111" s="16" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="N111" s="17">
         <v>812</v>
       </c>
       <c r="O111" s="16" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="P111" s="17">
         <v>539</v>
       </c>
       <c r="Q111" s="16" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="R111" s="17">
         <v>267</v>
       </c>
       <c r="S111" s="16" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="T111" s="17">
         <v>137</v>
       </c>
       <c r="U111" s="16" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="V111" s="17">
         <v>35</v>
@@ -29826,58 +29826,58 @@
         <v>gift-codes.html?game=kingshot</v>
       </c>
       <c r="H112" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I112" s="15" t="s">
         <v>1126</v>
-      </c>
-      <c r="I112" s="15" t="s">
-        <v>1127</v>
       </c>
       <c r="J112" s="8">
         <v>2551</v>
       </c>
       <c r="K112" s="15" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="L112" s="8">
         <v>1323</v>
       </c>
       <c r="M112" s="15" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="N112" s="8">
         <v>539</v>
       </c>
       <c r="O112" s="15" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="P112" s="8">
         <v>267</v>
       </c>
       <c r="Q112" s="15" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="R112" s="8">
         <v>137</v>
       </c>
       <c r="S112" s="15" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="T112" s="8">
         <v>35</v>
       </c>
       <c r="U112" s="15" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="V112" s="8">
         <v>267</v>
       </c>
       <c r="W112" s="15" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="X112" s="8">
         <v>137</v>
       </c>
       <c r="Y112" s="15" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="Z112" s="8">
         <v>88</v>
@@ -29885,41 +29885,41 @@
     </row>
     <row r="113" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
       <c r="A113" s="15" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F113" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=胡鬧地牢</v>
       </c>
       <c r="H113" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I113" s="15" t="s">
         <v>1136</v>
-      </c>
-      <c r="I113" s="15" t="s">
-        <v>1137</v>
       </c>
       <c r="J113" s="8">
         <v>2442</v>
       </c>
       <c r="K113" s="15" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="L113" s="8">
         <v>1234</v>
       </c>
       <c r="M113" s="15" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="N113" s="8">
         <v>413</v>
       </c>
       <c r="O113" s="15" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="P113" s="8">
         <v>137</v>
       </c>
       <c r="Q113" s="16" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="R113" s="17">
         <v>27</v>
@@ -29927,65 +29927,65 @@
     </row>
     <row r="114" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
       <c r="A114" s="15" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F114" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=小小軍團-重生</v>
       </c>
       <c r="H114" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I114" s="16" t="s">
         <v>1142</v>
-      </c>
-      <c r="I114" s="16" t="s">
-        <v>1143</v>
       </c>
       <c r="J114" s="17">
         <v>2442</v>
       </c>
       <c r="K114" s="16" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="L114" s="17">
         <v>1234</v>
       </c>
       <c r="M114" s="16" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="N114" s="17">
         <v>582</v>
       </c>
       <c r="O114" s="16" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="P114" s="17">
         <v>270</v>
       </c>
       <c r="Q114" s="16" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="R114" s="17">
         <v>137</v>
       </c>
       <c r="S114" s="16" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="T114" s="17">
         <v>27</v>
       </c>
       <c r="U114" s="16" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="V114" s="17">
         <v>270</v>
       </c>
       <c r="W114" s="16" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="X114" s="17">
         <v>137</v>
       </c>
       <c r="Y114" s="16" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="Z114" s="17">
         <v>413</v>
@@ -29993,59 +29993,59 @@
     </row>
     <row r="115" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
       <c r="A115" s="16" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F115" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=爪爪遠征</v>
       </c>
       <c r="H115" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I115" s="16" t="s">
         <v>1153</v>
-      </c>
-      <c r="I115" s="16" t="s">
-        <v>1154</v>
       </c>
       <c r="J115" s="17">
         <v>1232</v>
       </c>
       <c r="K115" s="16" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="L115" s="17">
         <v>818</v>
       </c>
       <c r="M115" s="16" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="N115" s="17">
         <v>578</v>
       </c>
       <c r="O115" s="16" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="P115" s="17">
         <v>185</v>
       </c>
       <c r="Q115" s="16" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="R115" s="17">
         <v>83</v>
       </c>
       <c r="S115" s="16" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="T115" s="17">
         <v>35</v>
       </c>
       <c r="U115" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="V115" s="17">
         <v>185</v>
       </c>
       <c r="W115" s="16" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X115" s="17">
         <v>185</v>
@@ -30053,41 +30053,41 @@
     </row>
     <row r="116" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
       <c r="A116" s="16" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F116" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=勇士團團轉</v>
       </c>
       <c r="H116" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I116" s="16" t="s">
         <v>1163</v>
-      </c>
-      <c r="I116" s="16" t="s">
-        <v>1164</v>
       </c>
       <c r="J116" s="17">
         <v>578</v>
       </c>
       <c r="K116" s="16" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="L116" s="17">
         <v>269</v>
       </c>
       <c r="M116" s="16" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="N116" s="17">
         <v>110</v>
       </c>
       <c r="O116" s="16" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="P116" s="17">
         <v>83</v>
       </c>
       <c r="Q116" s="16" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="R116" s="17">
         <v>411</v>
@@ -30095,47 +30095,47 @@
     </row>
     <row r="117" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
       <c r="A117" s="16" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="F117" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=魁 三國志大戰</v>
       </c>
       <c r="H117" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I117" s="16" t="s">
         <v>1170</v>
-      </c>
-      <c r="I117" s="16" t="s">
-        <v>1171</v>
       </c>
       <c r="J117" s="17">
         <v>1622</v>
       </c>
       <c r="K117" s="16" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="L117" s="17">
         <v>818</v>
       </c>
       <c r="M117" s="16" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="N117" s="17">
         <v>411</v>
       </c>
       <c r="O117" s="16" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="P117" s="17">
         <v>83</v>
       </c>
       <c r="Q117" s="16" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="R117" s="17">
         <v>35</v>
       </c>
       <c r="S117" s="16" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="T117" s="17">
         <v>110</v>
@@ -30150,70 +30150,70 @@
         <v>gift-codes.html?game=tokyo beast</v>
       </c>
       <c r="H118" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I118" s="16" t="s">
         <v>1177</v>
-      </c>
-      <c r="I118" s="16" t="s">
-        <v>1178</v>
       </c>
       <c r="J118" s="17">
         <v>2414</v>
       </c>
       <c r="K118" s="16" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="L118" s="17">
         <v>1622</v>
       </c>
       <c r="M118" s="16" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="N118" s="17">
         <v>1232</v>
       </c>
       <c r="O118" s="16" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="P118" s="17">
         <v>818</v>
       </c>
       <c r="Q118" s="16" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="R118" s="17">
         <v>578</v>
       </c>
       <c r="S118" s="16" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="T118" s="17">
         <v>269</v>
       </c>
       <c r="U118" s="16" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="V118" s="17">
         <v>138</v>
       </c>
       <c r="W118" s="16" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="X118" s="17">
         <v>83</v>
       </c>
       <c r="Y118" s="16" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="Z118" s="17">
         <v>35</v>
       </c>
       <c r="AA118" s="16" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="AB118" s="17">
         <v>2414</v>
       </c>
       <c r="AC118" s="16" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="AD118" s="17">
         <v>818</v>
@@ -30221,71 +30221,71 @@
     </row>
     <row r="119" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
       <c r="A119" s="18" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="F119" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=切換英雄：放置型RPG</v>
       </c>
       <c r="H119" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I119" s="16" t="s">
         <v>1190</v>
-      </c>
-      <c r="I119" s="16" t="s">
-        <v>1191</v>
       </c>
       <c r="J119" s="17">
         <v>1867</v>
       </c>
       <c r="K119" s="16" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="L119" s="17">
         <v>1232</v>
       </c>
       <c r="M119" s="16" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="N119" s="17">
         <v>818</v>
       </c>
       <c r="O119" s="16" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="P119" s="17">
         <v>327</v>
       </c>
       <c r="Q119" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="R119" s="17">
         <v>185</v>
       </c>
       <c r="S119" s="16" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="T119" s="17">
         <v>110</v>
       </c>
       <c r="U119" s="16" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="V119" s="17">
         <v>185</v>
       </c>
       <c r="W119" s="16" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="X119" s="17">
         <v>818</v>
       </c>
       <c r="Y119" s="16" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="Z119" s="17">
         <v>578</v>
       </c>
       <c r="AA119" s="16" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="AB119" s="17">
         <v>327</v>
@@ -30293,59 +30293,59 @@
     </row>
     <row r="120" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
       <c r="A120" s="8" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F120" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=小死神傳奇</v>
       </c>
       <c r="H120" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I120" s="16" t="s">
         <v>1201</v>
-      </c>
-      <c r="I120" s="16" t="s">
-        <v>1202</v>
       </c>
       <c r="J120" s="17">
         <v>2011</v>
       </c>
       <c r="K120" s="16" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="L120" s="17">
         <v>1066</v>
       </c>
       <c r="M120" s="16" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="N120" s="17">
         <v>244</v>
       </c>
       <c r="O120" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="P120" s="17">
         <v>110</v>
       </c>
       <c r="Q120" s="16" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="R120" s="17">
         <v>35</v>
       </c>
       <c r="S120" s="16" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="T120" s="17">
         <v>653</v>
       </c>
       <c r="U120" s="16" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="V120" s="17">
         <v>244</v>
       </c>
       <c r="W120" s="16" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="X120" s="17">
         <v>110</v>
@@ -30353,65 +30353,65 @@
     </row>
     <row r="121" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
       <c r="A121" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F121" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=闇影詩章：凌越世界</v>
       </c>
       <c r="H121" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="I121" s="16" t="s">
         <v>1211</v>
-      </c>
-      <c r="I121" s="16" t="s">
-        <v>1212</v>
       </c>
       <c r="J121" s="17">
         <v>1948</v>
       </c>
       <c r="K121" s="16" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="L121" s="17">
         <v>984</v>
       </c>
       <c r="M121" s="16" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="N121" s="17">
         <v>620</v>
       </c>
       <c r="O121" s="16" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="P121" s="17">
         <v>419</v>
       </c>
       <c r="Q121" s="16" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="R121" s="17">
         <v>210</v>
       </c>
       <c r="S121" s="16" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="T121" s="17">
         <v>115</v>
       </c>
       <c r="U121" s="16" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="V121" s="17">
         <v>32</v>
       </c>
       <c r="W121" s="16" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="X121" s="17">
         <v>984</v>
       </c>
       <c r="Y121" s="16" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Z121" s="17">
         <v>419</v>
@@ -30419,14 +30419,14 @@
     </row>
     <row r="122" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
       <c r="A122" s="16" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F122" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=雪月風花</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I122" s="16" t="s">
         <v>19</v>
@@ -30467,14 +30467,14 @@
     </row>
     <row r="123" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
       <c r="A123" s="16" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F123" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=文明帝國：同盟時代</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I123" s="16" t="s">
         <v>13</v>
@@ -30521,14 +30521,14 @@
     </row>
     <row r="124" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
       <c r="A124" s="16" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F124" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=魔法商店大亨</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I124" s="16" t="s">
         <v>28</v>
@@ -30569,14 +30569,14 @@
     </row>
     <row r="125" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
       <c r="A125" s="16" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F125" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=新仙劍奇俠傳lite</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I125" s="16" t="s">
         <v>34</v>
@@ -30623,14 +30623,14 @@
     </row>
     <row r="126" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
       <c r="A126" s="16" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F126" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=神州M</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I126" s="16" t="s">
         <v>41</v>
@@ -30695,14 +30695,14 @@
     </row>
     <row r="127" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
       <c r="A127" s="8" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F127" s="8" t="str">
         <f t="shared" si="1"/>
         <v>gift-codes.html?game=英雄傳說：卡卡布三部曲</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I127" s="16" t="s">
         <v>49</v>
@@ -30768,7 +30768,7 @@
         <v>gift-codes.html?game=胡來英雄</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I128" s="16" t="s">
         <v>62</v>
@@ -30840,7 +30840,7 @@
         <v>gift-codes.html?game=一天又一天的RPG</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I129" s="16" t="s">
         <v>70</v>
@@ -30912,7 +30912,7 @@
         <v>gift-codes.html?game=銀與血</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I130" s="16" t="s">
         <v>80</v>
@@ -30990,7 +30990,7 @@
         <v>gift-codes.html?game=緋石之心</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I131" s="16" t="s">
         <v>91</v>
@@ -31049,14 +31049,14 @@
     </row>
     <row r="132" spans="1:34" ht="23.25" customHeight="1" thickBot="1">
       <c r="A132" s="16" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F132" s="8" t="str">
         <f t="shared" si="2"/>
         <v>gift-codes.html?game=滔湧少女</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="I132" s="16" t="s">
         <v>13</v>
@@ -31128,7 +31128,7 @@
         <v>gift-codes.html?game=漫威祕法狂潮</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="I133" s="16" t="s">
         <v>102</v>
@@ -31182,7 +31182,7 @@
         <v>gift-codes.html?game=魔教回歸：2D MMORPG</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I134" s="16" t="s">
         <v>109</v>
@@ -31254,7 +31254,7 @@
         <v>gift-codes.html?game=屍戰王朝</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I135" s="16" t="s">
         <v>126</v>
@@ -31338,7 +31338,7 @@
         <v>gift-codes.html?game=機甲變變變</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="I136" s="16" t="s">
         <v>5</v>
@@ -31403,14 +31403,14 @@
     </row>
     <row r="137" spans="1:34" ht="23.25" customHeight="1" thickBot="1">
       <c r="A137" s="16" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F137" s="8" t="str">
         <f t="shared" si="2"/>
         <v>gift-codes.html?game=狼少女蘭吉</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I137" s="16" t="s">
         <v>146</v>
@@ -31493,14 +31493,14 @@
     </row>
     <row r="138" spans="1:34" ht="23.25" customHeight="1" thickBot="1">
       <c r="A138" s="16" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F138" s="8" t="str">
         <f t="shared" si="2"/>
         <v>gift-codes.html?game=RO仙境傳說:曙光</v>
       </c>
       <c r="H138" s="12" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I138" s="16" t="s">
         <v>156</v>
@@ -31560,7 +31560,7 @@
         <v>gift-codes.html?game=星曲Ultra</v>
       </c>
       <c r="H139" s="12" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I139" s="16" t="s">
         <v>5</v>
@@ -31614,7 +31614,7 @@
         <v>gift-codes.html?game=第七天災</v>
       </c>
       <c r="H140" s="12" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I140" s="16" t="s">
         <v>169</v>
@@ -31685,14 +31685,14 @@
     </row>
     <row r="141" spans="1:34" ht="23.25" customHeight="1" thickBot="1">
       <c r="A141" s="16" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F141" s="8" t="str">
         <f t="shared" si="2"/>
         <v>gift-codes.html?game=百萬神界</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I141" s="16" t="s">
         <v>180</v>
@@ -31746,7 +31746,7 @@
         <v>gift-codes.html?game=Dark war</v>
       </c>
       <c r="H142" s="12" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I142" s="16" t="s">
         <v>5</v>
@@ -31805,35 +31805,35 @@
     </row>
     <row r="143" spans="1:34" ht="23.25" customHeight="1" thickBot="1">
       <c r="A143" s="19" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F143" s="8" t="str">
         <f t="shared" si="2"/>
         <v>gift-codes.html?game=美男惡徒</v>
       </c>
       <c r="H143" s="11" t="s">
+        <v>1251</v>
+      </c>
+      <c r="I143" s="20" t="s">
         <v>1252</v>
-      </c>
-      <c r="I143" s="20" t="s">
-        <v>1253</v>
       </c>
       <c r="J143" s="21">
         <v>2551</v>
       </c>
       <c r="K143" s="20" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="L143" s="21">
         <v>1764</v>
       </c>
       <c r="M143" s="20" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="N143" s="21">
         <v>1217</v>
       </c>
       <c r="O143" s="20" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="P143" s="21">
         <v>727</v>
@@ -31845,31 +31845,31 @@
         <v>394</v>
       </c>
       <c r="S143" s="20" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="T143" s="21">
         <v>267</v>
       </c>
       <c r="U143" s="20" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="V143" s="21">
         <v>165</v>
       </c>
       <c r="W143" s="20" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="X143" s="21">
         <v>61</v>
       </c>
       <c r="Y143" s="20" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Z143" s="21">
         <v>35</v>
       </c>
       <c r="AA143" s="20" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="AB143" s="21">
         <v>157</v>
@@ -31877,53 +31877,53 @@
     </row>
     <row r="144" spans="1:34" ht="23.25" customHeight="1" thickBot="1">
       <c r="A144" s="22" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="F144" s="8" t="str">
         <f t="shared" si="2"/>
         <v>gift-codes.html?game=三國冰河時代</v>
       </c>
       <c r="H144" s="24" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I144" s="20" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J144" s="21">
         <v>2551</v>
       </c>
       <c r="K144" s="20" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="L144" s="21">
         <v>1323</v>
       </c>
       <c r="M144" s="20" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="N144" s="21">
         <v>539</v>
       </c>
       <c r="O144" s="20" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="P144" s="21">
         <v>267</v>
       </c>
       <c r="Q144" s="20" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="R144" s="21">
         <v>148</v>
       </c>
       <c r="S144" s="20" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="T144" s="21">
         <v>35</v>
       </c>
       <c r="U144" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="V144" s="21">
         <v>57</v>
@@ -31931,14 +31931,14 @@
     </row>
     <row r="145" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
       <c r="A145" s="23" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F145" s="8" t="str">
         <f t="shared" si="2"/>
         <v>gift-codes.html?game=暗黑崛起</v>
       </c>
       <c r="H145" s="25" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="I145" s="20" t="s">
         <v>19</v>
@@ -31959,7 +31959,7 @@
         <v>786</v>
       </c>
       <c r="O145" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="P145" s="21">
         <v>394</v>
@@ -31971,13 +31971,13 @@
         <v>130</v>
       </c>
       <c r="S145" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="T145" s="21">
         <v>35</v>
       </c>
       <c r="U145" s="20" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="V145" s="21">
         <v>104</v>
@@ -31985,71 +31985,71 @@
     </row>
     <row r="146" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
       <c r="A146" s="23" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="F146" s="8" t="str">
         <f t="shared" si="2"/>
         <v>gift-codes.html?game=轉生魔劍士養成：策略放置RPG</v>
       </c>
       <c r="H146" s="25" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="I146" s="20" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="J146" s="21">
         <v>2386</v>
       </c>
       <c r="K146" s="20" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="L146" s="21">
         <v>1603</v>
       </c>
       <c r="M146" s="20" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="N146" s="21">
         <v>786</v>
       </c>
       <c r="O146" s="20" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="P146" s="21">
         <v>278</v>
       </c>
       <c r="Q146" s="20" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="R146" s="21">
         <v>130</v>
       </c>
       <c r="S146" s="20" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="T146" s="21">
         <v>52</v>
       </c>
       <c r="U146" s="20" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="V146" s="21">
         <v>130</v>
       </c>
       <c r="W146" s="20" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="X146" s="21">
         <v>278</v>
       </c>
       <c r="Y146" s="20" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="Z146" s="21">
         <v>539</v>
       </c>
       <c r="AA146" s="20" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AB146" s="21">
         <v>786</v>
@@ -32057,14 +32057,14 @@
     </row>
     <row r="147" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
       <c r="A147" s="22" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F147" s="8" t="str">
         <f t="shared" si="2"/>
         <v>gift-codes.html?game=極速漂移：3V3</v>
       </c>
       <c r="H147" s="24" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I147" s="20" t="s">
         <v>5</v>
@@ -32103,13 +32103,13 @@
         <v>35</v>
       </c>
       <c r="U147" s="20" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="V147" s="21">
         <v>278</v>
       </c>
       <c r="W147" s="20" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="X147" s="21">
         <v>539</v>
@@ -32127,7 +32127,7 @@
         <v>323</v>
       </c>
       <c r="AC147" s="20" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="AD147" s="21">
         <v>87</v>
@@ -32135,14 +32135,14 @@
     </row>
     <row r="148" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
       <c r="A148" s="23" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F148" s="8" t="str">
         <f t="shared" si="2"/>
         <v>gift-codes.html?game=斗羅大陸：獵魂世界</v>
       </c>
       <c r="H148" s="25" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I148" s="20" t="s">
         <v>13</v>
@@ -32169,13 +32169,13 @@
         <v>548</v>
       </c>
       <c r="Q148" s="20" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="R148" s="21">
         <v>394</v>
       </c>
       <c r="S148" s="20" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="T148" s="21">
         <v>198</v>
@@ -32193,7 +32193,7 @@
         <v>35</v>
       </c>
       <c r="Y148" s="20" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="Z148" s="21">
         <v>146</v>
@@ -32207,47 +32207,47 @@
     </row>
     <row r="149" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
       <c r="A149" s="23" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="F149" s="8" t="str">
         <f t="shared" si="2"/>
         <v>gift-codes.html?game=指點兵兵</v>
       </c>
       <c r="H149" s="25" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I149" s="20" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="J149" s="21">
         <v>2551</v>
       </c>
       <c r="K149" s="20" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="L149" s="21">
         <v>1323</v>
       </c>
       <c r="M149" s="20" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="N149" s="21">
         <v>539</v>
       </c>
       <c r="O149" s="20" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="P149" s="21">
         <v>266</v>
       </c>
       <c r="Q149" s="20" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="R149" s="21">
         <v>146</v>
       </c>
       <c r="S149" s="20" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="T149" s="21">
         <v>35</v>

--- a/games.xlsx
+++ b/games.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="1306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="1334">
   <si>
     <t>Facebook</t>
   </si>
@@ -23247,12 +23247,115 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>變身傳奇</t>
+  </si>
+  <si>
+    <t>Blue eyes：公會大師</t>
+  </si>
+  <si>
+    <t>《變身傳奇》是一款掛機角色扮演遊戲，玩家在遊戲中扮演被神選中的勇者，獲得變身力量，在奇幻世界中冒險，並不斷進化成傳奇英雄。 遊戲主打輕鬆的掛機體驗，即使離線也能持續成長，並提供豐富的社交和pvp元素。  化身為傳說中的英雄，體驗更強大的力量與華麗的戰鬥。 透過冒險與戰鬥成長，在競爭中勝出，奪取無可匹敵的地位！ 放置型動作RPG的真正樂趣無論何時何地都能輕鬆培養角色。 即使你暫時離線，英雄也會持續成長，當你回來時，將展開一場刺激的戰鬥並獲得豐富的獎勵！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>『地球、武林界、符文大地、艾爾弗拉多、魯坎……無數個世界被「高塔」所選中。
+被選中的世界【玩家】，可登上高塔，不斷變強。
+他們為了登上更高的殿堂，創立了【公會】。
+所以說【Blue Eyes】，
+這個如今成為傳說的公會名稱，是所有公會大師的夢想與目標。』</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000鑽石</t>
+  </si>
+  <si>
+    <t>25000鑽石</t>
+  </si>
+  <si>
+    <t>15000鑽石</t>
+  </si>
+  <si>
+    <t>7500鑽石</t>
+  </si>
+  <si>
+    <r>
+      <t>5000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鑽石</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>290台幣禮包</t>
+  </si>
+  <si>
+    <t>220台幣禮包</t>
+  </si>
+  <si>
+    <t>150台幣禮包</t>
+  </si>
+  <si>
+    <t>120台幣禮包</t>
+  </si>
+  <si>
+    <t>60台幣禮包</t>
+  </si>
+  <si>
+    <t>119000紅點</t>
+  </si>
+  <si>
+    <t>65000紅點</t>
+  </si>
+  <si>
+    <t>37000紅點</t>
+  </si>
+  <si>
+    <t>19000紅點</t>
+  </si>
+  <si>
+    <t>5900紅點</t>
+  </si>
+  <si>
+    <t>2290台幣禮包</t>
+  </si>
+  <si>
+    <t>1990台幣禮包</t>
+  </si>
+  <si>
+    <t>1290台幣禮包</t>
+  </si>
+  <si>
+    <t>990台幣禮包</t>
+  </si>
+  <si>
+    <t>790台幣禮包</t>
+  </si>
+  <si>
+    <t>690台幣禮包</t>
+  </si>
+  <si>
+    <t>320台幣禮包</t>
+  </si>
+  <si>
+    <t>90台幣禮包</t>
+  </si>
+  <si>
+    <t>30台幣禮包</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -23316,6 +23419,13 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -23753,10 +23863,10 @@
   <dimension ref="A1:AN232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O37" sqref="O37"/>
+      <selection pane="bottomRight" activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -30986,7 +31096,7 @@
         <v>61</v>
       </c>
       <c r="F131" s="8" t="str">
-        <f t="shared" ref="F131:F149" si="2">"gift-codes.html?game=" &amp; A131</f>
+        <f t="shared" ref="F131:F151" si="2">"gift-codes.html?game=" &amp; A131</f>
         <v>gift-codes.html?game=緋石之心</v>
       </c>
       <c r="H131" s="12" t="s">
@@ -31929,7 +32039,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="145" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
+    <row r="145" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A145" s="23" t="s">
         <v>1262</v>
       </c>
@@ -31983,7 +32093,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="146" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
+    <row r="146" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A146" s="23" t="s">
         <v>1263</v>
       </c>
@@ -32055,7 +32165,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="147" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
+    <row r="147" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A147" s="22" t="s">
         <v>1284</v>
       </c>
@@ -32133,7 +32243,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="148" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
+    <row r="148" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A148" s="23" t="s">
         <v>1292</v>
       </c>
@@ -32205,7 +32315,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="149" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
+    <row r="149" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A149" s="23" t="s">
         <v>1293</v>
       </c>
@@ -32253,17 +32363,201 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:30" ht="23.25" customHeight="1"/>
-    <row r="151" spans="1:30" ht="23.25" customHeight="1"/>
-    <row r="152" spans="1:30" ht="23.25" customHeight="1"/>
-    <row r="153" spans="1:30" ht="23.25" customHeight="1"/>
-    <row r="154" spans="1:30" ht="23.25" customHeight="1"/>
-    <row r="155" spans="1:30" ht="23.25" customHeight="1"/>
-    <row r="156" spans="1:30" ht="23.25" customHeight="1"/>
-    <row r="157" spans="1:30" ht="23.25" customHeight="1"/>
-    <row r="158" spans="1:30" ht="23.25" customHeight="1"/>
-    <row r="159" spans="1:30" ht="23.25" customHeight="1"/>
-    <row r="160" spans="1:30" ht="23.25" customHeight="1"/>
+    <row r="150" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A150" s="23" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F150" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>gift-codes.html?game=變身傳奇</v>
+      </c>
+      <c r="H150" s="24" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I150" s="20" t="s">
+        <v>1310</v>
+      </c>
+      <c r="J150" s="21">
+        <v>1949</v>
+      </c>
+      <c r="K150" s="20" t="s">
+        <v>1311</v>
+      </c>
+      <c r="L150" s="21">
+        <v>1010</v>
+      </c>
+      <c r="M150" s="20" t="s">
+        <v>1312</v>
+      </c>
+      <c r="N150" s="21">
+        <v>618</v>
+      </c>
+      <c r="O150" s="20" t="s">
+        <v>1313</v>
+      </c>
+      <c r="P150" s="21">
+        <v>310</v>
+      </c>
+      <c r="Q150" s="20" t="s">
+        <v>1314</v>
+      </c>
+      <c r="R150" s="21">
+        <v>230</v>
+      </c>
+      <c r="S150" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="T150" s="21">
+        <v>76</v>
+      </c>
+      <c r="U150" s="20" t="s">
+        <v>1315</v>
+      </c>
+      <c r="V150" s="21">
+        <v>230</v>
+      </c>
+      <c r="W150" s="20" t="s">
+        <v>1316</v>
+      </c>
+      <c r="X150" s="21">
+        <v>175</v>
+      </c>
+      <c r="Y150" s="20" t="s">
+        <v>1317</v>
+      </c>
+      <c r="Z150" s="21">
+        <v>127</v>
+      </c>
+      <c r="AA150" s="20" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AB150" s="21">
+        <v>101</v>
+      </c>
+      <c r="AC150" s="20" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AD150" s="21">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="151" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A151" s="23" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F151" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>gift-codes.html?game=Blue eyes：公會大師</v>
+      </c>
+      <c r="H151" s="25" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I151" s="20" t="s">
+        <v>1320</v>
+      </c>
+      <c r="J151" s="21">
+        <v>2340</v>
+      </c>
+      <c r="K151" s="20" t="s">
+        <v>1321</v>
+      </c>
+      <c r="L151" s="21">
+        <v>1166</v>
+      </c>
+      <c r="M151" s="20" t="s">
+        <v>1322</v>
+      </c>
+      <c r="N151" s="21">
+        <v>618</v>
+      </c>
+      <c r="O151" s="20" t="s">
+        <v>1323</v>
+      </c>
+      <c r="P151" s="21">
+        <v>310</v>
+      </c>
+      <c r="Q151" s="20" t="s">
+        <v>1324</v>
+      </c>
+      <c r="R151" s="21">
+        <v>101</v>
+      </c>
+      <c r="S151" s="20" t="s">
+        <v>1325</v>
+      </c>
+      <c r="T151" s="21">
+        <v>1793</v>
+      </c>
+      <c r="U151" s="20" t="s">
+        <v>1326</v>
+      </c>
+      <c r="V151" s="21">
+        <v>1558</v>
+      </c>
+      <c r="W151" s="20" t="s">
+        <v>1327</v>
+      </c>
+      <c r="X151" s="21">
+        <v>1010</v>
+      </c>
+      <c r="Y151" s="20" t="s">
+        <v>1328</v>
+      </c>
+      <c r="Z151" s="21">
+        <v>775</v>
+      </c>
+      <c r="AA151" s="20" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AB151" s="21">
+        <v>618</v>
+      </c>
+      <c r="AC151" s="20" t="s">
+        <v>1330</v>
+      </c>
+      <c r="AD151" s="21">
+        <v>548</v>
+      </c>
+      <c r="AE151" s="20" t="s">
+        <v>1331</v>
+      </c>
+      <c r="AF151" s="21">
+        <v>254</v>
+      </c>
+      <c r="AG151" s="20" t="s">
+        <v>1316</v>
+      </c>
+      <c r="AH151" s="21">
+        <v>175</v>
+      </c>
+      <c r="AI151" s="20" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AJ151" s="21">
+        <v>101</v>
+      </c>
+      <c r="AK151" s="20" t="s">
+        <v>1332</v>
+      </c>
+      <c r="AL151" s="21">
+        <v>76</v>
+      </c>
+      <c r="AM151" s="20" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AN151" s="21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:40" ht="23.25" customHeight="1"/>
+    <row r="153" spans="1:40" ht="23.25" customHeight="1"/>
+    <row r="154" spans="1:40" ht="23.25" customHeight="1"/>
+    <row r="155" spans="1:40" ht="23.25" customHeight="1"/>
+    <row r="156" spans="1:40" ht="23.25" customHeight="1"/>
+    <row r="157" spans="1:40" ht="23.25" customHeight="1"/>
+    <row r="158" spans="1:40" ht="23.25" customHeight="1"/>
+    <row r="159" spans="1:40" ht="23.25" customHeight="1"/>
+    <row r="160" spans="1:40" ht="23.25" customHeight="1"/>
     <row r="161" ht="23.25" customHeight="1"/>
     <row r="162" ht="23.25" customHeight="1"/>
     <row r="163" ht="23.25" customHeight="1"/>

--- a/games.xlsx
+++ b/games.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="1334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="1349">
   <si>
     <t>Facebook</t>
   </si>
@@ -23349,6 +23349,59 @@
   </si>
   <si>
     <t>30台幣禮包</t>
+  </si>
+  <si>
+    <t>杖劍傳說：坎斯汀之約</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">《杖劍傳說》是一款異世界休閒冒險放置RPG。
+在這裡，你將作為冒險者，自由探索坎斯汀世界的每一個角落。
+在這裡撥開地圖迷霧，尋得掉落在各地的珍稀寶物，體驗輕鬆爽快的
+異世界之旅吧。
+當然，在旅途的過程中，你還會邂逅各式各樣夥伴，與他們並肩作
+戰，共同挑戰神秘的聖獸。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6480耀星</t>
+  </si>
+  <si>
+    <t>3280耀星</t>
+  </si>
+  <si>
+    <t>1980耀星</t>
+  </si>
+  <si>
+    <t>980耀星</t>
+  </si>
+  <si>
+    <t>300耀星</t>
+  </si>
+  <si>
+    <t>60耀星</t>
+  </si>
+  <si>
+    <t>月度獎勵</t>
+  </si>
+  <si>
+    <t>七日祈願</t>
+  </si>
+  <si>
+    <t>1690台幣禮包</t>
+  </si>
+  <si>
+    <t>670台幣禮包</t>
+  </si>
+  <si>
+    <t>330台幣禮包</t>
+  </si>
+  <si>
+    <t>170台幣禮包</t>
+  </si>
+  <si>
+    <t>100台幣禮包</t>
   </si>
 </sst>
 </file>
@@ -23488,7 +23541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -23555,6 +23608,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -23863,10 +23917,10 @@
   <dimension ref="A1:AN232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J149" sqref="J149"/>
+      <selection pane="bottomRight" activeCell="AI152" sqref="AI152:AJ152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -31096,7 +31150,7 @@
         <v>61</v>
       </c>
       <c r="F131" s="8" t="str">
-        <f t="shared" ref="F131:F151" si="2">"gift-codes.html?game=" &amp; A131</f>
+        <f t="shared" ref="F131:F152" si="2">"gift-codes.html?game=" &amp; A131</f>
         <v>gift-codes.html?game=緋石之心</v>
       </c>
       <c r="H131" s="12" t="s">
@@ -32549,7 +32603,102 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:40" ht="23.25" customHeight="1"/>
+    <row r="152" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A152" s="26" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F152" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>gift-codes.html?game=杖劍傳說：坎斯汀之約</v>
+      </c>
+      <c r="H152" s="25" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I152" s="20" t="s">
+        <v>1336</v>
+      </c>
+      <c r="J152" s="21">
+        <v>2510</v>
+      </c>
+      <c r="K152" s="20" t="s">
+        <v>1337</v>
+      </c>
+      <c r="L152" s="21">
+        <v>1308</v>
+      </c>
+      <c r="M152" s="20" t="s">
+        <v>1338</v>
+      </c>
+      <c r="N152" s="21">
+        <v>766</v>
+      </c>
+      <c r="O152" s="20" t="s">
+        <v>1339</v>
+      </c>
+      <c r="P152" s="21">
+        <v>385</v>
+      </c>
+      <c r="Q152" s="20" t="s">
+        <v>1340</v>
+      </c>
+      <c r="R152" s="21">
+        <v>142</v>
+      </c>
+      <c r="S152" s="20" t="s">
+        <v>1341</v>
+      </c>
+      <c r="T152" s="21">
+        <v>28</v>
+      </c>
+      <c r="U152" s="20" t="s">
+        <v>1342</v>
+      </c>
+      <c r="V152" s="21">
+        <v>142</v>
+      </c>
+      <c r="W152" s="20" t="s">
+        <v>1343</v>
+      </c>
+      <c r="X152" s="21">
+        <v>259</v>
+      </c>
+      <c r="Y152" s="20" t="s">
+        <v>1344</v>
+      </c>
+      <c r="Z152" s="21">
+        <v>1308</v>
+      </c>
+      <c r="AA152" s="20" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AB152" s="21">
+        <v>766</v>
+      </c>
+      <c r="AC152" s="20" t="s">
+        <v>1345</v>
+      </c>
+      <c r="AD152" s="21">
+        <v>526</v>
+      </c>
+      <c r="AE152" s="20" t="s">
+        <v>1346</v>
+      </c>
+      <c r="AF152" s="21">
+        <v>259</v>
+      </c>
+      <c r="AG152" s="20" t="s">
+        <v>1347</v>
+      </c>
+      <c r="AH152" s="21">
+        <v>142</v>
+      </c>
+      <c r="AI152" s="20" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AJ152" s="21">
+        <v>84</v>
+      </c>
+    </row>
     <row r="153" spans="1:40" ht="23.25" customHeight="1"/>
     <row r="154" spans="1:40" ht="23.25" customHeight="1"/>
     <row r="155" spans="1:40" ht="23.25" customHeight="1"/>

--- a/games.xlsx
+++ b/games.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="1349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="1359">
   <si>
     <t>Facebook</t>
   </si>
@@ -23402,6 +23402,38 @@
   </si>
   <si>
     <t>100台幣禮包</t>
+  </si>
+  <si>
+    <t>超級海戰：紀元崛起</t>
+  </si>
+  <si>
+    <t>580鑽石</t>
+  </si>
+  <si>
+    <t>120鑽石</t>
+  </si>
+  <si>
+    <t>9999戰艦幣</t>
+  </si>
+  <si>
+    <t>4999戰艦幣</t>
+  </si>
+  <si>
+    <t>2999戰艦幣</t>
+  </si>
+  <si>
+    <t>1499戰艦幣</t>
+  </si>
+  <si>
+    <t>499戰艦幣</t>
+  </si>
+  <si>
+    <t>99戰艦幣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">《超級海戰：紀元崛起》是一款以未來海戰為主題的策略軍事遊戲。 故事背景設定在2064年，全球海平面上升後，世界重組為三大海上陣營。 玩家將扮演艦隊指揮官，建設基地、研發武器、打造艦隊，並在三大陣營中爭奪海上霸權。
+總體而言，《超級海戰：紀元崛起》是一款玩法豐富，畫面精美的未來海戰策略遊戲，值得玩家期待。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -23914,13 +23946,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN232"/>
+  <dimension ref="A1:AP232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI152" sqref="AI152:AJ152"/>
+      <selection pane="bottomRight" activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -31150,7 +31182,7 @@
         <v>61</v>
       </c>
       <c r="F131" s="8" t="str">
-        <f t="shared" ref="F131:F152" si="2">"gift-codes.html?game=" &amp; A131</f>
+        <f t="shared" ref="F131:F153" si="2">"gift-codes.html?game=" &amp; A131</f>
         <v>gift-codes.html?game=緋石之心</v>
       </c>
       <c r="H131" s="12" t="s">
@@ -32093,7 +32125,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="145" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="145" spans="1:42" ht="23.25" customHeight="1" thickBot="1">
       <c r="A145" s="23" t="s">
         <v>1262</v>
       </c>
@@ -32147,7 +32179,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="146" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="146" spans="1:42" ht="23.25" customHeight="1" thickBot="1">
       <c r="A146" s="23" t="s">
         <v>1263</v>
       </c>
@@ -32219,7 +32251,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="147" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="147" spans="1:42" ht="23.25" customHeight="1" thickBot="1">
       <c r="A147" s="22" t="s">
         <v>1284</v>
       </c>
@@ -32297,7 +32329,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="148" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="148" spans="1:42" ht="23.25" customHeight="1" thickBot="1">
       <c r="A148" s="23" t="s">
         <v>1292</v>
       </c>
@@ -32369,7 +32401,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="149" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="149" spans="1:42" ht="23.25" customHeight="1" thickBot="1">
       <c r="A149" s="23" t="s">
         <v>1293</v>
       </c>
@@ -32417,7 +32449,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="150" spans="1:42" ht="23.25" customHeight="1" thickBot="1">
       <c r="A150" s="23" t="s">
         <v>1306</v>
       </c>
@@ -32495,7 +32527,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="151" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="151" spans="1:42" ht="23.25" customHeight="1" thickBot="1">
       <c r="A151" s="23" t="s">
         <v>1307</v>
       </c>
@@ -32603,7 +32635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="152" spans="1:42" ht="23.25" customHeight="1" thickBot="1">
       <c r="A152" s="26" t="s">
         <v>1334</v>
       </c>
@@ -32699,14 +32731,127 @@
         <v>84</v>
       </c>
     </row>
-    <row r="153" spans="1:40" ht="23.25" customHeight="1"/>
-    <row r="154" spans="1:40" ht="23.25" customHeight="1"/>
-    <row r="155" spans="1:40" ht="23.25" customHeight="1"/>
-    <row r="156" spans="1:40" ht="23.25" customHeight="1"/>
-    <row r="157" spans="1:40" ht="23.25" customHeight="1"/>
-    <row r="158" spans="1:40" ht="23.25" customHeight="1"/>
-    <row r="159" spans="1:40" ht="23.25" customHeight="1"/>
-    <row r="160" spans="1:40" ht="23.25" customHeight="1"/>
+    <row r="153" spans="1:42" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A153" s="22" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F153" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>gift-codes.html?game=超級海戰：紀元崛起</v>
+      </c>
+      <c r="H153" s="25" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I153" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J153" s="21">
+        <v>2314</v>
+      </c>
+      <c r="K153" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L153" s="21">
+        <v>1153</v>
+      </c>
+      <c r="M153" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N153" s="21">
+        <v>766</v>
+      </c>
+      <c r="O153" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="P153" s="21">
+        <v>541</v>
+      </c>
+      <c r="Q153" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R153" s="21">
+        <v>385</v>
+      </c>
+      <c r="S153" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="T153" s="21">
+        <v>251</v>
+      </c>
+      <c r="U153" s="20" t="s">
+        <v>1350</v>
+      </c>
+      <c r="V153" s="21">
+        <v>228</v>
+      </c>
+      <c r="W153" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="X153" s="21">
+        <v>125</v>
+      </c>
+      <c r="Y153" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z153" s="21">
+        <v>75</v>
+      </c>
+      <c r="AA153" s="20" t="s">
+        <v>1351</v>
+      </c>
+      <c r="AB153" s="21">
+        <v>50</v>
+      </c>
+      <c r="AC153" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD153" s="21">
+        <v>25</v>
+      </c>
+      <c r="AE153" s="20" t="s">
+        <v>1352</v>
+      </c>
+      <c r="AF153" s="21">
+        <v>2314</v>
+      </c>
+      <c r="AG153" s="20" t="s">
+        <v>1353</v>
+      </c>
+      <c r="AH153" s="21">
+        <v>1153</v>
+      </c>
+      <c r="AI153" s="20" t="s">
+        <v>1354</v>
+      </c>
+      <c r="AJ153" s="21">
+        <v>766</v>
+      </c>
+      <c r="AK153" s="20" t="s">
+        <v>1355</v>
+      </c>
+      <c r="AL153" s="21">
+        <v>385</v>
+      </c>
+      <c r="AM153" s="20" t="s">
+        <v>1356</v>
+      </c>
+      <c r="AN153" s="21">
+        <v>125</v>
+      </c>
+      <c r="AO153" s="20" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AP153" s="21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:42" ht="23.25" customHeight="1"/>
+    <row r="155" spans="1:42" ht="23.25" customHeight="1"/>
+    <row r="156" spans="1:42" ht="23.25" customHeight="1"/>
+    <row r="157" spans="1:42" ht="23.25" customHeight="1"/>
+    <row r="158" spans="1:42" ht="23.25" customHeight="1"/>
+    <row r="159" spans="1:42" ht="23.25" customHeight="1"/>
+    <row r="160" spans="1:42" ht="23.25" customHeight="1"/>
     <row r="161" ht="23.25" customHeight="1"/>
     <row r="162" ht="23.25" customHeight="1"/>
     <row r="163" ht="23.25" customHeight="1"/>

--- a/games.xlsx
+++ b/games.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="1359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="1370">
   <si>
     <t>Facebook</t>
   </si>
@@ -23434,6 +23434,47 @@
     <t xml:space="preserve">《超級海戰：紀元崛起》是一款以未來海戰為主題的策略軍事遊戲。 故事背景設定在2064年，全球海平面上升後，世界重組為三大海上陣營。 玩家將扮演艦隊指揮官，建設基地、研發武器、打造艦隊，並在三大陣營中爭奪海上霸權。
 總體而言，《超級海戰：紀元崛起》是一款玩法豐富，畫面精美的未來海戰策略遊戲，值得玩家期待。 </t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>進擊的惡魔團</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"進擊的惡魔團"
+裡面的惡魔角色頗可愛，月卡黨要打到後面的關卡也沒有很難
+閒著沒事可以點個廣告來看拿獎勵，可以拿到不錯的獎勵，不過我懶得等30秒就很少看。
+遊戲內容就是組自己的惡魔團小隊打關卡升級，畢竟遊戲本體就叫進擊的惡魔團，每一關大概10-15秒很適合拉屎或上班摸魚玩。
+每隻惡魔都有自己的特色和技能，有的很會打、有的很會補，還有一些特別的輔助惡魔，讓你玩起來很有挑戰性，怎麼搭配惡魔組成惡魔團才是關鍵。
+不管是挑戰關卡、PVP對戰，還是限時活動，本身是個非常喜新厭舊的人，進擊的惡魔團目前我是還沒玩膩。
+進擊的惡魔團絕對是一款值得你試試看的免費手遊，一起上班摸魚玩進擊的惡魔團！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13000紅寶石</t>
+  </si>
+  <si>
+    <t>6500紅寶石</t>
+  </si>
+  <si>
+    <t>2450紅寶石</t>
+  </si>
+  <si>
+    <t>1100紅寶石</t>
+  </si>
+  <si>
+    <t>500紅寶石</t>
+  </si>
+  <si>
+    <t>80紅寶石</t>
+  </si>
+  <si>
+    <t>2990台幣禮包</t>
+  </si>
+  <si>
+    <t>1490台幣禮包</t>
+  </si>
+  <si>
+    <t>390台幣禮包</t>
   </si>
 </sst>
 </file>
@@ -23949,10 +23990,10 @@
   <dimension ref="A1:AP232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F153" sqref="F153"/>
+      <selection pane="bottomRight" activeCell="AM154" sqref="AM154:AN154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -31182,7 +31223,7 @@
         <v>61</v>
       </c>
       <c r="F131" s="8" t="str">
-        <f t="shared" ref="F131:F153" si="2">"gift-codes.html?game=" &amp; A131</f>
+        <f t="shared" ref="F131:F154" si="2">"gift-codes.html?game=" &amp; A131</f>
         <v>gift-codes.html?game=緋石之心</v>
       </c>
       <c r="H131" s="12" t="s">
@@ -32845,7 +32886,114 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:42" ht="23.25" customHeight="1"/>
+    <row r="154" spans="1:42" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A154" s="19" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F154" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>gift-codes.html?game=進擊的惡魔團</v>
+      </c>
+      <c r="H154" s="25" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I154" s="20" t="s">
+        <v>1361</v>
+      </c>
+      <c r="J154" s="21">
+        <v>2314</v>
+      </c>
+      <c r="K154" s="20" t="s">
+        <v>1362</v>
+      </c>
+      <c r="L154" s="21">
+        <v>1153</v>
+      </c>
+      <c r="M154" s="20" t="s">
+        <v>1363</v>
+      </c>
+      <c r="N154" s="21">
+        <v>541</v>
+      </c>
+      <c r="O154" s="20" t="s">
+        <v>1364</v>
+      </c>
+      <c r="P154" s="21">
+        <v>251</v>
+      </c>
+      <c r="Q154" s="20" t="s">
+        <v>1365</v>
+      </c>
+      <c r="R154" s="21">
+        <v>125</v>
+      </c>
+      <c r="S154" s="20" t="s">
+        <v>1366</v>
+      </c>
+      <c r="T154" s="21">
+        <v>25</v>
+      </c>
+      <c r="U154" s="20" t="s">
+        <v>1367</v>
+      </c>
+      <c r="V154" s="21">
+        <v>2314</v>
+      </c>
+      <c r="W154" s="20" t="s">
+        <v>1368</v>
+      </c>
+      <c r="X154" s="21">
+        <v>1153</v>
+      </c>
+      <c r="Y154" s="20" t="s">
+        <v>1328</v>
+      </c>
+      <c r="Z154" s="21">
+        <v>766</v>
+      </c>
+      <c r="AA154" s="20" t="s">
+        <v>1330</v>
+      </c>
+      <c r="AB154" s="21">
+        <v>541</v>
+      </c>
+      <c r="AC154" s="20" t="s">
+        <v>1369</v>
+      </c>
+      <c r="AD154" s="21">
+        <v>306</v>
+      </c>
+      <c r="AE154" s="20" t="s">
+        <v>1331</v>
+      </c>
+      <c r="AF154" s="21">
+        <v>251</v>
+      </c>
+      <c r="AG154" s="20" t="s">
+        <v>1316</v>
+      </c>
+      <c r="AH154" s="21">
+        <v>173</v>
+      </c>
+      <c r="AI154" s="20" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AJ154" s="21">
+        <v>125</v>
+      </c>
+      <c r="AK154" s="20" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AL154" s="21">
+        <v>50</v>
+      </c>
+      <c r="AM154" s="20" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AN154" s="21">
+        <v>25</v>
+      </c>
+    </row>
     <row r="155" spans="1:42" ht="23.25" customHeight="1"/>
     <row r="156" spans="1:42" ht="23.25" customHeight="1"/>
     <row r="157" spans="1:42" ht="23.25" customHeight="1"/>

--- a/games.xlsx
+++ b/games.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="1370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="1389">
   <si>
     <t>Facebook</t>
   </si>
@@ -23475,6 +23475,65 @@
   </si>
   <si>
     <t>390台幣禮包</t>
+  </si>
+  <si>
+    <t>蝕影：緋之契</t>
+  </si>
+  <si>
+    <t>RO：Crush</t>
+  </si>
+  <si>
+    <t>《蝕影：緋之契》平安時代，京都曾是御神者與鬼怪共存的平衡之地。百年後，一場神秘的「月蝕祭典」撕裂了陰陽兩岸的結界，玉藻前殘魂蘇醒，策劃'血月嫁儀'欲染指現世。玩家將化身「末裔御神者」，手持符咒踏入混沌，收服百鬼，揭開「狐嫁女」與「孟婆」的滅世陰謀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《Ragnarok Crush》有別於以往 RO 常見的 MMORPG 玩法，本作主打休閒策略，遊戲中保留了 RO 經典的職業元素以及養成玩法，在挑戰關卡的過程中，玩家可以透過移動遊戲中的棋子完成合成，並且召喚出高階夥伴，連續合成還可以獲得額外步數，透過合成以及關卡中升級所獲得的隨機能力，挑戰在一波一波的魔物攻勢中生存下來。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32400仙玉</t>
+  </si>
+  <si>
+    <t>16400仙玉</t>
+  </si>
+  <si>
+    <t>9900仙玉</t>
+  </si>
+  <si>
+    <t>6400仙玉</t>
+  </si>
+  <si>
+    <t>4900仙玉</t>
+  </si>
+  <si>
+    <t>3400仙玉</t>
+  </si>
+  <si>
+    <t>1500仙玉</t>
+  </si>
+  <si>
+    <t>1250仙玉</t>
+  </si>
+  <si>
+    <t>900仙玉</t>
+  </si>
+  <si>
+    <t>600仙玉</t>
+  </si>
+  <si>
+    <t>300仙玉</t>
+  </si>
+  <si>
+    <t>9880鑽石</t>
+  </si>
+  <si>
+    <t>4880鑽石</t>
+  </si>
+  <si>
+    <t>1880鑽石</t>
+  </si>
+  <si>
+    <t>380鑽石</t>
   </si>
 </sst>
 </file>
@@ -23990,10 +24049,10 @@
   <dimension ref="A1:AP232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM154" sqref="AM154:AN154"/>
+      <selection pane="bottomRight" activeCell="S156" sqref="S156:T156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -31223,7 +31282,7 @@
         <v>61</v>
       </c>
       <c r="F131" s="8" t="str">
-        <f t="shared" ref="F131:F154" si="2">"gift-codes.html?game=" &amp; A131</f>
+        <f t="shared" ref="F131:F156" si="2">"gift-codes.html?game=" &amp; A131</f>
         <v>gift-codes.html?game=緋石之心</v>
       </c>
       <c r="H131" s="12" t="s">
@@ -32994,8 +33053,132 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:42" ht="23.25" customHeight="1"/>
-    <row r="156" spans="1:42" ht="23.25" customHeight="1"/>
+    <row r="155" spans="1:42" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A155" s="23" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F155" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>gift-codes.html?game=蝕影：緋之契</v>
+      </c>
+      <c r="H155" s="24" t="s">
+        <v>1372</v>
+      </c>
+      <c r="I155" s="20" t="s">
+        <v>1374</v>
+      </c>
+      <c r="J155" s="21">
+        <v>2518</v>
+      </c>
+      <c r="K155" s="20" t="s">
+        <v>1375</v>
+      </c>
+      <c r="L155" s="21">
+        <v>1277</v>
+      </c>
+      <c r="M155" s="20" t="s">
+        <v>1376</v>
+      </c>
+      <c r="N155" s="21">
+        <v>766</v>
+      </c>
+      <c r="O155" s="20" t="s">
+        <v>1377</v>
+      </c>
+      <c r="P155" s="21">
+        <v>526</v>
+      </c>
+      <c r="Q155" s="20" t="s">
+        <v>1378</v>
+      </c>
+      <c r="R155" s="21">
+        <v>385</v>
+      </c>
+      <c r="S155" s="20" t="s">
+        <v>1379</v>
+      </c>
+      <c r="T155" s="21">
+        <v>259</v>
+      </c>
+      <c r="U155" s="20" t="s">
+        <v>1380</v>
+      </c>
+      <c r="V155" s="21">
+        <v>142</v>
+      </c>
+      <c r="W155" s="20" t="s">
+        <v>1381</v>
+      </c>
+      <c r="X155" s="21">
+        <v>113</v>
+      </c>
+      <c r="Y155" s="20" t="s">
+        <v>1382</v>
+      </c>
+      <c r="Z155" s="21">
+        <v>84</v>
+      </c>
+      <c r="AA155" s="20" t="s">
+        <v>1383</v>
+      </c>
+      <c r="AB155" s="21">
+        <v>58</v>
+      </c>
+      <c r="AC155" s="20" t="s">
+        <v>1384</v>
+      </c>
+      <c r="AD155" s="21">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156" spans="1:42" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A156" s="23" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F156" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>gift-codes.html?game=RO：Crush</v>
+      </c>
+      <c r="H156" s="24" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I156" s="20" t="s">
+        <v>1385</v>
+      </c>
+      <c r="J156" s="21">
+        <v>2314</v>
+      </c>
+      <c r="K156" s="20" t="s">
+        <v>1386</v>
+      </c>
+      <c r="L156" s="21">
+        <v>1153</v>
+      </c>
+      <c r="M156" s="20" t="s">
+        <v>1387</v>
+      </c>
+      <c r="N156" s="21">
+        <v>541</v>
+      </c>
+      <c r="O156" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P156" s="21">
+        <v>251</v>
+      </c>
+      <c r="Q156" s="20" t="s">
+        <v>1388</v>
+      </c>
+      <c r="R156" s="21">
+        <v>125</v>
+      </c>
+      <c r="S156" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="T156" s="21">
+        <v>25</v>
+      </c>
+    </row>
     <row r="157" spans="1:42" ht="23.25" customHeight="1"/>
     <row r="158" spans="1:42" ht="23.25" customHeight="1"/>
     <row r="159" spans="1:42" ht="23.25" customHeight="1"/>
